--- a/HumanEv.xlsx
+++ b/HumanEv.xlsx
@@ -635,7 +635,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="159">
   <si>
     <t>Paragraph</t>
   </si>
@@ -1083,12 +1083,42 @@
   <si>
     <t>number hallucionated , years and data</t>
   </si>
+  <si>
+    <t>F1_Score</t>
+  </si>
+  <si>
+    <t>Rouge1</t>
+  </si>
+  <si>
+    <t>Rouge2</t>
+  </si>
+  <si>
+    <t>RougeL</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Vec2</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>0,888848</t>
+  </si>
+  <si>
+    <t>AUTOMATIC EVALUATION</t>
+  </si>
+  <si>
+    <t>HUMAN EVALUATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +1145,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1182,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,9 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,11 +1306,67 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="140">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1677,220 +1768,238 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table7" displayName="Table7" ref="B9:H10" insertRow="1" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table7" displayName="Table7" ref="B9:H10" insertRow="1" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="B9:H10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Paragraph" dataDxfId="126"/>
-    <tableColumn id="10" name="Model" dataDxfId="125"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="124"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="123"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="122"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="121"/>
-    <tableColumn id="6" name="comment" dataDxfId="120"/>
+    <tableColumn id="1" name="Paragraph" dataDxfId="137"/>
+    <tableColumn id="10" name="Model" dataDxfId="136"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="135"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="134"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="133"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="132"/>
+    <tableColumn id="6" name="comment" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table79711" displayName="Table79711" ref="B202:I203" insertRow="1" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table79711" displayName="Table79711" ref="B202:I203" insertRow="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="B202:I203"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="37"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="36"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="35"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="34"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="33"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="32"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="31"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="30"/>
+    <tableColumn id="1" name="Author" dataDxfId="48"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="47"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="46"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="45"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="44"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="43"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="42"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table7971112" displayName="Table7971112" ref="K202:R203" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table7971112" displayName="Table7971112" ref="K202:R203" insertRow="1" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="K202:R203"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="27"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="26"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="25"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="24"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="23"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="22"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="21"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="20"/>
+    <tableColumn id="1" name="Author" dataDxfId="38"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="37"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="36"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="35"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="34"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="33"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="32"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table7978914" displayName="Table7978914" ref="T203:AA204" insertRow="1" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table7978914" displayName="Table7978914" ref="T203:AA204" insertRow="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="T203:AA204"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="17"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="16"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="15"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="14"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="13"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="12"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="11"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="10"/>
+    <tableColumn id="1" name="Author" dataDxfId="28"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="27"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="26"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="25"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="24"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="23"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="22"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table797891015" displayName="Table797891015" ref="AC203:AJ204" insertRow="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table797891015" displayName="Table797891015" ref="AC203:AJ204" insertRow="1" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="AC203:AJ204"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="7"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="6"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="5"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="4"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="3"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="2"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="1"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="0"/>
+    <tableColumn id="1" name="Author" dataDxfId="18"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="17"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="16"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="15"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="14"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="13"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="12"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table716" displayName="Table716" ref="J9:R10" insertRow="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="J9:R10"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Paragraph" dataDxfId="8"/>
+    <tableColumn id="10" name="Model" dataDxfId="7"/>
+    <tableColumn id="2" name="F1_Score" dataDxfId="6"/>
+    <tableColumn id="3" name="Rouge1" dataDxfId="5"/>
+    <tableColumn id="4" name="Rouge2" dataDxfId="4"/>
+    <tableColumn id="5" name="RougeL" dataDxfId="3"/>
+    <tableColumn id="6" name="Length" dataDxfId="2"/>
+    <tableColumn id="7" name="Vec2" dataDxfId="1"/>
+    <tableColumn id="8" name="Bleu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table79" displayName="Table79" ref="B27:I28" insertRow="1" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table79" displayName="Table79" ref="B27:I28" insertRow="1" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="B27:I28"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="117"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="116"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="115"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="114"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="113"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="112"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="111"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="110"/>
+    <tableColumn id="1" name="Author" dataDxfId="128"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="127"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="126"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="125"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="124"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="123"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="122"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table7910" displayName="Table7910" ref="K27:R28" insertRow="1" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table7910" displayName="Table7910" ref="K27:R28" insertRow="1" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="K27:R28"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="107"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="106"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="105"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="104"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="103"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="102"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="101"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="100"/>
+    <tableColumn id="1" name="Author" dataDxfId="118"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="117"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="116"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="115"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="114"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="113"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="112"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table791011" displayName="Table791011" ref="T27:AA28" insertRow="1" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table791011" displayName="Table791011" ref="T27:AA28" insertRow="1" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="T27:AA28"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="97"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="96"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="95"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="94"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="93"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="92"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="91"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="90"/>
+    <tableColumn id="1" name="Author" dataDxfId="108"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="107"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="106"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="105"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="104"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="103"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="102"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table79101112" displayName="Table79101112" ref="AC27:AJ28" insertRow="1" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table79101112" displayName="Table79101112" ref="AC27:AJ28" insertRow="1" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="AC27:AJ28"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="87"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="86"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="85"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="84"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="83"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="82"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="81"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="80"/>
+    <tableColumn id="1" name="Author" dataDxfId="98"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="97"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="96"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="95"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="94"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="93"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="92"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table797" displayName="Table797" ref="B114:I115" insertRow="1" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table797" displayName="Table797" ref="B114:I115" insertRow="1" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="B114:I115"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="77"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="76"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="75"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="74"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="73"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="72"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="71"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="70"/>
+    <tableColumn id="1" name="Author" dataDxfId="88"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="87"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="86"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="85"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="84"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="83"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="82"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7978" displayName="Table7978" ref="K114:R115" insertRow="1" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7978" displayName="Table7978" ref="K114:R115" insertRow="1" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="K114:R115"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="67"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="66"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="65"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="64"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="63"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="62"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="61"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="60"/>
+    <tableColumn id="1" name="Author" dataDxfId="78"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="77"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="76"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="75"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="74"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="73"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="72"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table79789" displayName="Table79789" ref="T114:AA115" insertRow="1" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table79789" displayName="Table79789" ref="T114:AA115" insertRow="1" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="T114:AA115"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="57"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="56"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="55"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="54"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="53"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="52"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="51"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="50"/>
+    <tableColumn id="1" name="Author" dataDxfId="68"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="67"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="66"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="65"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="64"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="63"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="62"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table7978910" displayName="Table7978910" ref="AC114:AJ115" insertRow="1" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table7978910" displayName="Table7978910" ref="AC114:AJ115" insertRow="1" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="AC114:AJ115"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Author" dataDxfId="47"/>
-    <tableColumn id="10" name="Generated texts" dataDxfId="46"/>
-    <tableColumn id="2" name="Coherence" dataDxfId="45"/>
-    <tableColumn id="3" name="Consistency" dataDxfId="44"/>
-    <tableColumn id="4" name="Relevance" dataDxfId="43"/>
-    <tableColumn id="5" name="Fluency" dataDxfId="42"/>
-    <tableColumn id="6" name="Adjectives" dataDxfId="41"/>
-    <tableColumn id="11" name="Pronouns" dataDxfId="40"/>
+    <tableColumn id="1" name="Author" dataDxfId="58"/>
+    <tableColumn id="10" name="Generated texts" dataDxfId="57"/>
+    <tableColumn id="2" name="Coherence" dataDxfId="56"/>
+    <tableColumn id="3" name="Consistency" dataDxfId="55"/>
+    <tableColumn id="4" name="Relevance" dataDxfId="54"/>
+    <tableColumn id="5" name="Fluency" dataDxfId="53"/>
+    <tableColumn id="6" name="Adjectives" dataDxfId="52"/>
+    <tableColumn id="11" name="Pronouns" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2162,7 +2271,7 @@
   <dimension ref="B1:AK286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2186,8 +2295,29 @@
     <col min="32" max="37" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:18" ht="40.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="J7" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2209,9 +2339,47 @@
       <c r="H9" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="23" t="s">
+      <c r="J9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2234,9 +2402,36 @@
         <v>3</v>
       </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="23"/>
+      <c r="J11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0.63471</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0.26068799999999998</v>
+      </c>
+      <c r="N11" s="23">
+        <v>6.5745999999999999E-2</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0.18706100000000001</v>
+      </c>
+      <c r="P11" s="5">
+        <v>285.41669999999999</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0.69706599999999996</v>
+      </c>
+      <c r="R11" s="23">
+        <v>1.7434999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="32"/>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
@@ -2257,9 +2452,34 @@
         <v>3.6166666666666663</v>
       </c>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="23"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.13236899999999999</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.13581699999999999</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0.24840300000000001</v>
+      </c>
+      <c r="P12" s="5">
+        <v>257.93329999999997</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.73114100000000004</v>
+      </c>
+      <c r="R12" s="23">
+        <v>3.8857999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B13" s="32"/>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2280,9 +2500,34 @@
         <v>4.0333333333333332</v>
       </c>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="23"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0.25864500000000001</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0.467173</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.26883000000000001</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.39515499999999998</v>
+      </c>
+      <c r="P13" s="5">
+        <v>170.98330000000001</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.63965399999999994</v>
+      </c>
+      <c r="R13" s="23">
+        <v>9.0190000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2303,9 +2548,34 @@
         <v>4.9166666666666661</v>
       </c>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="B15" s="24" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0.251384</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0.48642400000000002</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0.26985599999999998</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0.39140599999999998</v>
+      </c>
+      <c r="P14" s="5">
+        <v>224.6</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.74580100000000005</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0.10631699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="57" x14ac:dyDescent="0.45">
+      <c r="B15" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2330,9 +2600,36 @@
       <c r="H15" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="24"/>
+      <c r="J15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0.173845</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.39950200000000002</v>
+      </c>
+      <c r="N15" s="24">
+        <v>0.182172</v>
+      </c>
+      <c r="O15" s="24">
+        <v>0.30349599999999999</v>
+      </c>
+      <c r="P15" s="7">
+        <v>235.316</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>0.70184899999999995</v>
+      </c>
+      <c r="R15" s="34">
+        <v>6.2494000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B16" s="33"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
@@ -2353,9 +2650,34 @@
         <v>4.1333333333333329</v>
       </c>
       <c r="H16" s="7"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="24">
+        <v>0.175789</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.40329199999999998</v>
+      </c>
+      <c r="N16" s="24">
+        <v>0.18431600000000001</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0.30562899999999998</v>
+      </c>
+      <c r="P16" s="7">
+        <v>234.2944</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>0.70456099999999999</v>
+      </c>
+      <c r="R16" s="34">
+        <v>6.3019000000000006E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B17" s="24"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
@@ -2376,9 +2698,34 @@
         <v>3.5333333333333337</v>
       </c>
       <c r="H17" s="7"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0.17745900000000001</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0.40468700000000002</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0.18629799999999999</v>
+      </c>
+      <c r="O17" s="24">
+        <v>0.30767600000000001</v>
+      </c>
+      <c r="P17" s="7">
+        <v>232.9307</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>0.70390399999999997</v>
+      </c>
+      <c r="R17" s="34">
+        <v>6.3739000000000004E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B18" s="24"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2399,9 +2746,34 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H18" s="7"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0.17673700000000001</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0.40397899999999998</v>
+      </c>
+      <c r="N18" s="24">
+        <v>0.18595999999999999</v>
+      </c>
+      <c r="O18" s="24">
+        <v>0.30596000000000001</v>
+      </c>
+      <c r="P18" s="7">
+        <v>232.96100000000001</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>0.70543999999999996</v>
+      </c>
+      <c r="R18" s="24">
+        <v>6.3663999999999998E-2</v>
+      </c>
     </row>
     <row r="19" spans="2:36" ht="57" x14ac:dyDescent="0.45">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2426,9 +2798,36 @@
       <c r="H19" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="J19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0.17702399999999999</v>
+      </c>
+      <c r="M19" s="23">
+        <v>0.458874</v>
+      </c>
+      <c r="N19" s="23">
+        <v>0.19509799999999999</v>
+      </c>
+      <c r="O19" s="23">
+        <v>0.30129</v>
+      </c>
+      <c r="P19" s="5">
+        <v>591.38959999999997</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="35">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="20" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B20" s="23"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2451,9 +2850,34 @@
       <c r="H20" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0.179031</v>
+      </c>
+      <c r="M20" s="23">
+        <v>0.46214899999999998</v>
+      </c>
+      <c r="N20" s="23">
+        <v>0.197126</v>
+      </c>
+      <c r="O20" s="23">
+        <v>0.30407800000000001</v>
+      </c>
+      <c r="P20" s="5">
+        <v>592.80089999999996</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>0.88949599999999995</v>
+      </c>
+      <c r="R20" s="35">
+        <v>9.7015000000000004E-2</v>
+      </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B21" s="23"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2474,9 +2898,34 @@
         <v>3.0333333333333337</v>
       </c>
       <c r="H21" s="5"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0.181371</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0.46497100000000002</v>
+      </c>
+      <c r="N21" s="23">
+        <v>0.199297</v>
+      </c>
+      <c r="O21" s="23">
+        <v>0.30704500000000001</v>
+      </c>
+      <c r="P21" s="5">
+        <v>589.61040000000003</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>0.88947200000000004</v>
+      </c>
+      <c r="R21" s="35">
+        <v>9.9116999999999997E-2</v>
+      </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B22" s="23"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2497,6 +2946,31 @@
         <v>4.3000000000000016</v>
       </c>
       <c r="H22" s="5"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="23">
+        <v>0.18335499999999999</v>
+      </c>
+      <c r="M22" s="23">
+        <v>0.46876800000000002</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0.201262</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0.30953799999999998</v>
+      </c>
+      <c r="P22" s="5">
+        <v>590.7835</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>0.90194399999999997</v>
+      </c>
+      <c r="R22" s="35">
+        <v>0.101038</v>
+      </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
@@ -2658,7 +3132,7 @@
       <c r="AJ28" s="2"/>
     </row>
     <row r="29" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2682,7 +3156,7 @@
       <c r="I29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="30" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -2706,7 +3180,7 @@
       <c r="R29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="T29" s="30" t="s">
         <v>19</v>
       </c>
       <c r="U29" s="2" t="s">
@@ -2730,7 +3204,7 @@
       <c r="AA29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC29" s="22" t="s">
+      <c r="AC29" s="30" t="s">
         <v>19</v>
       </c>
       <c r="AD29" s="2" t="s">
@@ -2756,7 +3230,7 @@
       </c>
     </row>
     <row r="30" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="21"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +3252,7 @@
       <c r="I30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2800,7 +3274,7 @@
       <c r="R30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T30" s="22"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2822,7 +3296,7 @@
       <c r="AA30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC30" s="22"/>
+      <c r="AC30" s="30"/>
       <c r="AD30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2846,7 +3320,7 @@
       </c>
     </row>
     <row r="31" spans="2:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="21"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2868,7 +3342,7 @@
       <c r="I31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="30"/>
       <c r="L31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2890,7 +3364,7 @@
       <c r="R31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="22"/>
+      <c r="T31" s="30"/>
       <c r="U31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2912,7 +3386,7 @@
       <c r="AA31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC31" s="22"/>
+      <c r="AC31" s="30"/>
       <c r="AD31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3500,7 @@
       <c r="AJ32" s="9"/>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
@@ -3050,7 +3524,7 @@
       <c r="I33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="2">
@@ -3074,7 +3548,7 @@
       <c r="R33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T33" s="22" t="s">
+      <c r="T33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="U33" s="2">
@@ -3098,7 +3572,7 @@
       <c r="AA33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC33" s="22" t="s">
+      <c r="AC33" s="30" t="s">
         <v>33</v>
       </c>
       <c r="AD33" s="2">
@@ -3124,7 +3598,7 @@
       </c>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B34" s="21"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="1">
         <v>2</v>
       </c>
@@ -3146,7 +3620,7 @@
       <c r="I34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="22"/>
+      <c r="K34" s="30"/>
       <c r="L34" s="2">
         <v>2</v>
       </c>
@@ -3168,7 +3642,7 @@
       <c r="R34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T34" s="22"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="2">
         <v>2</v>
       </c>
@@ -3188,7 +3662,7 @@
       <c r="AA34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC34" s="22"/>
+      <c r="AC34" s="30"/>
       <c r="AD34" s="2">
         <v>2</v>
       </c>
@@ -3212,7 +3686,7 @@
       </c>
     </row>
     <row r="35" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="21"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1">
         <v>3</v>
       </c>
@@ -3234,7 +3708,7 @@
       <c r="I35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="22"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="2">
         <v>3</v>
       </c>
@@ -3256,7 +3730,7 @@
       <c r="R35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T35" s="22"/>
+      <c r="T35" s="30"/>
       <c r="U35" s="2">
         <v>3</v>
       </c>
@@ -3278,7 +3752,7 @@
       <c r="AA35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC35" s="22"/>
+      <c r="AC35" s="30"/>
       <c r="AD35" s="2">
         <v>3</v>
       </c>
@@ -3384,7 +3858,7 @@
       <c r="AJ36" s="9"/>
     </row>
     <row r="37" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
@@ -3408,7 +3882,7 @@
       <c r="I37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="30" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="2">
@@ -3432,7 +3906,7 @@
       <c r="R37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="22" t="s">
+      <c r="T37" s="30" t="s">
         <v>36</v>
       </c>
       <c r="U37" s="2">
@@ -3456,7 +3930,7 @@
       <c r="AA37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC37" s="22" t="s">
+      <c r="AC37" s="30" t="s">
         <v>36</v>
       </c>
       <c r="AD37" s="2">
@@ -3482,7 +3956,7 @@
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B38" s="21"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="1">
         <v>2</v>
       </c>
@@ -3504,7 +3978,7 @@
       <c r="I38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="22"/>
+      <c r="K38" s="30"/>
       <c r="L38" s="2">
         <v>2</v>
       </c>
@@ -3526,7 +4000,7 @@
       <c r="R38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T38" s="22"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="2">
         <v>2</v>
       </c>
@@ -3548,7 +4022,7 @@
       <c r="AA38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC38" s="22"/>
+      <c r="AC38" s="30"/>
       <c r="AD38" s="2">
         <v>2</v>
       </c>
@@ -3572,7 +4046,7 @@
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B39" s="21"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="1">
         <v>3</v>
       </c>
@@ -3594,7 +4068,7 @@
       <c r="I39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="22"/>
+      <c r="K39" s="30"/>
       <c r="L39" s="2">
         <v>3</v>
       </c>
@@ -3616,7 +4090,7 @@
       <c r="R39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="22"/>
+      <c r="T39" s="30"/>
       <c r="U39" s="2">
         <v>3</v>
       </c>
@@ -3636,7 +4110,7 @@
       <c r="AA39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC39" s="22"/>
+      <c r="AC39" s="30"/>
       <c r="AD39" s="2">
         <v>3</v>
       </c>
@@ -3742,7 +4216,7 @@
       <c r="AJ40" s="9"/>
     </row>
     <row r="41" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1">
@@ -3766,7 +4240,7 @@
       <c r="I41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="22" t="s">
+      <c r="K41" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L41" s="2">
@@ -3790,7 +4264,7 @@
       <c r="R41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T41" s="22" t="s">
+      <c r="T41" s="30" t="s">
         <v>39</v>
       </c>
       <c r="U41" s="2">
@@ -3814,7 +4288,7 @@
       <c r="AA41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC41" s="22" t="s">
+      <c r="AC41" s="30" t="s">
         <v>39</v>
       </c>
       <c r="AD41" s="2">
@@ -3840,7 +4314,7 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B42" s="21"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1">
         <v>2</v>
       </c>
@@ -3862,7 +4336,7 @@
       <c r="I42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="22"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="2">
         <v>2</v>
       </c>
@@ -3884,7 +4358,7 @@
       <c r="R42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T42" s="22"/>
+      <c r="T42" s="30"/>
       <c r="U42" s="2">
         <v>2</v>
       </c>
@@ -3906,7 +4380,7 @@
       <c r="AA42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC42" s="22"/>
+      <c r="AC42" s="30"/>
       <c r="AD42" s="2">
         <v>2</v>
       </c>
@@ -3930,7 +4404,7 @@
       </c>
     </row>
     <row r="43" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B43" s="21"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="1">
         <v>3</v>
       </c>
@@ -3952,7 +4426,7 @@
       <c r="I43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="22"/>
+      <c r="K43" s="30"/>
       <c r="L43" s="2">
         <v>3</v>
       </c>
@@ -3974,7 +4448,7 @@
       <c r="R43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T43" s="22"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="2">
         <v>3</v>
       </c>
@@ -3994,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="AA43" s="2"/>
-      <c r="AC43" s="22"/>
+      <c r="AC43" s="30"/>
       <c r="AD43" s="2">
         <v>3</v>
       </c>
@@ -4100,7 +4574,7 @@
       <c r="AJ44" s="9"/>
     </row>
     <row r="45" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1">
@@ -4124,7 +4598,7 @@
       <c r="I45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="30" t="s">
         <v>43</v>
       </c>
       <c r="L45" s="2">
@@ -4148,7 +4622,7 @@
       <c r="R45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="22" t="s">
+      <c r="T45" s="30" t="s">
         <v>43</v>
       </c>
       <c r="U45" s="2">
@@ -4172,7 +4646,7 @@
       <c r="AA45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC45" s="22" t="s">
+      <c r="AC45" s="30" t="s">
         <v>43</v>
       </c>
       <c r="AD45" s="2">
@@ -4198,7 +4672,7 @@
       </c>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B46" s="21"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="1">
         <v>2</v>
       </c>
@@ -4220,7 +4694,7 @@
       <c r="I46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="22"/>
+      <c r="K46" s="30"/>
       <c r="L46" s="2">
         <v>2</v>
       </c>
@@ -4242,7 +4716,7 @@
       <c r="R46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T46" s="22"/>
+      <c r="T46" s="30"/>
       <c r="U46" s="2">
         <v>2</v>
       </c>
@@ -4264,7 +4738,7 @@
       <c r="AA46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC46" s="22"/>
+      <c r="AC46" s="30"/>
       <c r="AD46" s="2">
         <v>2</v>
       </c>
@@ -4288,7 +4762,7 @@
       </c>
     </row>
     <row r="47" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B47" s="21"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="1">
         <v>3</v>
       </c>
@@ -4310,7 +4784,7 @@
       <c r="I47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="22"/>
+      <c r="K47" s="30"/>
       <c r="L47" s="2">
         <v>3</v>
       </c>
@@ -4332,7 +4806,7 @@
       <c r="R47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T47" s="22"/>
+      <c r="T47" s="30"/>
       <c r="U47" s="2">
         <v>3</v>
       </c>
@@ -4352,7 +4826,7 @@
         <v>25</v>
       </c>
       <c r="AA47" s="2"/>
-      <c r="AC47" s="22"/>
+      <c r="AC47" s="30"/>
       <c r="AD47" s="2">
         <v>3</v>
       </c>
@@ -4458,7 +4932,7 @@
       <c r="AJ48" s="9"/>
     </row>
     <row r="49" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="1">
@@ -4482,7 +4956,7 @@
       <c r="I49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="30" t="s">
         <v>47</v>
       </c>
       <c r="L49" s="2">
@@ -4506,7 +4980,7 @@
       <c r="R49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T49" s="22" t="s">
+      <c r="T49" s="30" t="s">
         <v>47</v>
       </c>
       <c r="U49" s="2">
@@ -4530,7 +5004,7 @@
       <c r="AA49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC49" s="22" t="s">
+      <c r="AC49" s="30" t="s">
         <v>47</v>
       </c>
       <c r="AD49" s="2">
@@ -4556,7 +5030,7 @@
       </c>
     </row>
     <row r="50" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B50" s="21"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="1">
         <v>2</v>
       </c>
@@ -4578,7 +5052,7 @@
       <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="22"/>
+      <c r="K50" s="30"/>
       <c r="L50" s="2">
         <v>2</v>
       </c>
@@ -4600,7 +5074,7 @@
       <c r="R50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T50" s="22"/>
+      <c r="T50" s="30"/>
       <c r="U50" s="2">
         <v>2</v>
       </c>
@@ -4622,7 +5096,7 @@
       <c r="AA50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC50" s="22"/>
+      <c r="AC50" s="30"/>
       <c r="AD50" s="2">
         <v>2</v>
       </c>
@@ -4646,7 +5120,7 @@
       </c>
     </row>
     <row r="51" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B51" s="21"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="1">
         <v>3</v>
       </c>
@@ -4668,7 +5142,7 @@
       <c r="I51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="22"/>
+      <c r="K51" s="30"/>
       <c r="L51" s="2">
         <v>3</v>
       </c>
@@ -4690,7 +5164,7 @@
       <c r="R51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T51" s="22"/>
+      <c r="T51" s="30"/>
       <c r="U51" s="2">
         <v>3</v>
       </c>
@@ -4712,7 +5186,7 @@
       <c r="AA51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC51" s="22"/>
+      <c r="AC51" s="30"/>
       <c r="AD51" s="2">
         <v>3</v>
       </c>
@@ -4818,7 +5292,7 @@
       <c r="AJ52" s="9"/>
     </row>
     <row r="53" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="1">
@@ -4842,7 +5316,7 @@
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="22" t="s">
+      <c r="K53" s="30" t="s">
         <v>52</v>
       </c>
       <c r="L53" s="2">
@@ -4866,7 +5340,7 @@
       <c r="R53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T53" s="22" t="s">
+      <c r="T53" s="30" t="s">
         <v>52</v>
       </c>
       <c r="U53" s="2">
@@ -4888,7 +5362,7 @@
       <c r="AA53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC53" s="22" t="s">
+      <c r="AC53" s="30" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="2">
@@ -4914,7 +5388,7 @@
       </c>
     </row>
     <row r="54" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B54" s="21"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="1">
         <v>2</v>
       </c>
@@ -4936,7 +5410,7 @@
       <c r="I54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="22"/>
+      <c r="K54" s="30"/>
       <c r="L54" s="2">
         <v>2</v>
       </c>
@@ -4958,7 +5432,7 @@
       <c r="R54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T54" s="22"/>
+      <c r="T54" s="30"/>
       <c r="U54" s="2">
         <v>2</v>
       </c>
@@ -4980,7 +5454,7 @@
       <c r="AA54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC54" s="22"/>
+      <c r="AC54" s="30"/>
       <c r="AD54" s="2">
         <v>2</v>
       </c>
@@ -5004,7 +5478,7 @@
       </c>
     </row>
     <row r="55" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B55" s="21"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="1">
         <v>3</v>
       </c>
@@ -5026,7 +5500,7 @@
       <c r="I55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="22"/>
+      <c r="K55" s="30"/>
       <c r="L55" s="2">
         <v>3</v>
       </c>
@@ -5048,7 +5522,7 @@
       <c r="R55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T55" s="22"/>
+      <c r="T55" s="30"/>
       <c r="U55" s="2">
         <v>3</v>
       </c>
@@ -5068,7 +5542,7 @@
       <c r="AA55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC55" s="22"/>
+      <c r="AC55" s="30"/>
       <c r="AD55" s="2">
         <v>3</v>
       </c>
@@ -5174,7 +5648,7 @@
       <c r="AJ56" s="9"/>
     </row>
     <row r="57" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="1">
@@ -5198,7 +5672,7 @@
       <c r="I57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="K57" s="30" t="s">
         <v>53</v>
       </c>
       <c r="L57" s="2">
@@ -5222,7 +5696,7 @@
       <c r="R57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T57" s="22" t="s">
+      <c r="T57" s="30" t="s">
         <v>53</v>
       </c>
       <c r="U57" s="2">
@@ -5244,7 +5718,7 @@
       <c r="AA57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC57" s="22" t="s">
+      <c r="AC57" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AD57" s="2">
@@ -5270,7 +5744,7 @@
       </c>
     </row>
     <row r="58" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B58" s="21"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="1">
         <v>2</v>
       </c>
@@ -5292,7 +5766,7 @@
       <c r="I58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="22"/>
+      <c r="K58" s="30"/>
       <c r="L58" s="2">
         <v>2</v>
       </c>
@@ -5314,7 +5788,7 @@
       <c r="R58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T58" s="22"/>
+      <c r="T58" s="30"/>
       <c r="U58" s="2">
         <v>2</v>
       </c>
@@ -5334,7 +5808,7 @@
       <c r="AA58" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC58" s="22"/>
+      <c r="AC58" s="30"/>
       <c r="AD58" s="2">
         <v>2</v>
       </c>
@@ -5358,7 +5832,7 @@
       </c>
     </row>
     <row r="59" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B59" s="21"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="1">
         <v>3</v>
       </c>
@@ -5380,7 +5854,7 @@
       <c r="I59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="22"/>
+      <c r="K59" s="30"/>
       <c r="L59" s="2">
         <v>3</v>
       </c>
@@ -5402,7 +5876,7 @@
       <c r="R59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T59" s="22"/>
+      <c r="T59" s="30"/>
       <c r="U59" s="2">
         <v>3</v>
       </c>
@@ -5424,7 +5898,7 @@
       <c r="AA59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC59" s="22"/>
+      <c r="AC59" s="30"/>
       <c r="AD59" s="2">
         <v>3</v>
       </c>
@@ -5530,7 +6004,7 @@
       <c r="AJ60" s="9"/>
     </row>
     <row r="61" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="1">
@@ -5554,7 +6028,7 @@
       <c r="I61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="22" t="s">
+      <c r="K61" s="30" t="s">
         <v>57</v>
       </c>
       <c r="L61" s="2">
@@ -5578,7 +6052,7 @@
       <c r="R61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T61" s="22" t="s">
+      <c r="T61" s="30" t="s">
         <v>57</v>
       </c>
       <c r="U61" s="2">
@@ -5602,7 +6076,7 @@
       <c r="AA61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC61" s="22" t="s">
+      <c r="AC61" s="30" t="s">
         <v>57</v>
       </c>
       <c r="AD61" s="2">
@@ -5628,7 +6102,7 @@
       </c>
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B62" s="21"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="1">
         <v>2</v>
       </c>
@@ -5650,7 +6124,7 @@
       <c r="I62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="22"/>
+      <c r="K62" s="30"/>
       <c r="L62" s="2">
         <v>2</v>
       </c>
@@ -5672,7 +6146,7 @@
       <c r="R62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T62" s="22"/>
+      <c r="T62" s="30"/>
       <c r="U62" s="2">
         <v>2</v>
       </c>
@@ -5694,7 +6168,7 @@
       <c r="AA62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC62" s="22"/>
+      <c r="AC62" s="30"/>
       <c r="AD62" s="2">
         <v>2</v>
       </c>
@@ -5718,7 +6192,7 @@
       </c>
     </row>
     <row r="63" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B63" s="21"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="1">
         <v>3</v>
       </c>
@@ -5740,7 +6214,7 @@
       <c r="I63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="22"/>
+      <c r="K63" s="30"/>
       <c r="L63" s="2">
         <v>3</v>
       </c>
@@ -5762,7 +6236,7 @@
       <c r="R63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T63" s="22"/>
+      <c r="T63" s="30"/>
       <c r="U63" s="2">
         <v>3</v>
       </c>
@@ -5784,7 +6258,7 @@
       <c r="AA63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC63" s="22"/>
+      <c r="AC63" s="30"/>
       <c r="AD63" s="2">
         <v>3</v>
       </c>
@@ -5890,7 +6364,7 @@
       <c r="AJ64" s="9"/>
     </row>
     <row r="65" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C65" s="1">
@@ -5914,7 +6388,7 @@
       <c r="I65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="25" t="s">
+      <c r="K65" s="31" t="s">
         <v>59</v>
       </c>
       <c r="L65" s="2">
@@ -5938,7 +6412,7 @@
       <c r="R65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T65" s="22" t="s">
+      <c r="T65" s="30" t="s">
         <v>58</v>
       </c>
       <c r="U65" s="2">
@@ -5962,7 +6436,7 @@
       <c r="AA65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC65" s="22" t="s">
+      <c r="AC65" s="30" t="s">
         <v>58</v>
       </c>
       <c r="AD65" s="2">
@@ -5988,7 +6462,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B66" s="21"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="1">
         <v>2</v>
       </c>
@@ -6010,7 +6484,7 @@
       <c r="I66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="25"/>
+      <c r="K66" s="31"/>
       <c r="L66" s="2">
         <v>2</v>
       </c>
@@ -6032,7 +6506,7 @@
       <c r="R66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T66" s="22"/>
+      <c r="T66" s="30"/>
       <c r="U66" s="2">
         <v>2</v>
       </c>
@@ -6054,7 +6528,7 @@
       <c r="AA66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC66" s="22"/>
+      <c r="AC66" s="30"/>
       <c r="AD66" s="2">
         <v>2</v>
       </c>
@@ -6078,7 +6552,7 @@
       </c>
     </row>
     <row r="67" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B67" s="21"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="1">
         <v>3</v>
       </c>
@@ -6100,7 +6574,7 @@
       <c r="I67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="25"/>
+      <c r="K67" s="31"/>
       <c r="L67" s="2">
         <v>3</v>
       </c>
@@ -6122,7 +6596,7 @@
       <c r="R67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T67" s="22"/>
+      <c r="T67" s="30"/>
       <c r="U67" s="2">
         <v>3</v>
       </c>
@@ -6144,7 +6618,7 @@
       <c r="AA67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC67" s="22"/>
+      <c r="AC67" s="30"/>
       <c r="AD67" s="2">
         <v>3</v>
       </c>
@@ -6250,7 +6724,7 @@
       <c r="AJ68" s="9"/>
     </row>
     <row r="69" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="1">
@@ -6274,7 +6748,7 @@
       <c r="I69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="22" t="s">
+      <c r="K69" s="30" t="s">
         <v>62</v>
       </c>
       <c r="L69" s="2">
@@ -6298,7 +6772,7 @@
       <c r="R69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T69" s="22" t="s">
+      <c r="T69" s="30" t="s">
         <v>62</v>
       </c>
       <c r="U69" s="2">
@@ -6322,7 +6796,7 @@
       <c r="AA69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC69" s="22" t="s">
+      <c r="AC69" s="30" t="s">
         <v>62</v>
       </c>
       <c r="AD69" s="2">
@@ -6348,7 +6822,7 @@
       </c>
     </row>
     <row r="70" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B70" s="21"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="1">
         <v>2</v>
       </c>
@@ -6370,7 +6844,7 @@
       <c r="I70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K70" s="22"/>
+      <c r="K70" s="30"/>
       <c r="L70" s="2">
         <v>2</v>
       </c>
@@ -6392,7 +6866,7 @@
       <c r="R70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T70" s="22"/>
+      <c r="T70" s="30"/>
       <c r="U70" s="2">
         <v>2</v>
       </c>
@@ -6414,7 +6888,7 @@
       <c r="AA70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC70" s="22"/>
+      <c r="AC70" s="30"/>
       <c r="AD70" s="2">
         <v>2</v>
       </c>
@@ -6438,7 +6912,7 @@
       </c>
     </row>
     <row r="71" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B71" s="21"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="1">
         <v>3</v>
       </c>
@@ -6460,7 +6934,7 @@
       <c r="I71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="22"/>
+      <c r="K71" s="30"/>
       <c r="L71" s="2">
         <v>3</v>
       </c>
@@ -6482,7 +6956,7 @@
       <c r="R71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T71" s="22"/>
+      <c r="T71" s="30"/>
       <c r="U71" s="2">
         <v>3</v>
       </c>
@@ -6504,7 +6978,7 @@
       <c r="AA71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC71" s="22"/>
+      <c r="AC71" s="30"/>
       <c r="AD71" s="2">
         <v>3</v>
       </c>
@@ -6610,7 +7084,7 @@
       <c r="AJ72" s="9"/>
     </row>
     <row r="73" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="1">
@@ -6634,7 +7108,7 @@
       <c r="I73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="22" t="s">
+      <c r="K73" s="30" t="s">
         <v>65</v>
       </c>
       <c r="L73" s="2">
@@ -6658,7 +7132,7 @@
       <c r="R73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T73" s="22" t="s">
+      <c r="T73" s="30" t="s">
         <v>65</v>
       </c>
       <c r="U73" s="2">
@@ -6682,7 +7156,7 @@
       <c r="AA73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC73" s="22" t="s">
+      <c r="AC73" s="30" t="s">
         <v>65</v>
       </c>
       <c r="AD73" s="2">
@@ -6708,7 +7182,7 @@
       </c>
     </row>
     <row r="74" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B74" s="21"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="1">
         <v>2</v>
       </c>
@@ -6730,7 +7204,7 @@
       <c r="I74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="22"/>
+      <c r="K74" s="30"/>
       <c r="L74" s="2">
         <v>2</v>
       </c>
@@ -6752,7 +7226,7 @@
       <c r="R74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T74" s="22"/>
+      <c r="T74" s="30"/>
       <c r="U74" s="2">
         <v>2</v>
       </c>
@@ -6774,7 +7248,7 @@
       <c r="AA74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC74" s="22"/>
+      <c r="AC74" s="30"/>
       <c r="AD74" s="2">
         <v>2</v>
       </c>
@@ -6798,7 +7272,7 @@
       </c>
     </row>
     <row r="75" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B75" s="21"/>
+      <c r="B75" s="29"/>
       <c r="C75" s="1">
         <v>3</v>
       </c>
@@ -6820,7 +7294,7 @@
       <c r="I75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="22"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="2">
         <v>3</v>
       </c>
@@ -6842,7 +7316,7 @@
       <c r="R75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T75" s="22"/>
+      <c r="T75" s="30"/>
       <c r="U75" s="2">
         <v>3</v>
       </c>
@@ -6862,7 +7336,7 @@
       <c r="AA75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC75" s="22"/>
+      <c r="AC75" s="30"/>
       <c r="AD75" s="2">
         <v>3</v>
       </c>
@@ -6968,7 +7442,7 @@
       <c r="AJ76" s="9"/>
     </row>
     <row r="77" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C77" s="1">
@@ -6992,7 +7466,7 @@
       <c r="I77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="30" t="s">
         <v>67</v>
       </c>
       <c r="L77" s="2">
@@ -7016,7 +7490,7 @@
       <c r="R77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T77" s="22" t="s">
+      <c r="T77" s="30" t="s">
         <v>67</v>
       </c>
       <c r="U77" s="2">
@@ -7038,7 +7512,7 @@
       <c r="AA77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC77" s="22" t="s">
+      <c r="AC77" s="30" t="s">
         <v>67</v>
       </c>
       <c r="AD77" s="2">
@@ -7064,7 +7538,7 @@
       </c>
     </row>
     <row r="78" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B78" s="21"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="1">
         <v>2</v>
       </c>
@@ -7086,7 +7560,7 @@
       <c r="I78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K78" s="22"/>
+      <c r="K78" s="30"/>
       <c r="L78" s="2">
         <v>2</v>
       </c>
@@ -7108,7 +7582,7 @@
       <c r="R78" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T78" s="22"/>
+      <c r="T78" s="30"/>
       <c r="U78" s="2">
         <v>2</v>
       </c>
@@ -7130,7 +7604,7 @@
       <c r="AA78" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC78" s="22"/>
+      <c r="AC78" s="30"/>
       <c r="AD78" s="2">
         <v>2</v>
       </c>
@@ -7154,7 +7628,7 @@
       </c>
     </row>
     <row r="79" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B79" s="21"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="1">
         <v>3</v>
       </c>
@@ -7176,7 +7650,7 @@
       <c r="I79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="22"/>
+      <c r="K79" s="30"/>
       <c r="L79" s="2">
         <v>3</v>
       </c>
@@ -7198,7 +7672,7 @@
       <c r="R79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T79" s="22"/>
+      <c r="T79" s="30"/>
       <c r="U79" s="2">
         <v>3</v>
       </c>
@@ -7220,7 +7694,7 @@
       <c r="AA79" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC79" s="22"/>
+      <c r="AC79" s="30"/>
       <c r="AD79" s="2">
         <v>3</v>
       </c>
@@ -7322,7 +7796,7 @@
       <c r="AJ80" s="9"/>
     </row>
     <row r="81" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="1">
@@ -7346,7 +7820,7 @@
       <c r="I81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="22" t="s">
+      <c r="K81" s="30" t="s">
         <v>71</v>
       </c>
       <c r="L81" s="2">
@@ -7370,7 +7844,7 @@
       <c r="R81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="22" t="s">
+      <c r="T81" s="30" t="s">
         <v>71</v>
       </c>
       <c r="U81" s="2">
@@ -7394,7 +7868,7 @@
       <c r="AA81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC81" s="22" t="s">
+      <c r="AC81" s="30" t="s">
         <v>71</v>
       </c>
       <c r="AD81" s="2">
@@ -7420,7 +7894,7 @@
       </c>
     </row>
     <row r="82" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B82" s="21"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="1">
         <v>2</v>
       </c>
@@ -7442,7 +7916,7 @@
       <c r="I82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="22"/>
+      <c r="K82" s="30"/>
       <c r="L82" s="2">
         <v>2</v>
       </c>
@@ -7464,7 +7938,7 @@
       <c r="R82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T82" s="22"/>
+      <c r="T82" s="30"/>
       <c r="U82" s="2">
         <v>2</v>
       </c>
@@ -7486,7 +7960,7 @@
       <c r="AA82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC82" s="22"/>
+      <c r="AC82" s="30"/>
       <c r="AD82" s="2">
         <v>2</v>
       </c>
@@ -7510,7 +7984,7 @@
       </c>
     </row>
     <row r="83" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B83" s="21"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="1">
         <v>3</v>
       </c>
@@ -7532,7 +8006,7 @@
       <c r="I83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="22"/>
+      <c r="K83" s="30"/>
       <c r="L83" s="2">
         <v>3</v>
       </c>
@@ -7554,7 +8028,7 @@
       <c r="R83" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T83" s="22"/>
+      <c r="T83" s="30"/>
       <c r="U83" s="2">
         <v>3</v>
       </c>
@@ -7574,7 +8048,7 @@
       <c r="AA83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC83" s="22"/>
+      <c r="AC83" s="30"/>
       <c r="AD83" s="2">
         <v>3</v>
       </c>
@@ -7678,7 +8152,7 @@
       <c r="AJ84" s="9"/>
     </row>
     <row r="85" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="1">
@@ -7702,7 +8176,7 @@
       <c r="I85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="22" t="s">
+      <c r="K85" s="30" t="s">
         <v>73</v>
       </c>
       <c r="L85" s="2">
@@ -7726,7 +8200,7 @@
       <c r="R85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T85" s="22" t="s">
+      <c r="T85" s="30" t="s">
         <v>73</v>
       </c>
       <c r="U85" s="2">
@@ -7750,7 +8224,7 @@
       <c r="AA85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC85" s="22" t="s">
+      <c r="AC85" s="30" t="s">
         <v>73</v>
       </c>
       <c r="AD85" s="2">
@@ -7776,7 +8250,7 @@
       </c>
     </row>
     <row r="86" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B86" s="21"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="1">
         <v>2</v>
       </c>
@@ -7798,7 +8272,7 @@
       <c r="I86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="22"/>
+      <c r="K86" s="30"/>
       <c r="L86" s="2">
         <v>2</v>
       </c>
@@ -7820,7 +8294,7 @@
       <c r="R86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T86" s="22"/>
+      <c r="T86" s="30"/>
       <c r="U86" s="2">
         <v>2</v>
       </c>
@@ -7842,7 +8316,7 @@
       <c r="AA86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC86" s="22"/>
+      <c r="AC86" s="30"/>
       <c r="AD86" s="2">
         <v>2</v>
       </c>
@@ -7866,7 +8340,7 @@
       </c>
     </row>
     <row r="87" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B87" s="21"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="1">
         <v>3</v>
       </c>
@@ -7888,7 +8362,7 @@
       <c r="I87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="22"/>
+      <c r="K87" s="30"/>
       <c r="L87" s="2">
         <v>3</v>
       </c>
@@ -7910,7 +8384,7 @@
       <c r="R87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T87" s="22"/>
+      <c r="T87" s="30"/>
       <c r="U87" s="2">
         <v>3</v>
       </c>
@@ -7930,7 +8404,7 @@
         <v>70</v>
       </c>
       <c r="AA87" s="2"/>
-      <c r="AC87" s="22"/>
+      <c r="AC87" s="30"/>
       <c r="AD87" s="2">
         <v>3</v>
       </c>
@@ -8036,7 +8510,7 @@
       <c r="AJ88" s="9"/>
     </row>
     <row r="89" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="1">
@@ -8060,7 +8534,7 @@
       <c r="I89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K89" s="22" t="s">
+      <c r="K89" s="30" t="s">
         <v>76</v>
       </c>
       <c r="L89" s="2">
@@ -8084,7 +8558,7 @@
       <c r="R89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T89" s="22" t="s">
+      <c r="T89" s="30" t="s">
         <v>76</v>
       </c>
       <c r="U89" s="2">
@@ -8108,7 +8582,7 @@
       <c r="AA89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC89" s="22" t="s">
+      <c r="AC89" s="30" t="s">
         <v>76</v>
       </c>
       <c r="AD89" s="2">
@@ -8134,7 +8608,7 @@
       </c>
     </row>
     <row r="90" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B90" s="21"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="1">
         <v>2</v>
       </c>
@@ -8156,7 +8630,7 @@
       <c r="I90" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K90" s="22"/>
+      <c r="K90" s="30"/>
       <c r="L90" s="2">
         <v>2</v>
       </c>
@@ -8178,7 +8652,7 @@
       <c r="R90" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T90" s="22"/>
+      <c r="T90" s="30"/>
       <c r="U90" s="2">
         <v>2</v>
       </c>
@@ -8200,7 +8674,7 @@
       <c r="AA90" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC90" s="22"/>
+      <c r="AC90" s="30"/>
       <c r="AD90" s="2">
         <v>2</v>
       </c>
@@ -8224,7 +8698,7 @@
       </c>
     </row>
     <row r="91" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B91" s="21"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="1">
         <v>3</v>
       </c>
@@ -8246,7 +8720,7 @@
       <c r="I91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="22"/>
+      <c r="K91" s="30"/>
       <c r="L91" s="2">
         <v>3</v>
       </c>
@@ -8268,7 +8742,7 @@
       <c r="R91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T91" s="22"/>
+      <c r="T91" s="30"/>
       <c r="U91" s="2">
         <v>3</v>
       </c>
@@ -8290,7 +8764,7 @@
       <c r="AA91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC91" s="22"/>
+      <c r="AC91" s="30"/>
       <c r="AD91" s="2">
         <v>3</v>
       </c>
@@ -8394,7 +8868,7 @@
       <c r="AJ92" s="9"/>
     </row>
     <row r="93" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="1">
@@ -8418,7 +8892,7 @@
       <c r="I93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K93" s="22" t="s">
+      <c r="K93" s="30" t="s">
         <v>77</v>
       </c>
       <c r="L93" s="2">
@@ -8442,7 +8916,7 @@
       <c r="R93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T93" s="22" t="s">
+      <c r="T93" s="30" t="s">
         <v>77</v>
       </c>
       <c r="U93" s="2">
@@ -8466,7 +8940,7 @@
       <c r="AA93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC93" s="22" t="s">
+      <c r="AC93" s="30" t="s">
         <v>77</v>
       </c>
       <c r="AD93" s="2">
@@ -8492,7 +8966,7 @@
       </c>
     </row>
     <row r="94" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B94" s="21"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="1">
         <v>2</v>
       </c>
@@ -8514,7 +8988,7 @@
       <c r="I94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="22"/>
+      <c r="K94" s="30"/>
       <c r="L94" s="2">
         <v>2</v>
       </c>
@@ -8536,7 +9010,7 @@
       <c r="R94" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T94" s="22"/>
+      <c r="T94" s="30"/>
       <c r="U94" s="2">
         <v>2</v>
       </c>
@@ -8556,7 +9030,7 @@
       <c r="AA94" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC94" s="22"/>
+      <c r="AC94" s="30"/>
       <c r="AD94" s="2">
         <v>2</v>
       </c>
@@ -8580,7 +9054,7 @@
       </c>
     </row>
     <row r="95" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B95" s="21"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="1">
         <v>3</v>
       </c>
@@ -8602,7 +9076,7 @@
       <c r="I95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="22"/>
+      <c r="K95" s="30"/>
       <c r="L95" s="2">
         <v>3</v>
       </c>
@@ -8624,7 +9098,7 @@
       <c r="R95" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T95" s="22"/>
+      <c r="T95" s="30"/>
       <c r="U95" s="2">
         <v>3</v>
       </c>
@@ -8646,7 +9120,7 @@
       <c r="AA95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC95" s="22"/>
+      <c r="AC95" s="30"/>
       <c r="AD95" s="2">
         <v>3</v>
       </c>
@@ -8748,7 +9222,7 @@
       <c r="AJ96" s="9"/>
     </row>
     <row r="97" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C97" s="1">
@@ -8772,7 +9246,7 @@
       <c r="I97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="22" t="s">
+      <c r="K97" s="30" t="s">
         <v>78</v>
       </c>
       <c r="L97" s="2">
@@ -8796,7 +9270,7 @@
       <c r="R97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T97" s="22" t="s">
+      <c r="T97" s="30" t="s">
         <v>78</v>
       </c>
       <c r="U97" s="2">
@@ -8820,7 +9294,7 @@
       <c r="AA97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC97" s="22" t="s">
+      <c r="AC97" s="30" t="s">
         <v>78</v>
       </c>
       <c r="AD97" s="2">
@@ -8846,7 +9320,7 @@
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B98" s="21"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="1">
         <v>2</v>
       </c>
@@ -8868,7 +9342,7 @@
       <c r="I98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="22"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="2">
         <v>2</v>
       </c>
@@ -8888,7 +9362,7 @@
         <v>75</v>
       </c>
       <c r="R98" s="2"/>
-      <c r="T98" s="22"/>
+      <c r="T98" s="30"/>
       <c r="U98" s="2">
         <v>2</v>
       </c>
@@ -8908,7 +9382,7 @@
       <c r="AA98" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC98" s="22"/>
+      <c r="AC98" s="30"/>
       <c r="AD98" s="2">
         <v>2</v>
       </c>
@@ -8932,7 +9406,7 @@
       </c>
     </row>
     <row r="99" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B99" s="21"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="1">
         <v>3</v>
       </c>
@@ -8954,7 +9428,7 @@
       <c r="I99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="22"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="2">
         <v>3</v>
       </c>
@@ -8974,7 +9448,7 @@
         <v>75</v>
       </c>
       <c r="R99" s="2"/>
-      <c r="T99" s="22"/>
+      <c r="T99" s="30"/>
       <c r="U99" s="2">
         <v>3</v>
       </c>
@@ -8996,7 +9470,7 @@
       <c r="AA99" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC99" s="22"/>
+      <c r="AC99" s="30"/>
       <c r="AD99" s="2">
         <v>3</v>
       </c>
@@ -9102,7 +9576,7 @@
       <c r="AJ100" s="9"/>
     </row>
     <row r="101" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="1">
@@ -9126,7 +9600,7 @@
       <c r="I101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K101" s="22" t="s">
+      <c r="K101" s="30" t="s">
         <v>79</v>
       </c>
       <c r="L101" s="2">
@@ -9150,7 +9624,7 @@
       <c r="R101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T101" s="22" t="s">
+      <c r="T101" s="30" t="s">
         <v>79</v>
       </c>
       <c r="U101" s="2">
@@ -9174,7 +9648,7 @@
       <c r="AA101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC101" s="22" t="s">
+      <c r="AC101" s="30" t="s">
         <v>79</v>
       </c>
       <c r="AD101" s="2">
@@ -9200,7 +9674,7 @@
       </c>
     </row>
     <row r="102" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B102" s="21"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="1">
         <v>2</v>
       </c>
@@ -9222,7 +9696,7 @@
       <c r="I102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K102" s="22"/>
+      <c r="K102" s="30"/>
       <c r="L102" s="2">
         <v>2</v>
       </c>
@@ -9242,7 +9716,7 @@
         <v>21</v>
       </c>
       <c r="R102" s="2"/>
-      <c r="T102" s="22"/>
+      <c r="T102" s="30"/>
       <c r="U102" s="2">
         <v>2</v>
       </c>
@@ -9264,7 +9738,7 @@
       <c r="AA102" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC102" s="22"/>
+      <c r="AC102" s="30"/>
       <c r="AD102" s="2">
         <v>2</v>
       </c>
@@ -9288,7 +9762,7 @@
       </c>
     </row>
     <row r="103" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B103" s="21"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="1">
         <v>3</v>
       </c>
@@ -9310,7 +9784,7 @@
       <c r="I103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K103" s="22"/>
+      <c r="K103" s="30"/>
       <c r="L103" s="2">
         <v>3</v>
       </c>
@@ -9330,7 +9804,7 @@
         <v>21</v>
       </c>
       <c r="R103" s="2"/>
-      <c r="T103" s="22"/>
+      <c r="T103" s="30"/>
       <c r="U103" s="2">
         <v>3</v>
       </c>
@@ -9352,7 +9826,7 @@
       <c r="AA103" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC103" s="22"/>
+      <c r="AC103" s="30"/>
       <c r="AD103" s="2">
         <v>3</v>
       </c>
@@ -9458,7 +9932,7 @@
       <c r="AJ104" s="9"/>
     </row>
     <row r="105" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C105" s="1">
@@ -9482,7 +9956,7 @@
       <c r="I105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K105" s="22" t="s">
+      <c r="K105" s="30" t="s">
         <v>81</v>
       </c>
       <c r="L105" s="2">
@@ -9506,7 +9980,7 @@
       <c r="R105" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T105" s="22" t="s">
+      <c r="T105" s="30" t="s">
         <v>81</v>
       </c>
       <c r="U105" s="2">
@@ -9530,7 +10004,7 @@
       <c r="AA105" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC105" s="22" t="s">
+      <c r="AC105" s="30" t="s">
         <v>81</v>
       </c>
       <c r="AD105" s="2">
@@ -9556,7 +10030,7 @@
       </c>
     </row>
     <row r="106" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B106" s="21"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="1">
         <v>2</v>
       </c>
@@ -9578,7 +10052,7 @@
       <c r="I106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="22"/>
+      <c r="K106" s="30"/>
       <c r="L106" s="2">
         <v>2</v>
       </c>
@@ -9600,7 +10074,7 @@
       <c r="R106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T106" s="22"/>
+      <c r="T106" s="30"/>
       <c r="U106" s="2">
         <v>2</v>
       </c>
@@ -9622,7 +10096,7 @@
       <c r="AA106" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC106" s="22"/>
+      <c r="AC106" s="30"/>
       <c r="AD106" s="2">
         <v>2</v>
       </c>
@@ -9646,7 +10120,7 @@
       </c>
     </row>
     <row r="107" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B107" s="21"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="1">
         <v>3</v>
       </c>
@@ -9668,7 +10142,7 @@
       <c r="I107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K107" s="22"/>
+      <c r="K107" s="30"/>
       <c r="L107" s="2">
         <v>3</v>
       </c>
@@ -9690,7 +10164,7 @@
       <c r="R107" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T107" s="22"/>
+      <c r="T107" s="30"/>
       <c r="U107" s="2">
         <v>3</v>
       </c>
@@ -9712,7 +10186,7 @@
       <c r="AA107" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC107" s="22"/>
+      <c r="AC107" s="30"/>
       <c r="AD107" s="2">
         <v>3</v>
       </c>
@@ -10106,7 +10580,7 @@
       <c r="AJ115" s="10"/>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -10130,7 +10604,7 @@
       <c r="I116" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K116" s="21" t="s">
+      <c r="K116" s="29" t="s">
         <v>19</v>
       </c>
       <c r="L116" s="10" t="s">
@@ -10152,7 +10626,7 @@
         <v>41</v>
       </c>
       <c r="R116" s="10"/>
-      <c r="T116" s="21" t="s">
+      <c r="T116" s="29" t="s">
         <v>19</v>
       </c>
       <c r="U116" s="10" t="s">
@@ -10174,7 +10648,7 @@
         <v>41</v>
       </c>
       <c r="AA116" s="10"/>
-      <c r="AC116" s="21" t="s">
+      <c r="AC116" s="29" t="s">
         <v>19</v>
       </c>
       <c r="AD116" s="10" t="s">
@@ -10200,7 +10674,7 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B117" s="21"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10218,7 +10692,7 @@
       </c>
       <c r="H117" s="11"/>
       <c r="I117" s="10"/>
-      <c r="K117" s="21"/>
+      <c r="K117" s="29"/>
       <c r="L117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10238,7 +10712,7 @@
         <v>41</v>
       </c>
       <c r="R117" s="10"/>
-      <c r="T117" s="21"/>
+      <c r="T117" s="29"/>
       <c r="U117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10260,7 +10734,7 @@
       <c r="AA117" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC117" s="21"/>
+      <c r="AC117" s="29"/>
       <c r="AD117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10284,7 +10758,7 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B118" s="21"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10306,7 +10780,7 @@
       <c r="I118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K118" s="21"/>
+      <c r="K118" s="29"/>
       <c r="L118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10328,7 +10802,7 @@
       <c r="R118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T118" s="21"/>
+      <c r="T118" s="29"/>
       <c r="U118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10350,7 +10824,7 @@
       <c r="AA118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC118" s="21"/>
+      <c r="AC118" s="29"/>
       <c r="AD118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10464,7 +10938,7 @@
       <c r="AJ119" s="8"/>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C120" s="10">
@@ -10488,7 +10962,7 @@
       <c r="I120" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K120" s="21" t="s">
+      <c r="K120" s="29" t="s">
         <v>33</v>
       </c>
       <c r="L120" s="10">
@@ -10510,7 +10984,7 @@
         <v>41</v>
       </c>
       <c r="R120" s="10"/>
-      <c r="T120" s="21" t="s">
+      <c r="T120" s="29" t="s">
         <v>33</v>
       </c>
       <c r="U120" s="10">
@@ -10534,7 +11008,7 @@
       <c r="AA120" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC120" s="21" t="s">
+      <c r="AC120" s="29" t="s">
         <v>33</v>
       </c>
       <c r="AD120" s="10">
@@ -10560,7 +11034,7 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B121" s="21"/>
+      <c r="B121" s="29"/>
       <c r="C121" s="10">
         <v>2</v>
       </c>
@@ -10582,7 +11056,7 @@
       <c r="I121" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K121" s="21"/>
+      <c r="K121" s="29"/>
       <c r="L121" s="10">
         <v>2</v>
       </c>
@@ -10602,7 +11076,7 @@
         <v>41</v>
       </c>
       <c r="R121" s="10"/>
-      <c r="T121" s="21"/>
+      <c r="T121" s="29"/>
       <c r="U121" s="10">
         <v>2</v>
       </c>
@@ -10624,7 +11098,7 @@
       <c r="AA121" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC121" s="21"/>
+      <c r="AC121" s="29"/>
       <c r="AD121" s="10">
         <v>2</v>
       </c>
@@ -10648,7 +11122,7 @@
       </c>
     </row>
     <row r="122" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B122" s="21"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="10">
         <v>3</v>
       </c>
@@ -10670,7 +11144,7 @@
       <c r="I122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K122" s="21"/>
+      <c r="K122" s="29"/>
       <c r="L122" s="10">
         <v>3</v>
       </c>
@@ -10692,7 +11166,7 @@
       <c r="R122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T122" s="21"/>
+      <c r="T122" s="29"/>
       <c r="U122" s="10">
         <v>3</v>
       </c>
@@ -10714,7 +11188,7 @@
       <c r="AA122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC122" s="21"/>
+      <c r="AC122" s="29"/>
       <c r="AD122" s="10">
         <v>3</v>
       </c>
@@ -10820,7 +11294,7 @@
       <c r="AJ123" s="8"/>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="10">
@@ -10844,7 +11318,7 @@
       <c r="I124" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K124" s="21" t="s">
+      <c r="K124" s="29" t="s">
         <v>36</v>
       </c>
       <c r="L124" s="10">
@@ -10868,7 +11342,7 @@
       <c r="R124" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T124" s="21" t="s">
+      <c r="T124" s="29" t="s">
         <v>36</v>
       </c>
       <c r="U124" s="10">
@@ -10890,7 +11364,7 @@
         <v>84</v>
       </c>
       <c r="AA124" s="10"/>
-      <c r="AC124" s="21" t="s">
+      <c r="AC124" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AD124" s="10">
@@ -10914,7 +11388,7 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B125" s="21"/>
+      <c r="B125" s="29"/>
       <c r="C125" s="10">
         <v>2</v>
       </c>
@@ -10936,7 +11410,7 @@
       <c r="I125" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K125" s="21"/>
+      <c r="K125" s="29"/>
       <c r="L125" s="10">
         <v>2</v>
       </c>
@@ -10956,7 +11430,7 @@
         <v>41</v>
       </c>
       <c r="R125" s="10"/>
-      <c r="T125" s="21"/>
+      <c r="T125" s="29"/>
       <c r="U125" s="10">
         <v>2</v>
       </c>
@@ -10978,7 +11452,7 @@
       <c r="AA125" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC125" s="21"/>
+      <c r="AC125" s="29"/>
       <c r="AD125" s="10">
         <v>2</v>
       </c>
@@ -11002,7 +11476,7 @@
       </c>
     </row>
     <row r="126" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B126" s="21"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="10">
         <v>3</v>
       </c>
@@ -11024,7 +11498,7 @@
       <c r="I126" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K126" s="21"/>
+      <c r="K126" s="29"/>
       <c r="L126" s="10">
         <v>3</v>
       </c>
@@ -11046,7 +11520,7 @@
       <c r="R126" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T126" s="21"/>
+      <c r="T126" s="29"/>
       <c r="U126" s="10">
         <v>3</v>
       </c>
@@ -11068,7 +11542,7 @@
       <c r="AA126" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC126" s="21"/>
+      <c r="AC126" s="29"/>
       <c r="AD126" s="10">
         <v>3</v>
       </c>
@@ -11174,7 +11648,7 @@
       <c r="AJ127" s="8"/>
     </row>
     <row r="128" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C128" s="10">
@@ -11198,7 +11672,7 @@
       <c r="I128" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K128" s="21" t="s">
+      <c r="K128" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L128" s="10">
@@ -11220,7 +11694,7 @@
         <v>41</v>
       </c>
       <c r="R128" s="10"/>
-      <c r="T128" s="21" t="s">
+      <c r="T128" s="29" t="s">
         <v>39</v>
       </c>
       <c r="U128" s="10">
@@ -11242,7 +11716,7 @@
         <v>84</v>
       </c>
       <c r="AA128" s="10"/>
-      <c r="AC128" s="21" t="s">
+      <c r="AC128" s="29" t="s">
         <v>39</v>
       </c>
       <c r="AD128" s="10">
@@ -11266,7 +11740,7 @@
       <c r="AJ128" s="10"/>
     </row>
     <row r="129" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B129" s="21"/>
+      <c r="B129" s="29"/>
       <c r="C129" s="10">
         <v>2</v>
       </c>
@@ -11288,7 +11762,7 @@
       <c r="I129" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K129" s="21"/>
+      <c r="K129" s="29"/>
       <c r="L129" s="10">
         <v>2</v>
       </c>
@@ -11308,7 +11782,7 @@
         <v>95</v>
       </c>
       <c r="R129" s="10"/>
-      <c r="T129" s="21"/>
+      <c r="T129" s="29"/>
       <c r="U129" s="10">
         <v>2</v>
       </c>
@@ -11328,7 +11802,7 @@
         <v>84</v>
       </c>
       <c r="AA129" s="10"/>
-      <c r="AC129" s="21"/>
+      <c r="AC129" s="29"/>
       <c r="AD129" s="10">
         <v>2</v>
       </c>
@@ -11352,7 +11826,7 @@
       </c>
     </row>
     <row r="130" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B130" s="21"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="10">
         <v>3</v>
       </c>
@@ -11374,7 +11848,7 @@
       <c r="I130" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K130" s="21"/>
+      <c r="K130" s="29"/>
       <c r="L130" s="10">
         <v>3</v>
       </c>
@@ -11396,7 +11870,7 @@
       <c r="R130" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T130" s="21"/>
+      <c r="T130" s="29"/>
       <c r="U130" s="10">
         <v>3</v>
       </c>
@@ -11414,7 +11888,7 @@
       </c>
       <c r="Z130" s="11"/>
       <c r="AA130" s="10"/>
-      <c r="AC130" s="21"/>
+      <c r="AC130" s="29"/>
       <c r="AD130" s="10">
         <v>3</v>
       </c>
@@ -11520,7 +11994,7 @@
       <c r="AJ131" s="8"/>
     </row>
     <row r="132" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C132" s="10">
@@ -11544,7 +12018,7 @@
       <c r="I132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="21" t="s">
+      <c r="K132" s="29" t="s">
         <v>43</v>
       </c>
       <c r="L132" s="10">
@@ -11568,7 +12042,7 @@
       <c r="R132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T132" s="21" t="s">
+      <c r="T132" s="29" t="s">
         <v>43</v>
       </c>
       <c r="U132" s="10">
@@ -11592,7 +12066,7 @@
       <c r="AA132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC132" s="21" t="s">
+      <c r="AC132" s="29" t="s">
         <v>43</v>
       </c>
       <c r="AD132" s="10">
@@ -11618,7 +12092,7 @@
       </c>
     </row>
     <row r="133" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B133" s="21"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="10">
         <v>2</v>
       </c>
@@ -11640,7 +12114,7 @@
       <c r="I133" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K133" s="21"/>
+      <c r="K133" s="29"/>
       <c r="L133" s="10">
         <v>2</v>
       </c>
@@ -11660,7 +12134,7 @@
         <v>41</v>
       </c>
       <c r="R133" s="10"/>
-      <c r="T133" s="21"/>
+      <c r="T133" s="29"/>
       <c r="U133" s="10">
         <v>2</v>
       </c>
@@ -11682,7 +12156,7 @@
       <c r="AA133" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC133" s="21"/>
+      <c r="AC133" s="29"/>
       <c r="AD133" s="10">
         <v>2</v>
       </c>
@@ -11706,7 +12180,7 @@
       </c>
     </row>
     <row r="134" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B134" s="21"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="10">
         <v>3</v>
       </c>
@@ -11728,7 +12202,7 @@
       <c r="I134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K134" s="21"/>
+      <c r="K134" s="29"/>
       <c r="L134" s="10">
         <v>3</v>
       </c>
@@ -11750,7 +12224,7 @@
       <c r="R134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T134" s="21"/>
+      <c r="T134" s="29"/>
       <c r="U134" s="10">
         <v>3</v>
       </c>
@@ -11772,7 +12246,7 @@
       <c r="AA134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC134" s="21"/>
+      <c r="AC134" s="29"/>
       <c r="AD134" s="10">
         <v>3</v>
       </c>
@@ -11874,7 +12348,7 @@
       <c r="AJ135" s="8"/>
     </row>
     <row r="136" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C136" s="10">
@@ -11898,7 +12372,7 @@
       <c r="I136" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K136" s="21" t="s">
+      <c r="K136" s="29" t="s">
         <v>47</v>
       </c>
       <c r="L136" s="10">
@@ -11922,7 +12396,7 @@
       <c r="R136" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T136" s="21" t="s">
+      <c r="T136" s="29" t="s">
         <v>47</v>
       </c>
       <c r="U136" s="10">
@@ -11946,7 +12420,7 @@
       <c r="AA136" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC136" s="21" t="s">
+      <c r="AC136" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AD136" s="10">
@@ -11970,7 +12444,7 @@
       </c>
     </row>
     <row r="137" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B137" s="21"/>
+      <c r="B137" s="29"/>
       <c r="C137" s="10">
         <v>2</v>
       </c>
@@ -11992,7 +12466,7 @@
       <c r="I137" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K137" s="21"/>
+      <c r="K137" s="29"/>
       <c r="L137" s="10">
         <v>2</v>
       </c>
@@ -12012,7 +12486,7 @@
         <v>41</v>
       </c>
       <c r="R137" s="10"/>
-      <c r="T137" s="21"/>
+      <c r="T137" s="29"/>
       <c r="U137" s="10">
         <v>2</v>
       </c>
@@ -12032,7 +12506,7 @@
       <c r="AA137" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC137" s="21"/>
+      <c r="AC137" s="29"/>
       <c r="AD137" s="10">
         <v>2</v>
       </c>
@@ -12056,7 +12530,7 @@
       </c>
     </row>
     <row r="138" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B138" s="21"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="10">
         <v>3</v>
       </c>
@@ -12076,7 +12550,7 @@
       <c r="I138" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K138" s="21"/>
+      <c r="K138" s="29"/>
       <c r="L138" s="10">
         <v>3</v>
       </c>
@@ -12098,7 +12572,7 @@
       <c r="R138" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T138" s="21"/>
+      <c r="T138" s="29"/>
       <c r="U138" s="10">
         <v>3</v>
       </c>
@@ -12120,7 +12594,7 @@
       <c r="AA138" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC138" s="21"/>
+      <c r="AC138" s="29"/>
       <c r="AD138" s="10">
         <v>3</v>
       </c>
@@ -12224,7 +12698,7 @@
       <c r="AJ139" s="8"/>
     </row>
     <row r="140" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C140" s="10">
@@ -12248,7 +12722,7 @@
       <c r="I140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K140" s="21" t="s">
+      <c r="K140" s="29" t="s">
         <v>52</v>
       </c>
       <c r="L140" s="10">
@@ -12272,7 +12746,7 @@
       <c r="R140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T140" s="21" t="s">
+      <c r="T140" s="29" t="s">
         <v>52</v>
       </c>
       <c r="U140" s="10">
@@ -12296,7 +12770,7 @@
       <c r="AA140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC140" s="21" t="s">
+      <c r="AC140" s="29" t="s">
         <v>52</v>
       </c>
       <c r="AD140" s="10">
@@ -12320,7 +12794,7 @@
       </c>
     </row>
     <row r="141" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B141" s="21"/>
+      <c r="B141" s="29"/>
       <c r="C141" s="10">
         <v>2</v>
       </c>
@@ -12342,7 +12816,7 @@
       <c r="I141" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K141" s="21"/>
+      <c r="K141" s="29"/>
       <c r="L141" s="10">
         <v>2</v>
       </c>
@@ -12362,7 +12836,7 @@
         <v>41</v>
       </c>
       <c r="R141" s="10"/>
-      <c r="T141" s="21"/>
+      <c r="T141" s="29"/>
       <c r="U141" s="10">
         <v>2</v>
       </c>
@@ -12384,7 +12858,7 @@
       <c r="AA141" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC141" s="21"/>
+      <c r="AC141" s="29"/>
       <c r="AD141" s="10">
         <v>2</v>
       </c>
@@ -12408,7 +12882,7 @@
       </c>
     </row>
     <row r="142" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B142" s="21"/>
+      <c r="B142" s="29"/>
       <c r="C142" s="10">
         <v>3</v>
       </c>
@@ -12430,7 +12904,7 @@
       <c r="I142" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K142" s="21"/>
+      <c r="K142" s="29"/>
       <c r="L142" s="10">
         <v>3</v>
       </c>
@@ -12452,7 +12926,7 @@
       <c r="R142" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T142" s="21"/>
+      <c r="T142" s="29"/>
       <c r="U142" s="10">
         <v>3</v>
       </c>
@@ -12474,7 +12948,7 @@
       <c r="AA142" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC142" s="21"/>
+      <c r="AC142" s="29"/>
       <c r="AD142" s="10">
         <v>3</v>
       </c>
@@ -12578,7 +13052,7 @@
       <c r="AJ143" s="8"/>
     </row>
     <row r="144" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C144" s="10">
@@ -12602,7 +13076,7 @@
       <c r="I144" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K144" s="21" t="s">
+      <c r="K144" s="29" t="s">
         <v>53</v>
       </c>
       <c r="L144" s="10">
@@ -12624,7 +13098,7 @@
         <v>41</v>
       </c>
       <c r="R144" s="10"/>
-      <c r="T144" s="21" t="s">
+      <c r="T144" s="29" t="s">
         <v>53</v>
       </c>
       <c r="U144" s="10">
@@ -12648,7 +13122,7 @@
       <c r="AA144" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC144" s="21" t="s">
+      <c r="AC144" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AD144" s="10">
@@ -12672,7 +13146,7 @@
       <c r="AJ144" s="10"/>
     </row>
     <row r="145" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B145" s="21"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="10">
         <v>2</v>
       </c>
@@ -12694,7 +13168,7 @@
       <c r="I145" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K145" s="21"/>
+      <c r="K145" s="29"/>
       <c r="L145" s="10">
         <v>2</v>
       </c>
@@ -12714,7 +13188,7 @@
         <v>41</v>
       </c>
       <c r="R145" s="10"/>
-      <c r="T145" s="21"/>
+      <c r="T145" s="29"/>
       <c r="U145" s="10">
         <v>2</v>
       </c>
@@ -12736,7 +13210,7 @@
       <c r="AA145" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC145" s="21"/>
+      <c r="AC145" s="29"/>
       <c r="AD145" s="10">
         <v>2</v>
       </c>
@@ -12760,7 +13234,7 @@
       </c>
     </row>
     <row r="146" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B146" s="21"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="10">
         <v>3</v>
       </c>
@@ -12782,7 +13256,7 @@
       <c r="I146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K146" s="21"/>
+      <c r="K146" s="29"/>
       <c r="L146" s="10">
         <v>3</v>
       </c>
@@ -12804,7 +13278,7 @@
       <c r="R146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T146" s="21"/>
+      <c r="T146" s="29"/>
       <c r="U146" s="10">
         <v>3</v>
       </c>
@@ -12826,7 +13300,7 @@
       <c r="AA146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC146" s="21"/>
+      <c r="AC146" s="29"/>
       <c r="AD146" s="10">
         <v>3</v>
       </c>
@@ -12932,7 +13406,7 @@
       <c r="AJ147" s="8"/>
     </row>
     <row r="148" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C148" s="10">
@@ -12956,7 +13430,7 @@
       <c r="I148" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K148" s="21" t="s">
+      <c r="K148" s="29" t="s">
         <v>57</v>
       </c>
       <c r="L148" s="10">
@@ -12978,7 +13452,7 @@
         <v>95</v>
       </c>
       <c r="R148" s="10"/>
-      <c r="T148" s="21" t="s">
+      <c r="T148" s="29" t="s">
         <v>57</v>
       </c>
       <c r="U148" s="10">
@@ -13002,7 +13476,7 @@
       <c r="AA148" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC148" s="21" t="s">
+      <c r="AC148" s="29" t="s">
         <v>57</v>
       </c>
       <c r="AD148" s="10">
@@ -13024,7 +13498,7 @@
       <c r="AJ148" s="10"/>
     </row>
     <row r="149" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B149" s="21"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="10">
         <v>2</v>
       </c>
@@ -13046,7 +13520,7 @@
       <c r="I149" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K149" s="21"/>
+      <c r="K149" s="29"/>
       <c r="L149" s="10">
         <v>2</v>
       </c>
@@ -13066,7 +13540,7 @@
         <v>41</v>
       </c>
       <c r="R149" s="10"/>
-      <c r="T149" s="21"/>
+      <c r="T149" s="29"/>
       <c r="U149" s="10">
         <v>2</v>
       </c>
@@ -13088,7 +13562,7 @@
       <c r="AA149" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC149" s="21"/>
+      <c r="AC149" s="29"/>
       <c r="AD149" s="10">
         <v>2</v>
       </c>
@@ -13112,7 +13586,7 @@
       </c>
     </row>
     <row r="150" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B150" s="21"/>
+      <c r="B150" s="29"/>
       <c r="C150" s="10">
         <v>3</v>
       </c>
@@ -13134,7 +13608,7 @@
       <c r="I150" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K150" s="21"/>
+      <c r="K150" s="29"/>
       <c r="L150" s="10">
         <v>3</v>
       </c>
@@ -13156,7 +13630,7 @@
       <c r="R150" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T150" s="21"/>
+      <c r="T150" s="29"/>
       <c r="U150" s="10">
         <v>3</v>
       </c>
@@ -13178,7 +13652,7 @@
       <c r="AA150" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC150" s="21"/>
+      <c r="AC150" s="29"/>
       <c r="AD150" s="10">
         <v>3</v>
       </c>
@@ -13284,7 +13758,7 @@
       <c r="AJ151" s="8"/>
     </row>
     <row r="152" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B152" s="21" t="s">
+      <c r="B152" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C152" s="10">
@@ -13308,7 +13782,7 @@
       <c r="I152" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K152" s="21" t="s">
+      <c r="K152" s="29" t="s">
         <v>58</v>
       </c>
       <c r="L152" s="10">
@@ -13330,7 +13804,7 @@
         <v>41</v>
       </c>
       <c r="R152" s="10"/>
-      <c r="T152" s="21" t="s">
+      <c r="T152" s="29" t="s">
         <v>58</v>
       </c>
       <c r="U152" s="10">
@@ -13354,7 +13828,7 @@
       <c r="AA152" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC152" s="21" t="s">
+      <c r="AC152" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AD152" s="10">
@@ -13380,7 +13854,7 @@
       </c>
     </row>
     <row r="153" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B153" s="21"/>
+      <c r="B153" s="29"/>
       <c r="C153" s="10">
         <v>2</v>
       </c>
@@ -13402,7 +13876,7 @@
       <c r="I153" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K153" s="21"/>
+      <c r="K153" s="29"/>
       <c r="L153" s="10">
         <v>2</v>
       </c>
@@ -13422,7 +13896,7 @@
         <v>41</v>
       </c>
       <c r="R153" s="10"/>
-      <c r="T153" s="21"/>
+      <c r="T153" s="29"/>
       <c r="U153" s="10">
         <v>2</v>
       </c>
@@ -13444,7 +13918,7 @@
       <c r="AA153" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC153" s="21"/>
+      <c r="AC153" s="29"/>
       <c r="AD153" s="10">
         <v>2</v>
       </c>
@@ -13468,7 +13942,7 @@
       </c>
     </row>
     <row r="154" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B154" s="21"/>
+      <c r="B154" s="29"/>
       <c r="C154" s="10">
         <v>3</v>
       </c>
@@ -13490,7 +13964,7 @@
       <c r="I154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K154" s="21"/>
+      <c r="K154" s="29"/>
       <c r="L154" s="10">
         <v>3</v>
       </c>
@@ -13512,7 +13986,7 @@
       <c r="R154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T154" s="21"/>
+      <c r="T154" s="29"/>
       <c r="U154" s="10">
         <v>3</v>
       </c>
@@ -13534,7 +14008,7 @@
       <c r="AA154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC154" s="21"/>
+      <c r="AC154" s="29"/>
       <c r="AD154" s="10">
         <v>3</v>
       </c>
@@ -13640,7 +14114,7 @@
       <c r="AJ155" s="8"/>
     </row>
     <row r="156" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C156" s="10">
@@ -13664,7 +14138,7 @@
       <c r="I156" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K156" s="21" t="s">
+      <c r="K156" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L156" s="10">
@@ -13686,7 +14160,7 @@
         <v>41</v>
       </c>
       <c r="R156" s="10"/>
-      <c r="T156" s="21" t="s">
+      <c r="T156" s="29" t="s">
         <v>62</v>
       </c>
       <c r="U156" s="10">
@@ -13710,7 +14184,7 @@
       <c r="AA156" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC156" s="21" t="s">
+      <c r="AC156" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AD156" s="10">
@@ -13736,7 +14210,7 @@
       </c>
     </row>
     <row r="157" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B157" s="21"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="10">
         <v>2</v>
       </c>
@@ -13758,7 +14232,7 @@
       <c r="I157" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K157" s="21"/>
+      <c r="K157" s="29"/>
       <c r="L157" s="10">
         <v>2</v>
       </c>
@@ -13778,7 +14252,7 @@
         <v>41</v>
       </c>
       <c r="R157" s="10"/>
-      <c r="T157" s="21"/>
+      <c r="T157" s="29"/>
       <c r="U157" s="10">
         <v>2</v>
       </c>
@@ -13800,7 +14274,7 @@
       <c r="AA157" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC157" s="21"/>
+      <c r="AC157" s="29"/>
       <c r="AD157" s="10">
         <v>2</v>
       </c>
@@ -13824,7 +14298,7 @@
       </c>
     </row>
     <row r="158" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B158" s="21"/>
+      <c r="B158" s="29"/>
       <c r="C158" s="10">
         <v>3</v>
       </c>
@@ -13846,7 +14320,7 @@
       <c r="I158" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K158" s="21"/>
+      <c r="K158" s="29"/>
       <c r="L158" s="10">
         <v>3</v>
       </c>
@@ -13868,7 +14342,7 @@
       <c r="R158" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T158" s="21"/>
+      <c r="T158" s="29"/>
       <c r="U158" s="10">
         <v>3</v>
       </c>
@@ -13890,7 +14364,7 @@
       <c r="AA158" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC158" s="21"/>
+      <c r="AC158" s="29"/>
       <c r="AD158" s="10">
         <v>3</v>
       </c>
@@ -13992,7 +14466,7 @@
       <c r="AJ159" s="8"/>
     </row>
     <row r="160" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C160" s="10">
@@ -14016,7 +14490,7 @@
       <c r="I160" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K160" s="21" t="s">
+      <c r="K160" s="29" t="s">
         <v>65</v>
       </c>
       <c r="L160" s="10">
@@ -14038,7 +14512,7 @@
         <v>41</v>
       </c>
       <c r="R160" s="10"/>
-      <c r="T160" s="21" t="s">
+      <c r="T160" s="29" t="s">
         <v>65</v>
       </c>
       <c r="U160" s="10">
@@ -14062,7 +14536,7 @@
       <c r="AA160" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC160" s="21" t="s">
+      <c r="AC160" s="29" t="s">
         <v>65</v>
       </c>
       <c r="AD160" s="10">
@@ -14086,7 +14560,7 @@
       <c r="AJ160" s="10"/>
     </row>
     <row r="161" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B161" s="21"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="10">
         <v>2</v>
       </c>
@@ -14108,7 +14582,7 @@
       <c r="I161" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K161" s="21"/>
+      <c r="K161" s="29"/>
       <c r="L161" s="10">
         <v>2</v>
       </c>
@@ -14128,7 +14602,7 @@
         <v>41</v>
       </c>
       <c r="R161" s="10"/>
-      <c r="T161" s="21"/>
+      <c r="T161" s="29"/>
       <c r="U161" s="10">
         <v>2</v>
       </c>
@@ -14150,7 +14624,7 @@
       <c r="AA161" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC161" s="21"/>
+      <c r="AC161" s="29"/>
       <c r="AD161" s="10">
         <v>2</v>
       </c>
@@ -14174,7 +14648,7 @@
       </c>
     </row>
     <row r="162" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B162" s="21"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="10">
         <v>3</v>
       </c>
@@ -14196,7 +14670,7 @@
       <c r="I162" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K162" s="21"/>
+      <c r="K162" s="29"/>
       <c r="L162" s="10">
         <v>3</v>
       </c>
@@ -14218,7 +14692,7 @@
       <c r="R162" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T162" s="21"/>
+      <c r="T162" s="29"/>
       <c r="U162" s="10">
         <v>3</v>
       </c>
@@ -14240,7 +14714,7 @@
       <c r="AA162" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC162" s="21"/>
+      <c r="AC162" s="29"/>
       <c r="AD162" s="10">
         <v>3</v>
       </c>
@@ -14346,7 +14820,7 @@
       <c r="AJ163" s="8"/>
     </row>
     <row r="164" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C164" s="10">
@@ -14370,7 +14844,7 @@
       <c r="I164" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K164" s="21" t="s">
+      <c r="K164" s="29" t="s">
         <v>67</v>
       </c>
       <c r="L164" s="10">
@@ -14392,7 +14866,7 @@
         <v>84</v>
       </c>
       <c r="R164" s="10"/>
-      <c r="T164" s="21" t="s">
+      <c r="T164" s="29" t="s">
         <v>67</v>
       </c>
       <c r="U164" s="10">
@@ -14416,7 +14890,7 @@
       <c r="AA164" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC164" s="21" t="s">
+      <c r="AC164" s="29" t="s">
         <v>67</v>
       </c>
       <c r="AD164" s="10">
@@ -14442,7 +14916,7 @@
       </c>
     </row>
     <row r="165" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B165" s="21"/>
+      <c r="B165" s="29"/>
       <c r="C165" s="10">
         <v>2</v>
       </c>
@@ -14464,7 +14938,7 @@
       <c r="I165" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K165" s="21"/>
+      <c r="K165" s="29"/>
       <c r="L165" s="10">
         <v>2</v>
       </c>
@@ -14484,7 +14958,7 @@
         <v>41</v>
       </c>
       <c r="R165" s="10"/>
-      <c r="T165" s="21"/>
+      <c r="T165" s="29"/>
       <c r="U165" s="10">
         <v>2</v>
       </c>
@@ -14506,7 +14980,7 @@
       <c r="AA165" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC165" s="21"/>
+      <c r="AC165" s="29"/>
       <c r="AD165" s="10">
         <v>2</v>
       </c>
@@ -14528,7 +15002,7 @@
       <c r="AJ165" s="10"/>
     </row>
     <row r="166" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B166" s="21"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="10">
         <v>3</v>
       </c>
@@ -14550,7 +15024,7 @@
       <c r="I166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K166" s="21"/>
+      <c r="K166" s="29"/>
       <c r="L166" s="10">
         <v>3</v>
       </c>
@@ -14572,7 +15046,7 @@
       <c r="R166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T166" s="21"/>
+      <c r="T166" s="29"/>
       <c r="U166" s="10">
         <v>3</v>
       </c>
@@ -14594,7 +15068,7 @@
       <c r="AA166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC166" s="21"/>
+      <c r="AC166" s="29"/>
       <c r="AD166" s="10">
         <v>3</v>
       </c>
@@ -14698,7 +15172,7 @@
       <c r="AJ167" s="8"/>
     </row>
     <row r="168" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B168" s="21" t="s">
+      <c r="B168" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C168" s="10">
@@ -14722,7 +15196,7 @@
       <c r="I168" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K168" s="21" t="s">
+      <c r="K168" s="29" t="s">
         <v>71</v>
       </c>
       <c r="L168" s="10">
@@ -14744,7 +15218,7 @@
         <v>41</v>
       </c>
       <c r="R168" s="10"/>
-      <c r="T168" s="21" t="s">
+      <c r="T168" s="29" t="s">
         <v>71</v>
       </c>
       <c r="U168" s="10">
@@ -14768,7 +15242,7 @@
       <c r="AA168" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC168" s="21" t="s">
+      <c r="AC168" s="29" t="s">
         <v>71</v>
       </c>
       <c r="AD168" s="10">
@@ -14794,7 +15268,7 @@
       </c>
     </row>
     <row r="169" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B169" s="21"/>
+      <c r="B169" s="29"/>
       <c r="C169" s="10">
         <v>2</v>
       </c>
@@ -14816,7 +15290,7 @@
       <c r="I169" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K169" s="21"/>
+      <c r="K169" s="29"/>
       <c r="L169" s="10">
         <v>2</v>
       </c>
@@ -14836,7 +15310,7 @@
         <v>41</v>
       </c>
       <c r="R169" s="10"/>
-      <c r="T169" s="21"/>
+      <c r="T169" s="29"/>
       <c r="U169" s="10">
         <v>2</v>
       </c>
@@ -14858,7 +15332,7 @@
       <c r="AA169" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC169" s="21"/>
+      <c r="AC169" s="29"/>
       <c r="AD169" s="10">
         <v>2</v>
       </c>
@@ -14882,7 +15356,7 @@
       </c>
     </row>
     <row r="170" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B170" s="21"/>
+      <c r="B170" s="29"/>
       <c r="C170" s="10">
         <v>3</v>
       </c>
@@ -14904,7 +15378,7 @@
       <c r="I170" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K170" s="21"/>
+      <c r="K170" s="29"/>
       <c r="L170" s="10">
         <v>3</v>
       </c>
@@ -14926,7 +15400,7 @@
       <c r="R170" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T170" s="21"/>
+      <c r="T170" s="29"/>
       <c r="U170" s="10">
         <v>3</v>
       </c>
@@ -14948,7 +15422,7 @@
       <c r="AA170" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC170" s="21"/>
+      <c r="AC170" s="29"/>
       <c r="AD170" s="10">
         <v>3</v>
       </c>
@@ -15054,7 +15528,7 @@
       <c r="AJ171" s="8"/>
     </row>
     <row r="172" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C172" s="10">
@@ -15078,7 +15552,7 @@
       <c r="I172" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K172" s="21" t="s">
+      <c r="K172" s="29" t="s">
         <v>73</v>
       </c>
       <c r="L172" s="10">
@@ -15100,7 +15574,7 @@
         <v>95</v>
       </c>
       <c r="R172" s="10"/>
-      <c r="T172" s="21" t="s">
+      <c r="T172" s="29" t="s">
         <v>73</v>
       </c>
       <c r="U172" s="10">
@@ -15124,7 +15598,7 @@
       <c r="AA172" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC172" s="21" t="s">
+      <c r="AC172" s="29" t="s">
         <v>73</v>
       </c>
       <c r="AD172" s="10">
@@ -15146,7 +15620,7 @@
       <c r="AJ172" s="10"/>
     </row>
     <row r="173" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B173" s="21"/>
+      <c r="B173" s="29"/>
       <c r="C173" s="10">
         <v>2</v>
       </c>
@@ -15168,7 +15642,7 @@
       <c r="I173" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K173" s="21"/>
+      <c r="K173" s="29"/>
       <c r="L173" s="10">
         <v>2</v>
       </c>
@@ -15188,7 +15662,7 @@
         <v>41</v>
       </c>
       <c r="R173" s="10"/>
-      <c r="T173" s="21"/>
+      <c r="T173" s="29"/>
       <c r="U173" s="10">
         <v>2</v>
       </c>
@@ -15210,7 +15684,7 @@
       <c r="AA173" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC173" s="21"/>
+      <c r="AC173" s="29"/>
       <c r="AD173" s="10">
         <v>2</v>
       </c>
@@ -15234,7 +15708,7 @@
       </c>
     </row>
     <row r="174" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B174" s="21"/>
+      <c r="B174" s="29"/>
       <c r="C174" s="10">
         <v>3</v>
       </c>
@@ -15256,7 +15730,7 @@
       <c r="I174" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K174" s="21"/>
+      <c r="K174" s="29"/>
       <c r="L174" s="10">
         <v>3</v>
       </c>
@@ -15278,7 +15752,7 @@
       <c r="R174" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T174" s="21"/>
+      <c r="T174" s="29"/>
       <c r="U174" s="10">
         <v>3</v>
       </c>
@@ -15296,7 +15770,7 @@
       </c>
       <c r="Z174" s="11"/>
       <c r="AA174" s="10"/>
-      <c r="AC174" s="21"/>
+      <c r="AC174" s="29"/>
       <c r="AD174" s="10">
         <v>3</v>
       </c>
@@ -15398,7 +15872,7 @@
       <c r="AJ175" s="8"/>
     </row>
     <row r="176" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C176" s="10">
@@ -15422,7 +15896,7 @@
       <c r="I176" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K176" s="21" t="s">
+      <c r="K176" s="29" t="s">
         <v>76</v>
       </c>
       <c r="L176" s="10">
@@ -15444,7 +15918,7 @@
         <v>41</v>
       </c>
       <c r="R176" s="10"/>
-      <c r="T176" s="21" t="s">
+      <c r="T176" s="29" t="s">
         <v>76</v>
       </c>
       <c r="U176" s="10">
@@ -15468,7 +15942,7 @@
       <c r="AA176" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC176" s="21" t="s">
+      <c r="AC176" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD176" s="10">
@@ -15494,7 +15968,7 @@
       </c>
     </row>
     <row r="177" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B177" s="21"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="10">
         <v>2</v>
       </c>
@@ -15516,7 +15990,7 @@
       <c r="I177" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K177" s="21"/>
+      <c r="K177" s="29"/>
       <c r="L177" s="10">
         <v>2</v>
       </c>
@@ -15536,7 +16010,7 @@
         <v>41</v>
       </c>
       <c r="R177" s="10"/>
-      <c r="T177" s="21"/>
+      <c r="T177" s="29"/>
       <c r="U177" s="10">
         <v>2</v>
       </c>
@@ -15558,7 +16032,7 @@
       <c r="AA177" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC177" s="21"/>
+      <c r="AC177" s="29"/>
       <c r="AD177" s="10">
         <v>2</v>
       </c>
@@ -15582,7 +16056,7 @@
       </c>
     </row>
     <row r="178" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B178" s="21"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="10">
         <v>3</v>
       </c>
@@ -15604,7 +16078,7 @@
       <c r="I178" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K178" s="21"/>
+      <c r="K178" s="29"/>
       <c r="L178" s="10">
         <v>3</v>
       </c>
@@ -15626,7 +16100,7 @@
       <c r="R178" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T178" s="21"/>
+      <c r="T178" s="29"/>
       <c r="U178" s="10">
         <v>3</v>
       </c>
@@ -15644,7 +16118,7 @@
       </c>
       <c r="Z178" s="11"/>
       <c r="AA178" s="10"/>
-      <c r="AC178" s="21"/>
+      <c r="AC178" s="29"/>
       <c r="AD178" s="10">
         <v>3</v>
       </c>
@@ -15748,7 +16222,7 @@
       <c r="AJ179" s="8"/>
     </row>
     <row r="180" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B180" s="21" t="s">
+      <c r="B180" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="10">
@@ -15772,7 +16246,7 @@
       <c r="I180" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K180" s="21" t="s">
+      <c r="K180" s="29" t="s">
         <v>77</v>
       </c>
       <c r="L180" s="10">
@@ -15794,7 +16268,7 @@
         <v>41</v>
       </c>
       <c r="R180" s="10"/>
-      <c r="T180" s="21" t="s">
+      <c r="T180" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U180" s="10">
@@ -15818,7 +16292,7 @@
       <c r="AA180" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC180" s="21" t="s">
+      <c r="AC180" s="29" t="s">
         <v>77</v>
       </c>
       <c r="AD180" s="10">
@@ -15844,7 +16318,7 @@
       </c>
     </row>
     <row r="181" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B181" s="21"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="10">
         <v>2</v>
       </c>
@@ -15866,7 +16340,7 @@
       <c r="I181" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K181" s="21"/>
+      <c r="K181" s="29"/>
       <c r="L181" s="10">
         <v>2</v>
       </c>
@@ -15886,7 +16360,7 @@
         <v>41</v>
       </c>
       <c r="R181" s="10"/>
-      <c r="T181" s="21"/>
+      <c r="T181" s="29"/>
       <c r="U181" s="10">
         <v>2</v>
       </c>
@@ -15908,7 +16382,7 @@
       <c r="AA181" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC181" s="21"/>
+      <c r="AC181" s="29"/>
       <c r="AD181" s="10">
         <v>2</v>
       </c>
@@ -15932,7 +16406,7 @@
       </c>
     </row>
     <row r="182" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B182" s="21"/>
+      <c r="B182" s="29"/>
       <c r="C182" s="10">
         <v>3</v>
       </c>
@@ -15954,7 +16428,7 @@
       <c r="I182" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K182" s="21"/>
+      <c r="K182" s="29"/>
       <c r="L182" s="10">
         <v>3</v>
       </c>
@@ -15976,7 +16450,7 @@
       <c r="R182" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T182" s="21"/>
+      <c r="T182" s="29"/>
       <c r="U182" s="10">
         <v>3</v>
       </c>
@@ -15998,7 +16472,7 @@
       <c r="AA182" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC182" s="21"/>
+      <c r="AC182" s="29"/>
       <c r="AD182" s="10">
         <v>3</v>
       </c>
@@ -16104,7 +16578,7 @@
       <c r="AJ183" s="8"/>
     </row>
     <row r="184" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C184" s="10">
@@ -16128,7 +16602,7 @@
       <c r="I184" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K184" s="21" t="s">
+      <c r="K184" s="29" t="s">
         <v>78</v>
       </c>
       <c r="L184" s="10">
@@ -16148,7 +16622,7 @@
       </c>
       <c r="Q184" s="11"/>
       <c r="R184" s="10"/>
-      <c r="T184" s="21" t="s">
+      <c r="T184" s="29" t="s">
         <v>78</v>
       </c>
       <c r="U184" s="10">
@@ -16172,7 +16646,7 @@
       <c r="AA184" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC184" s="21" t="s">
+      <c r="AC184" s="29" t="s">
         <v>78</v>
       </c>
       <c r="AD184" s="10">
@@ -16198,7 +16672,7 @@
       </c>
     </row>
     <row r="185" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B185" s="21"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="10">
         <v>2</v>
       </c>
@@ -16220,7 +16694,7 @@
       <c r="I185" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K185" s="21"/>
+      <c r="K185" s="29"/>
       <c r="L185" s="10">
         <v>2</v>
       </c>
@@ -16240,7 +16714,7 @@
         <v>41</v>
       </c>
       <c r="R185" s="10"/>
-      <c r="T185" s="21"/>
+      <c r="T185" s="29"/>
       <c r="U185" s="10">
         <v>2</v>
       </c>
@@ -16262,7 +16736,7 @@
       <c r="AA185" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC185" s="21"/>
+      <c r="AC185" s="29"/>
       <c r="AD185" s="10">
         <v>2</v>
       </c>
@@ -16286,7 +16760,7 @@
       </c>
     </row>
     <row r="186" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B186" s="21"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="10">
         <v>3</v>
       </c>
@@ -16308,7 +16782,7 @@
       <c r="I186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K186" s="21"/>
+      <c r="K186" s="29"/>
       <c r="L186" s="10">
         <v>3</v>
       </c>
@@ -16330,7 +16804,7 @@
       <c r="R186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T186" s="21"/>
+      <c r="T186" s="29"/>
       <c r="U186" s="10">
         <v>3</v>
       </c>
@@ -16352,7 +16826,7 @@
       <c r="AA186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC186" s="21"/>
+      <c r="AC186" s="29"/>
       <c r="AD186" s="10">
         <v>3</v>
       </c>
@@ -16458,7 +16932,7 @@
       <c r="AJ187" s="8"/>
     </row>
     <row r="188" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B188" s="21" t="s">
+      <c r="B188" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="10">
@@ -16482,7 +16956,7 @@
       <c r="I188" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K188" s="21" t="s">
+      <c r="K188" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L188" s="10">
@@ -16504,7 +16978,7 @@
         <v>41</v>
       </c>
       <c r="R188" s="10"/>
-      <c r="T188" s="21" t="s">
+      <c r="T188" s="29" t="s">
         <v>79</v>
       </c>
       <c r="U188" s="10">
@@ -16528,7 +17002,7 @@
       <c r="AA188" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC188" s="21" t="s">
+      <c r="AC188" s="29" t="s">
         <v>79</v>
       </c>
       <c r="AD188" s="10">
@@ -16554,7 +17028,7 @@
       </c>
     </row>
     <row r="189" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B189" s="21"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="10">
         <v>2</v>
       </c>
@@ -16576,7 +17050,7 @@
       <c r="I189" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K189" s="21"/>
+      <c r="K189" s="29"/>
       <c r="L189" s="10">
         <v>2</v>
       </c>
@@ -16596,7 +17070,7 @@
         <v>41</v>
       </c>
       <c r="R189" s="10"/>
-      <c r="T189" s="21"/>
+      <c r="T189" s="29"/>
       <c r="U189" s="10">
         <v>2</v>
       </c>
@@ -16618,7 +17092,7 @@
       <c r="AA189" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC189" s="21"/>
+      <c r="AC189" s="29"/>
       <c r="AD189" s="10">
         <v>2</v>
       </c>
@@ -16642,7 +17116,7 @@
       </c>
     </row>
     <row r="190" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B190" s="21"/>
+      <c r="B190" s="29"/>
       <c r="C190" s="10">
         <v>3</v>
       </c>
@@ -16664,7 +17138,7 @@
       <c r="I190" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K190" s="21"/>
+      <c r="K190" s="29"/>
       <c r="L190" s="10">
         <v>3</v>
       </c>
@@ -16686,7 +17160,7 @@
       <c r="R190" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T190" s="21"/>
+      <c r="T190" s="29"/>
       <c r="U190" s="10">
         <v>3</v>
       </c>
@@ -16708,7 +17182,7 @@
       <c r="AA190" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC190" s="21"/>
+      <c r="AC190" s="29"/>
       <c r="AD190" s="10">
         <v>3</v>
       </c>
@@ -16810,7 +17284,7 @@
       <c r="AJ191" s="8"/>
     </row>
     <row r="192" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C192" s="10">
@@ -16834,7 +17308,7 @@
       <c r="I192" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K192" s="21" t="s">
+      <c r="K192" s="29" t="s">
         <v>81</v>
       </c>
       <c r="L192" s="10">
@@ -16856,7 +17330,7 @@
         <v>96</v>
       </c>
       <c r="R192" s="10"/>
-      <c r="T192" s="21" t="s">
+      <c r="T192" s="29" t="s">
         <v>81</v>
       </c>
       <c r="U192" s="10">
@@ -16880,7 +17354,7 @@
       <c r="AA192" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC192" s="21" t="s">
+      <c r="AC192" s="29" t="s">
         <v>81</v>
       </c>
       <c r="AD192" s="10">
@@ -16906,7 +17380,7 @@
       </c>
     </row>
     <row r="193" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B193" s="21"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="10">
         <v>2</v>
       </c>
@@ -16928,7 +17402,7 @@
       <c r="I193" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K193" s="21"/>
+      <c r="K193" s="29"/>
       <c r="L193" s="10">
         <v>2</v>
       </c>
@@ -16948,7 +17422,7 @@
         <v>96</v>
       </c>
       <c r="R193" s="10"/>
-      <c r="T193" s="21"/>
+      <c r="T193" s="29"/>
       <c r="U193" s="10">
         <v>2</v>
       </c>
@@ -16970,7 +17444,7 @@
       <c r="AA193" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC193" s="21"/>
+      <c r="AC193" s="29"/>
       <c r="AD193" s="10">
         <v>2</v>
       </c>
@@ -16994,7 +17468,7 @@
       </c>
     </row>
     <row r="194" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B194" s="21"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="10">
         <v>3</v>
       </c>
@@ -17016,7 +17490,7 @@
       <c r="I194" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K194" s="21"/>
+      <c r="K194" s="29"/>
       <c r="L194" s="10">
         <v>3</v>
       </c>
@@ -17038,7 +17512,7 @@
       <c r="R194" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T194" s="21"/>
+      <c r="T194" s="29"/>
       <c r="U194" s="10">
         <v>3</v>
       </c>
@@ -17060,7 +17534,7 @@
       <c r="AA194" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC194" s="21"/>
+      <c r="AC194" s="29"/>
       <c r="AD194" s="10">
         <v>3</v>
       </c>
@@ -17446,7 +17920,7 @@
       </c>
     </row>
     <row r="204" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C204" s="14" t="s">
@@ -17468,7 +17942,7 @@
         <v>25</v>
       </c>
       <c r="I204" s="14"/>
-      <c r="K204" s="21" t="s">
+      <c r="K204" s="29" t="s">
         <v>19</v>
       </c>
       <c r="L204" s="14" t="s">
@@ -17510,7 +17984,7 @@
       <c r="AJ204" s="19"/>
     </row>
     <row r="205" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B205" s="21"/>
+      <c r="B205" s="29"/>
       <c r="C205" s="14" t="s">
         <v>26</v>
       </c>
@@ -17532,7 +18006,7 @@
       <c r="I205" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K205" s="21"/>
+      <c r="K205" s="29"/>
       <c r="L205" s="14" t="s">
         <v>26</v>
       </c>
@@ -17550,7 +18024,7 @@
       </c>
       <c r="Q205" s="15"/>
       <c r="R205" s="14"/>
-      <c r="T205" s="21" t="s">
+      <c r="T205" s="29" t="s">
         <v>19</v>
       </c>
       <c r="U205" s="17" t="s">
@@ -17574,7 +18048,7 @@
       <c r="AA205" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC205" s="21" t="s">
+      <c r="AC205" s="29" t="s">
         <v>19</v>
       </c>
       <c r="AD205" s="19" t="s">
@@ -17600,7 +18074,7 @@
       </c>
     </row>
     <row r="206" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B206" s="21"/>
+      <c r="B206" s="29"/>
       <c r="C206" s="14" t="s">
         <v>30</v>
       </c>
@@ -17622,7 +18096,7 @@
       <c r="I206" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K206" s="21"/>
+      <c r="K206" s="29"/>
       <c r="L206" s="14" t="s">
         <v>30</v>
       </c>
@@ -17644,7 +18118,7 @@
       <c r="R206" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T206" s="21"/>
+      <c r="T206" s="29"/>
       <c r="U206" s="17" t="s">
         <v>26</v>
       </c>
@@ -17666,7 +18140,7 @@
       <c r="AA206" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC206" s="21"/>
+      <c r="AC206" s="29"/>
       <c r="AD206" s="19" t="s">
         <v>26</v>
       </c>
@@ -17734,7 +18208,7 @@
       </c>
       <c r="Q207" s="9"/>
       <c r="R207" s="8"/>
-      <c r="T207" s="21"/>
+      <c r="T207" s="29"/>
       <c r="U207" s="17" t="s">
         <v>30</v>
       </c>
@@ -17752,7 +18226,7 @@
       </c>
       <c r="Z207" s="18"/>
       <c r="AA207" s="17"/>
-      <c r="AC207" s="21"/>
+      <c r="AC207" s="29"/>
       <c r="AD207" s="19" t="s">
         <v>30</v>
       </c>
@@ -17772,7 +18246,7 @@
       <c r="AJ207" s="19"/>
     </row>
     <row r="208" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B208" s="21" t="s">
+      <c r="B208" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C208" s="14">
@@ -17794,7 +18268,7 @@
         <v>25</v>
       </c>
       <c r="I208" s="14"/>
-      <c r="K208" s="21" t="s">
+      <c r="K208" s="29" t="s">
         <v>33</v>
       </c>
       <c r="L208" s="14">
@@ -17864,7 +18338,7 @@
       <c r="AJ208" s="8"/>
     </row>
     <row r="209" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B209" s="21"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="14">
         <v>2</v>
       </c>
@@ -17886,7 +18360,7 @@
       <c r="I209" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K209" s="21"/>
+      <c r="K209" s="29"/>
       <c r="L209" s="14">
         <v>2</v>
       </c>
@@ -17906,7 +18380,7 @@
         <v>107</v>
       </c>
       <c r="R209" s="14"/>
-      <c r="T209" s="21" t="s">
+      <c r="T209" s="29" t="s">
         <v>33</v>
       </c>
       <c r="U209" s="17">
@@ -17930,7 +18404,7 @@
       <c r="AA209" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC209" s="21" t="s">
+      <c r="AC209" s="29" t="s">
         <v>33</v>
       </c>
       <c r="AD209" s="19">
@@ -17956,7 +18430,7 @@
       </c>
     </row>
     <row r="210" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B210" s="21"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="14">
         <v>3</v>
       </c>
@@ -17978,7 +18452,7 @@
       <c r="I210" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K210" s="21"/>
+      <c r="K210" s="29"/>
       <c r="L210" s="14">
         <v>3</v>
       </c>
@@ -18000,7 +18474,7 @@
       <c r="R210" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T210" s="21"/>
+      <c r="T210" s="29"/>
       <c r="U210" s="17">
         <v>2</v>
       </c>
@@ -18022,7 +18496,7 @@
       <c r="AA210" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC210" s="21"/>
+      <c r="AC210" s="29"/>
       <c r="AD210" s="19">
         <v>2</v>
       </c>
@@ -18082,7 +18556,7 @@
       </c>
       <c r="Q211" s="9"/>
       <c r="R211" s="8"/>
-      <c r="T211" s="21"/>
+      <c r="T211" s="29"/>
       <c r="U211" s="17">
         <v>3</v>
       </c>
@@ -18104,7 +18578,7 @@
       <c r="AA211" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC211" s="21"/>
+      <c r="AC211" s="29"/>
       <c r="AD211" s="19">
         <v>3</v>
       </c>
@@ -18126,7 +18600,7 @@
       </c>
     </row>
     <row r="212" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C212" s="14">
@@ -18150,7 +18624,7 @@
       <c r="I212" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K212" s="21" t="s">
+      <c r="K212" s="29" t="s">
         <v>36</v>
       </c>
       <c r="L212" s="14">
@@ -18216,7 +18690,7 @@
       <c r="AJ212" s="8"/>
     </row>
     <row r="213" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B213" s="21"/>
+      <c r="B213" s="29"/>
       <c r="C213" s="14">
         <v>2</v>
       </c>
@@ -18238,7 +18712,7 @@
       <c r="I213" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K213" s="21"/>
+      <c r="K213" s="29"/>
       <c r="L213" s="14">
         <v>2</v>
       </c>
@@ -18258,7 +18732,7 @@
         <v>107</v>
       </c>
       <c r="R213" s="14"/>
-      <c r="T213" s="21" t="s">
+      <c r="T213" s="29" t="s">
         <v>36</v>
       </c>
       <c r="U213" s="17">
@@ -18282,7 +18756,7 @@
       <c r="AA213" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC213" s="21" t="s">
+      <c r="AC213" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AD213" s="19">
@@ -18308,7 +18782,7 @@
       </c>
     </row>
     <row r="214" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B214" s="21"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="14">
         <v>3</v>
       </c>
@@ -18330,7 +18804,7 @@
       <c r="I214" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K214" s="21"/>
+      <c r="K214" s="29"/>
       <c r="L214" s="14">
         <v>3</v>
       </c>
@@ -18352,7 +18826,7 @@
       <c r="R214" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T214" s="21"/>
+      <c r="T214" s="29"/>
       <c r="U214" s="17">
         <v>2</v>
       </c>
@@ -18374,7 +18848,7 @@
       <c r="AA214" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC214" s="21"/>
+      <c r="AC214" s="29"/>
       <c r="AD214" s="19">
         <v>2</v>
       </c>
@@ -18434,7 +18908,7 @@
       </c>
       <c r="Q215" s="9"/>
       <c r="R215" s="8"/>
-      <c r="T215" s="21"/>
+      <c r="T215" s="29"/>
       <c r="U215" s="17">
         <v>3</v>
       </c>
@@ -18456,7 +18930,7 @@
       <c r="AA215" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC215" s="21"/>
+      <c r="AC215" s="29"/>
       <c r="AD215" s="19">
         <v>3</v>
       </c>
@@ -18473,10 +18947,10 @@
         <v>1</v>
       </c>
       <c r="AI215" s="20"/>
-      <c r="AJ215" s="26"/>
+      <c r="AJ215" s="25"/>
     </row>
     <row r="216" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C216" s="14">
@@ -18500,7 +18974,7 @@
       <c r="I216" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K216" s="21" t="s">
+      <c r="K216" s="29" t="s">
         <v>39</v>
       </c>
       <c r="L216" s="14">
@@ -18566,7 +19040,7 @@
       <c r="AJ216" s="8"/>
     </row>
     <row r="217" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B217" s="21"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="14">
         <v>2</v>
       </c>
@@ -18588,7 +19062,7 @@
       <c r="I217" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K217" s="21"/>
+      <c r="K217" s="29"/>
       <c r="L217" s="14">
         <v>2</v>
       </c>
@@ -18606,7 +19080,7 @@
       </c>
       <c r="Q217" s="15"/>
       <c r="R217" s="14"/>
-      <c r="T217" s="21" t="s">
+      <c r="T217" s="29" t="s">
         <v>39</v>
       </c>
       <c r="U217" s="17">
@@ -18630,7 +19104,7 @@
       <c r="AA217" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC217" s="21" t="s">
+      <c r="AC217" s="29" t="s">
         <v>39</v>
       </c>
       <c r="AD217" s="19">
@@ -18654,7 +19128,7 @@
       <c r="AJ217" s="19"/>
     </row>
     <row r="218" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B218" s="21"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="14">
         <v>3</v>
       </c>
@@ -18676,7 +19150,7 @@
       <c r="I218" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K218" s="21"/>
+      <c r="K218" s="29"/>
       <c r="L218" s="14">
         <v>3</v>
       </c>
@@ -18696,7 +19170,7 @@
       <c r="R218" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T218" s="21"/>
+      <c r="T218" s="29"/>
       <c r="U218" s="17">
         <v>2</v>
       </c>
@@ -18718,7 +19192,7 @@
       <c r="AA218" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC218" s="21"/>
+      <c r="AC218" s="29"/>
       <c r="AD218" s="19">
         <v>2</v>
       </c>
@@ -18782,7 +19256,7 @@
       </c>
       <c r="Q219" s="9"/>
       <c r="R219" s="8"/>
-      <c r="T219" s="21"/>
+      <c r="T219" s="29"/>
       <c r="U219" s="17">
         <v>3</v>
       </c>
@@ -18804,7 +19278,7 @@
       <c r="AA219" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC219" s="21"/>
+      <c r="AC219" s="29"/>
       <c r="AD219" s="19">
         <v>3</v>
       </c>
@@ -18821,10 +19295,10 @@
         <v>2</v>
       </c>
       <c r="AI219" s="20"/>
-      <c r="AJ219" s="27"/>
+      <c r="AJ219" s="26"/>
     </row>
     <row r="220" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C220" s="14">
@@ -18848,7 +19322,7 @@
       <c r="I220" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K220" s="21" t="s">
+      <c r="K220" s="29" t="s">
         <v>43</v>
       </c>
       <c r="L220" s="14">
@@ -18914,7 +19388,7 @@
       <c r="AJ220" s="8"/>
     </row>
     <row r="221" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B221" s="21"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="14">
         <v>2</v>
       </c>
@@ -18936,7 +19410,7 @@
       <c r="I221" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K221" s="21"/>
+      <c r="K221" s="29"/>
       <c r="L221" s="14">
         <v>2</v>
       </c>
@@ -18956,7 +19430,7 @@
         <v>111</v>
       </c>
       <c r="R221" s="14"/>
-      <c r="T221" s="21" t="s">
+      <c r="T221" s="29" t="s">
         <v>43</v>
       </c>
       <c r="U221" s="17">
@@ -18980,7 +19454,7 @@
       <c r="AA221" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC221" s="21" t="s">
+      <c r="AC221" s="29" t="s">
         <v>43</v>
       </c>
       <c r="AD221" s="19">
@@ -18998,11 +19472,11 @@
       <c r="AH221" s="19">
         <v>1</v>
       </c>
-      <c r="AI221" s="29"/>
-      <c r="AJ221" s="28"/>
+      <c r="AI221" s="28"/>
+      <c r="AJ221" s="27"/>
     </row>
     <row r="222" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B222" s="21"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="14">
         <v>3</v>
       </c>
@@ -19022,7 +19496,7 @@
         <v>25</v>
       </c>
       <c r="I222" s="14"/>
-      <c r="K222" s="21"/>
+      <c r="K222" s="29"/>
       <c r="L222" s="14">
         <v>3</v>
       </c>
@@ -19044,7 +19518,7 @@
       <c r="R222" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T222" s="21"/>
+      <c r="T222" s="29"/>
       <c r="U222" s="17">
         <v>2</v>
       </c>
@@ -19066,7 +19540,7 @@
       <c r="AA222" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC222" s="21"/>
+      <c r="AC222" s="29"/>
       <c r="AD222" s="19">
         <v>2</v>
       </c>
@@ -19082,8 +19556,8 @@
       <c r="AH222" s="19">
         <v>1</v>
       </c>
-      <c r="AI222" s="29"/>
-      <c r="AJ222" s="28"/>
+      <c r="AI222" s="28"/>
+      <c r="AJ222" s="27"/>
     </row>
     <row r="223" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B223" s="8"/>
@@ -19126,7 +19600,7 @@
       </c>
       <c r="Q223" s="9"/>
       <c r="R223" s="8"/>
-      <c r="T223" s="21"/>
+      <c r="T223" s="29"/>
       <c r="U223" s="17">
         <v>3</v>
       </c>
@@ -19144,7 +19618,7 @@
       </c>
       <c r="Z223" s="18"/>
       <c r="AA223" s="17"/>
-      <c r="AC223" s="21"/>
+      <c r="AC223" s="29"/>
       <c r="AD223" s="19">
         <v>3</v>
       </c>
@@ -19160,11 +19634,11 @@
       <c r="AH223" s="19">
         <v>1</v>
       </c>
-      <c r="AI223" s="29"/>
-      <c r="AJ223" s="28"/>
+      <c r="AI223" s="28"/>
+      <c r="AJ223" s="27"/>
     </row>
     <row r="224" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C224" s="14">
@@ -19188,7 +19662,7 @@
       <c r="I224" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K224" s="21" t="s">
+      <c r="K224" s="29" t="s">
         <v>47</v>
       </c>
       <c r="L224" s="14">
@@ -19254,7 +19728,7 @@
       <c r="AJ224" s="8"/>
     </row>
     <row r="225" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B225" s="21"/>
+      <c r="B225" s="29"/>
       <c r="C225" s="14">
         <v>2</v>
       </c>
@@ -19276,7 +19750,7 @@
       <c r="I225" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K225" s="21"/>
+      <c r="K225" s="29"/>
       <c r="L225" s="14">
         <v>2</v>
       </c>
@@ -19298,7 +19772,7 @@
       <c r="R225" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T225" s="21" t="s">
+      <c r="T225" s="29" t="s">
         <v>47</v>
       </c>
       <c r="U225" s="17">
@@ -19322,7 +19796,7 @@
       <c r="AA225" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC225" s="21" t="s">
+      <c r="AC225" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AD225" s="19">
@@ -19346,7 +19820,7 @@
       </c>
     </row>
     <row r="226" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B226" s="21"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="14">
         <v>3</v>
       </c>
@@ -19368,7 +19842,7 @@
       <c r="I226" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K226" s="21"/>
+      <c r="K226" s="29"/>
       <c r="L226" s="14">
         <v>3</v>
       </c>
@@ -19390,7 +19864,7 @@
       <c r="R226" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T226" s="21"/>
+      <c r="T226" s="29"/>
       <c r="U226" s="17">
         <v>2</v>
       </c>
@@ -19412,7 +19886,7 @@
       <c r="AA226" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC226" s="21"/>
+      <c r="AC226" s="29"/>
       <c r="AD226" s="19">
         <v>2</v>
       </c>
@@ -19429,7 +19903,7 @@
         <v>1</v>
       </c>
       <c r="AI226" s="20"/>
-      <c r="AJ226" s="28"/>
+      <c r="AJ226" s="27"/>
     </row>
     <row r="227" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B227" s="8"/>
@@ -19472,7 +19946,7 @@
       </c>
       <c r="Q227" s="9"/>
       <c r="R227" s="8"/>
-      <c r="T227" s="21"/>
+      <c r="T227" s="29"/>
       <c r="U227" s="17">
         <v>3</v>
       </c>
@@ -19494,7 +19968,7 @@
       <c r="AA227" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC227" s="21"/>
+      <c r="AC227" s="29"/>
       <c r="AD227" s="19">
         <v>3</v>
       </c>
@@ -19511,12 +19985,12 @@
         <v>2</v>
       </c>
       <c r="AI227" s="20"/>
-      <c r="AJ227" s="27" t="s">
+      <c r="AJ227" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="228" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C228" s="14">
@@ -19540,7 +20014,7 @@
       <c r="I228" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K228" s="21" t="s">
+      <c r="K228" s="29" t="s">
         <v>52</v>
       </c>
       <c r="L228" s="14">
@@ -19606,7 +20080,7 @@
       <c r="AJ228" s="8"/>
     </row>
     <row r="229" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B229" s="21"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="14">
         <v>2</v>
       </c>
@@ -19628,7 +20102,7 @@
       <c r="I229" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K229" s="21"/>
+      <c r="K229" s="29"/>
       <c r="L229" s="14">
         <v>2</v>
       </c>
@@ -19648,7 +20122,7 @@
         <v>107</v>
       </c>
       <c r="R229" s="14"/>
-      <c r="T229" s="21" t="s">
+      <c r="T229" s="29" t="s">
         <v>52</v>
       </c>
       <c r="U229" s="17">
@@ -19672,7 +20146,7 @@
       <c r="AA229" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC229" s="21" t="s">
+      <c r="AC229" s="29" t="s">
         <v>52</v>
       </c>
       <c r="AD229" s="19">
@@ -19693,10 +20167,10 @@
       <c r="AI229" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AJ229" s="27"/>
+      <c r="AJ229" s="26"/>
     </row>
     <row r="230" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B230" s="21"/>
+      <c r="B230" s="29"/>
       <c r="C230" s="14">
         <v>3</v>
       </c>
@@ -19718,7 +20192,7 @@
       <c r="I230" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K230" s="21"/>
+      <c r="K230" s="29"/>
       <c r="L230" s="14">
         <v>3</v>
       </c>
@@ -19740,7 +20214,7 @@
       <c r="R230" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T230" s="21"/>
+      <c r="T230" s="29"/>
       <c r="U230" s="17">
         <v>2</v>
       </c>
@@ -19762,7 +20236,7 @@
       <c r="AA230" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC230" s="21"/>
+      <c r="AC230" s="29"/>
       <c r="AD230" s="19">
         <v>2</v>
       </c>
@@ -19781,7 +20255,7 @@
       <c r="AI230" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AJ230" s="27"/>
+      <c r="AJ230" s="26"/>
     </row>
     <row r="231" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B231" s="8"/>
@@ -19824,7 +20298,7 @@
       </c>
       <c r="Q231" s="9"/>
       <c r="R231" s="8"/>
-      <c r="T231" s="21"/>
+      <c r="T231" s="29"/>
       <c r="U231" s="17">
         <v>3</v>
       </c>
@@ -19846,7 +20320,7 @@
       <c r="AA231" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC231" s="21"/>
+      <c r="AC231" s="29"/>
       <c r="AD231" s="19">
         <v>3</v>
       </c>
@@ -19863,10 +20337,10 @@
         <v>2</v>
       </c>
       <c r="AI231" s="20"/>
-      <c r="AJ231" s="27"/>
+      <c r="AJ231" s="26"/>
     </row>
     <row r="232" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C232" s="14">
@@ -19890,7 +20364,7 @@
       <c r="I232" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K232" s="21" t="s">
+      <c r="K232" s="29" t="s">
         <v>53</v>
       </c>
       <c r="L232" s="14">
@@ -19956,7 +20430,7 @@
       <c r="AJ232" s="8"/>
     </row>
     <row r="233" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B233" s="21"/>
+      <c r="B233" s="29"/>
       <c r="C233" s="14">
         <v>2</v>
       </c>
@@ -19978,7 +20452,7 @@
       <c r="I233" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K233" s="21"/>
+      <c r="K233" s="29"/>
       <c r="L233" s="14">
         <v>2</v>
       </c>
@@ -19998,7 +20472,7 @@
         <v>107</v>
       </c>
       <c r="R233" s="14"/>
-      <c r="T233" s="21" t="s">
+      <c r="T233" s="29" t="s">
         <v>53</v>
       </c>
       <c r="U233" s="17">
@@ -20020,7 +20494,7 @@
         <v>108</v>
       </c>
       <c r="AA233" s="17"/>
-      <c r="AC233" s="21" t="s">
+      <c r="AC233" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AD233" s="19">
@@ -20042,7 +20516,7 @@
       <c r="AJ233" s="19"/>
     </row>
     <row r="234" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B234" s="21"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="14">
         <v>3</v>
       </c>
@@ -20064,7 +20538,7 @@
       <c r="I234" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K234" s="21"/>
+      <c r="K234" s="29"/>
       <c r="L234" s="14">
         <v>3</v>
       </c>
@@ -20086,7 +20560,7 @@
       <c r="R234" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T234" s="21"/>
+      <c r="T234" s="29"/>
       <c r="U234" s="17">
         <v>2</v>
       </c>
@@ -20108,7 +20582,7 @@
       <c r="AA234" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC234" s="21"/>
+      <c r="AC234" s="29"/>
       <c r="AD234" s="19">
         <v>2</v>
       </c>
@@ -20125,7 +20599,7 @@
         <v>2</v>
       </c>
       <c r="AI234" s="20"/>
-      <c r="AJ234" s="27"/>
+      <c r="AJ234" s="26"/>
     </row>
     <row r="235" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B235" s="8"/>
@@ -20168,7 +20642,7 @@
       </c>
       <c r="Q235" s="9"/>
       <c r="R235" s="8"/>
-      <c r="T235" s="21"/>
+      <c r="T235" s="29"/>
       <c r="U235" s="17">
         <v>3</v>
       </c>
@@ -20188,7 +20662,7 @@
         <v>108</v>
       </c>
       <c r="AA235" s="17"/>
-      <c r="AC235" s="21"/>
+      <c r="AC235" s="29"/>
       <c r="AD235" s="19">
         <v>3</v>
       </c>
@@ -20207,10 +20681,10 @@
       <c r="AI235" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AJ235" s="27"/>
+      <c r="AJ235" s="26"/>
     </row>
     <row r="236" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B236" s="21" t="s">
+      <c r="B236" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C236" s="14">
@@ -20234,7 +20708,7 @@
       <c r="I236" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K236" s="21" t="s">
+      <c r="K236" s="29" t="s">
         <v>57</v>
       </c>
       <c r="L236" s="14">
@@ -20300,7 +20774,7 @@
       <c r="AJ236" s="8"/>
     </row>
     <row r="237" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B237" s="21"/>
+      <c r="B237" s="29"/>
       <c r="C237" s="14">
         <v>2</v>
       </c>
@@ -20322,7 +20796,7 @@
       <c r="I237" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K237" s="21"/>
+      <c r="K237" s="29"/>
       <c r="L237" s="14">
         <v>2</v>
       </c>
@@ -20342,7 +20816,7 @@
         <v>107</v>
       </c>
       <c r="R237" s="14"/>
-      <c r="T237" s="21" t="s">
+      <c r="T237" s="29" t="s">
         <v>57</v>
       </c>
       <c r="U237" s="17">
@@ -20366,7 +20840,7 @@
       <c r="AA237" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC237" s="21" t="s">
+      <c r="AC237" s="29" t="s">
         <v>57</v>
       </c>
       <c r="AD237" s="19">
@@ -20390,7 +20864,7 @@
       <c r="AJ237" s="19"/>
     </row>
     <row r="238" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B238" s="21"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="14">
         <v>3</v>
       </c>
@@ -20412,7 +20886,7 @@
       <c r="I238" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K238" s="21"/>
+      <c r="K238" s="29"/>
       <c r="L238" s="14">
         <v>3</v>
       </c>
@@ -20434,7 +20908,7 @@
       <c r="R238" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T238" s="21"/>
+      <c r="T238" s="29"/>
       <c r="U238" s="17">
         <v>2</v>
       </c>
@@ -20456,7 +20930,7 @@
       <c r="AA238" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC238" s="21"/>
+      <c r="AC238" s="29"/>
       <c r="AD238" s="19">
         <v>2</v>
       </c>
@@ -20518,7 +20992,7 @@
       </c>
       <c r="Q239" s="9"/>
       <c r="R239" s="8"/>
-      <c r="T239" s="21"/>
+      <c r="T239" s="29"/>
       <c r="U239" s="17">
         <v>3</v>
       </c>
@@ -20540,7 +21014,7 @@
       <c r="AA239" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC239" s="21"/>
+      <c r="AC239" s="29"/>
       <c r="AD239" s="19">
         <v>3</v>
       </c>
@@ -20560,7 +21034,7 @@
       <c r="AJ239" s="19"/>
     </row>
     <row r="240" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B240" s="21" t="s">
+      <c r="B240" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C240" s="14">
@@ -20584,7 +21058,7 @@
       <c r="I240" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K240" s="21" t="s">
+      <c r="K240" s="29" t="s">
         <v>58</v>
       </c>
       <c r="L240" s="14">
@@ -20650,7 +21124,7 @@
       <c r="AJ240" s="8"/>
     </row>
     <row r="241" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B241" s="21"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="14">
         <v>2</v>
       </c>
@@ -20672,7 +21146,7 @@
       <c r="I241" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K241" s="21"/>
+      <c r="K241" s="29"/>
       <c r="L241" s="14">
         <v>2</v>
       </c>
@@ -20692,7 +21166,7 @@
         <v>107</v>
       </c>
       <c r="R241" s="14"/>
-      <c r="T241" s="21" t="s">
+      <c r="T241" s="29" t="s">
         <v>58</v>
       </c>
       <c r="U241" s="17">
@@ -20714,7 +21188,7 @@
       <c r="AA241" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC241" s="21" t="s">
+      <c r="AC241" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AD241" s="19">
@@ -20738,7 +21212,7 @@
       <c r="AJ241" s="19"/>
     </row>
     <row r="242" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B242" s="21"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="14">
         <v>3</v>
       </c>
@@ -20760,7 +21234,7 @@
       <c r="I242" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K242" s="21"/>
+      <c r="K242" s="29"/>
       <c r="L242" s="14">
         <v>3</v>
       </c>
@@ -20782,7 +21256,7 @@
       <c r="R242" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T242" s="21"/>
+      <c r="T242" s="29"/>
       <c r="U242" s="17">
         <v>2</v>
       </c>
@@ -20804,7 +21278,7 @@
       <c r="AA242" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC242" s="21"/>
+      <c r="AC242" s="29"/>
       <c r="AD242" s="19">
         <v>2</v>
       </c>
@@ -20866,7 +21340,7 @@
       </c>
       <c r="Q243" s="9"/>
       <c r="R243" s="8"/>
-      <c r="T243" s="21"/>
+      <c r="T243" s="29"/>
       <c r="U243" s="17">
         <v>3</v>
       </c>
@@ -20884,7 +21358,7 @@
       </c>
       <c r="Z243" s="18"/>
       <c r="AA243" s="17"/>
-      <c r="AC243" s="21"/>
+      <c r="AC243" s="29"/>
       <c r="AD243" s="19">
         <v>3</v>
       </c>
@@ -20906,7 +21380,7 @@
       <c r="AJ243" s="19"/>
     </row>
     <row r="244" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B244" s="21" t="s">
+      <c r="B244" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C244" s="14">
@@ -20930,7 +21404,7 @@
       <c r="I244" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K244" s="21" t="s">
+      <c r="K244" s="29" t="s">
         <v>62</v>
       </c>
       <c r="L244" s="14">
@@ -20996,7 +21470,7 @@
       <c r="AJ244" s="8"/>
     </row>
     <row r="245" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B245" s="21"/>
+      <c r="B245" s="29"/>
       <c r="C245" s="14">
         <v>2</v>
       </c>
@@ -21018,7 +21492,7 @@
       <c r="I245" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K245" s="21"/>
+      <c r="K245" s="29"/>
       <c r="L245" s="14">
         <v>2</v>
       </c>
@@ -21038,7 +21512,7 @@
         <v>114</v>
       </c>
       <c r="R245" s="14"/>
-      <c r="T245" s="21" t="s">
+      <c r="T245" s="29" t="s">
         <v>62</v>
       </c>
       <c r="U245" s="17">
@@ -21062,7 +21536,7 @@
       <c r="AA245" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC245" s="21" t="s">
+      <c r="AC245" s="29" t="s">
         <v>62</v>
       </c>
       <c r="AD245" s="19">
@@ -21088,7 +21562,7 @@
       </c>
     </row>
     <row r="246" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B246" s="21"/>
+      <c r="B246" s="29"/>
       <c r="C246" s="14">
         <v>3</v>
       </c>
@@ -21110,7 +21584,7 @@
       <c r="I246" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K246" s="21"/>
+      <c r="K246" s="29"/>
       <c r="L246" s="14">
         <v>3</v>
       </c>
@@ -21132,7 +21606,7 @@
       <c r="R246" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T246" s="21"/>
+      <c r="T246" s="29"/>
       <c r="U246" s="17">
         <v>2</v>
       </c>
@@ -21152,7 +21626,7 @@
         <v>125</v>
       </c>
       <c r="AA246" s="17"/>
-      <c r="AC246" s="21"/>
+      <c r="AC246" s="29"/>
       <c r="AD246" s="19">
         <v>2</v>
       </c>
@@ -21214,7 +21688,7 @@
       </c>
       <c r="Q247" s="9"/>
       <c r="R247" s="8"/>
-      <c r="T247" s="21"/>
+      <c r="T247" s="29"/>
       <c r="U247" s="17">
         <v>3</v>
       </c>
@@ -21234,7 +21708,7 @@
         <v>25</v>
       </c>
       <c r="AA247" s="17"/>
-      <c r="AC247" s="21"/>
+      <c r="AC247" s="29"/>
       <c r="AD247" s="19">
         <v>3</v>
       </c>
@@ -21254,7 +21728,7 @@
       <c r="AJ247" s="19"/>
     </row>
     <row r="248" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B248" s="21" t="s">
+      <c r="B248" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C248" s="14">
@@ -21278,7 +21752,7 @@
       <c r="I248" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K248" s="21" t="s">
+      <c r="K248" s="29" t="s">
         <v>65</v>
       </c>
       <c r="L248" s="14">
@@ -21344,7 +21818,7 @@
       <c r="AJ248" s="8"/>
     </row>
     <row r="249" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B249" s="21"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="14">
         <v>2</v>
       </c>
@@ -21366,7 +21840,7 @@
       <c r="I249" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K249" s="21"/>
+      <c r="K249" s="29"/>
       <c r="L249" s="14">
         <v>2</v>
       </c>
@@ -21386,7 +21860,7 @@
         <v>107</v>
       </c>
       <c r="R249" s="14"/>
-      <c r="T249" s="21" t="s">
+      <c r="T249" s="29" t="s">
         <v>65</v>
       </c>
       <c r="U249" s="17">
@@ -21410,7 +21884,7 @@
       <c r="AA249" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC249" s="21" t="s">
+      <c r="AC249" s="29" t="s">
         <v>65</v>
       </c>
       <c r="AD249" s="19">
@@ -21434,7 +21908,7 @@
       <c r="AJ249" s="19"/>
     </row>
     <row r="250" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B250" s="21"/>
+      <c r="B250" s="29"/>
       <c r="C250" s="14">
         <v>3</v>
       </c>
@@ -21456,7 +21930,7 @@
       <c r="I250" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K250" s="21"/>
+      <c r="K250" s="29"/>
       <c r="L250" s="14">
         <v>3</v>
       </c>
@@ -21476,7 +21950,7 @@
         <v>106</v>
       </c>
       <c r="R250" s="14"/>
-      <c r="T250" s="21"/>
+      <c r="T250" s="29"/>
       <c r="U250" s="17">
         <v>2</v>
       </c>
@@ -21498,7 +21972,7 @@
       <c r="AA250" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC250" s="21"/>
+      <c r="AC250" s="29"/>
       <c r="AD250" s="19">
         <v>2</v>
       </c>
@@ -21560,7 +22034,7 @@
       </c>
       <c r="Q251" s="9"/>
       <c r="R251" s="8"/>
-      <c r="T251" s="21"/>
+      <c r="T251" s="29"/>
       <c r="U251" s="17">
         <v>3</v>
       </c>
@@ -21580,7 +22054,7 @@
         <v>126</v>
       </c>
       <c r="AA251" s="17"/>
-      <c r="AC251" s="21"/>
+      <c r="AC251" s="29"/>
       <c r="AD251" s="19">
         <v>3</v>
       </c>
@@ -21602,7 +22076,7 @@
       <c r="AJ251" s="19"/>
     </row>
     <row r="252" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C252" s="14">
@@ -21626,7 +22100,7 @@
       <c r="I252" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K252" s="21" t="s">
+      <c r="K252" s="29" t="s">
         <v>67</v>
       </c>
       <c r="L252" s="14">
@@ -21692,7 +22166,7 @@
       <c r="AJ252" s="8"/>
     </row>
     <row r="253" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B253" s="21"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="14">
         <v>2</v>
       </c>
@@ -21714,7 +22188,7 @@
       <c r="I253" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K253" s="21"/>
+      <c r="K253" s="29"/>
       <c r="L253" s="14">
         <v>2</v>
       </c>
@@ -21732,7 +22206,7 @@
       </c>
       <c r="Q253" s="15"/>
       <c r="R253" s="14"/>
-      <c r="T253" s="21" t="s">
+      <c r="T253" s="29" t="s">
         <v>67</v>
       </c>
       <c r="U253" s="17">
@@ -21756,7 +22230,7 @@
       <c r="AA253" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC253" s="21" t="s">
+      <c r="AC253" s="29" t="s">
         <v>67</v>
       </c>
       <c r="AD253" s="19">
@@ -21777,10 +22251,10 @@
       <c r="AI253" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AJ253" s="27"/>
+      <c r="AJ253" s="26"/>
     </row>
     <row r="254" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B254" s="21"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="14">
         <v>3</v>
       </c>
@@ -21802,7 +22276,7 @@
       <c r="I254" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K254" s="21"/>
+      <c r="K254" s="29"/>
       <c r="L254" s="14">
         <v>3</v>
       </c>
@@ -21824,7 +22298,7 @@
       <c r="R254" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T254" s="21"/>
+      <c r="T254" s="29"/>
       <c r="U254" s="17">
         <v>2</v>
       </c>
@@ -21846,7 +22320,7 @@
       <c r="AA254" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC254" s="21"/>
+      <c r="AC254" s="29"/>
       <c r="AD254" s="19">
         <v>2</v>
       </c>
@@ -21910,7 +22384,7 @@
       </c>
       <c r="Q255" s="9"/>
       <c r="R255" s="8"/>
-      <c r="T255" s="21"/>
+      <c r="T255" s="29"/>
       <c r="U255" s="17">
         <v>3</v>
       </c>
@@ -21932,7 +22406,7 @@
       <c r="AA255" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC255" s="21"/>
+      <c r="AC255" s="29"/>
       <c r="AD255" s="19">
         <v>3</v>
       </c>
@@ -21952,7 +22426,7 @@
       <c r="AJ255" s="19"/>
     </row>
     <row r="256" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C256" s="14">
@@ -21976,7 +22450,7 @@
       <c r="I256" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K256" s="21" t="s">
+      <c r="K256" s="29" t="s">
         <v>71</v>
       </c>
       <c r="L256" s="14">
@@ -22042,7 +22516,7 @@
       <c r="AJ256" s="8"/>
     </row>
     <row r="257" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B257" s="21"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="14">
         <v>2</v>
       </c>
@@ -22064,7 +22538,7 @@
       <c r="I257" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K257" s="21"/>
+      <c r="K257" s="29"/>
       <c r="L257" s="14">
         <v>2</v>
       </c>
@@ -22084,7 +22558,7 @@
         <v>104</v>
       </c>
       <c r="R257" s="14"/>
-      <c r="T257" s="21" t="s">
+      <c r="T257" s="29" t="s">
         <v>71</v>
       </c>
       <c r="U257" s="17">
@@ -22108,7 +22582,7 @@
       <c r="AA257" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC257" s="21" t="s">
+      <c r="AC257" s="29" t="s">
         <v>71</v>
       </c>
       <c r="AD257" s="19">
@@ -22132,7 +22606,7 @@
       <c r="AJ257" s="19"/>
     </row>
     <row r="258" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B258" s="21"/>
+      <c r="B258" s="29"/>
       <c r="C258" s="14">
         <v>3</v>
       </c>
@@ -22154,7 +22628,7 @@
       <c r="I258" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K258" s="21"/>
+      <c r="K258" s="29"/>
       <c r="L258" s="14">
         <v>3</v>
       </c>
@@ -22176,7 +22650,7 @@
       <c r="R258" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T258" s="21"/>
+      <c r="T258" s="29"/>
       <c r="U258" s="17">
         <v>2</v>
       </c>
@@ -22196,7 +22670,7 @@
         <v>108</v>
       </c>
       <c r="AA258" s="17"/>
-      <c r="AC258" s="21"/>
+      <c r="AC258" s="29"/>
       <c r="AD258" s="19">
         <v>2</v>
       </c>
@@ -22258,7 +22732,7 @@
       </c>
       <c r="Q259" s="9"/>
       <c r="R259" s="8"/>
-      <c r="T259" s="21"/>
+      <c r="T259" s="29"/>
       <c r="U259" s="17">
         <v>3</v>
       </c>
@@ -22278,7 +22752,7 @@
         <v>119</v>
       </c>
       <c r="AA259" s="17"/>
-      <c r="AC259" s="21"/>
+      <c r="AC259" s="29"/>
       <c r="AD259" s="19">
         <v>3</v>
       </c>
@@ -22298,7 +22772,7 @@
       <c r="AJ259" s="19"/>
     </row>
     <row r="260" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B260" s="21" t="s">
+      <c r="B260" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C260" s="14">
@@ -22322,7 +22796,7 @@
       <c r="I260" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K260" s="21" t="s">
+      <c r="K260" s="29" t="s">
         <v>73</v>
       </c>
       <c r="L260" s="14">
@@ -22388,7 +22862,7 @@
       <c r="AJ260" s="8"/>
     </row>
     <row r="261" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B261" s="21"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="14">
         <v>2</v>
       </c>
@@ -22410,7 +22884,7 @@
       <c r="I261" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K261" s="21"/>
+      <c r="K261" s="29"/>
       <c r="L261" s="14">
         <v>2</v>
       </c>
@@ -22428,7 +22902,7 @@
       </c>
       <c r="Q261" s="15"/>
       <c r="R261" s="14"/>
-      <c r="T261" s="21" t="s">
+      <c r="T261" s="29" t="s">
         <v>73</v>
       </c>
       <c r="U261" s="17">
@@ -22452,7 +22926,7 @@
       <c r="AA261" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC261" s="21" t="s">
+      <c r="AC261" s="29" t="s">
         <v>73</v>
       </c>
       <c r="AD261" s="19">
@@ -22478,7 +22952,7 @@
       </c>
     </row>
     <row r="262" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B262" s="21"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="14">
         <v>3</v>
       </c>
@@ -22500,7 +22974,7 @@
       <c r="I262" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K262" s="21"/>
+      <c r="K262" s="29"/>
       <c r="L262" s="14">
         <v>3</v>
       </c>
@@ -22522,7 +22996,7 @@
       <c r="R262" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T262" s="21"/>
+      <c r="T262" s="29"/>
       <c r="U262" s="17">
         <v>2</v>
       </c>
@@ -22542,7 +23016,7 @@
         <v>25</v>
       </c>
       <c r="AA262" s="17"/>
-      <c r="AC262" s="21"/>
+      <c r="AC262" s="29"/>
       <c r="AD262" s="19">
         <v>2</v>
       </c>
@@ -22604,7 +23078,7 @@
       </c>
       <c r="Q263" s="9"/>
       <c r="R263" s="8"/>
-      <c r="T263" s="21"/>
+      <c r="T263" s="29"/>
       <c r="U263" s="17">
         <v>3</v>
       </c>
@@ -22624,7 +23098,7 @@
         <v>128</v>
       </c>
       <c r="AA263" s="17"/>
-      <c r="AC263" s="21"/>
+      <c r="AC263" s="29"/>
       <c r="AD263" s="19">
         <v>3</v>
       </c>
@@ -22644,7 +23118,7 @@
       <c r="AJ263" s="19"/>
     </row>
     <row r="264" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B264" s="21" t="s">
+      <c r="B264" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C264" s="14">
@@ -22668,7 +23142,7 @@
       <c r="I264" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K264" s="21" t="s">
+      <c r="K264" s="29" t="s">
         <v>76</v>
       </c>
       <c r="L264" s="14">
@@ -22734,7 +23208,7 @@
       <c r="AJ264" s="8"/>
     </row>
     <row r="265" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B265" s="21"/>
+      <c r="B265" s="29"/>
       <c r="C265" s="14">
         <v>2</v>
       </c>
@@ -22756,7 +23230,7 @@
       <c r="I265" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K265" s="21"/>
+      <c r="K265" s="29"/>
       <c r="L265" s="14">
         <v>2</v>
       </c>
@@ -22776,7 +23250,7 @@
         <v>107</v>
       </c>
       <c r="R265" s="14"/>
-      <c r="T265" s="21" t="s">
+      <c r="T265" s="29" t="s">
         <v>76</v>
       </c>
       <c r="U265" s="17">
@@ -22798,7 +23272,7 @@
         <v>108</v>
       </c>
       <c r="AA265" s="17"/>
-      <c r="AC265" s="21" t="s">
+      <c r="AC265" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD265" s="19">
@@ -22824,7 +23298,7 @@
       </c>
     </row>
     <row r="266" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B266" s="21"/>
+      <c r="B266" s="29"/>
       <c r="C266" s="14">
         <v>3</v>
       </c>
@@ -22846,7 +23320,7 @@
       <c r="I266" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K266" s="21"/>
+      <c r="K266" s="29"/>
       <c r="L266" s="14">
         <v>3</v>
       </c>
@@ -22868,7 +23342,7 @@
       <c r="R266" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T266" s="21"/>
+      <c r="T266" s="29"/>
       <c r="U266" s="17">
         <v>2</v>
       </c>
@@ -22888,7 +23362,7 @@
         <v>129</v>
       </c>
       <c r="AA266" s="17"/>
-      <c r="AC266" s="21"/>
+      <c r="AC266" s="29"/>
       <c r="AD266" s="19">
         <v>2</v>
       </c>
@@ -22948,7 +23422,7 @@
       </c>
       <c r="Q267" s="9"/>
       <c r="R267" s="8"/>
-      <c r="T267" s="21"/>
+      <c r="T267" s="29"/>
       <c r="U267" s="17">
         <v>3</v>
       </c>
@@ -22968,7 +23442,7 @@
         <v>130</v>
       </c>
       <c r="AA267" s="17"/>
-      <c r="AC267" s="21"/>
+      <c r="AC267" s="29"/>
       <c r="AD267" s="19">
         <v>3</v>
       </c>
@@ -22988,7 +23462,7 @@
       <c r="AJ267" s="19"/>
     </row>
     <row r="268" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B268" s="21" t="s">
+      <c r="B268" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C268" s="14">
@@ -23012,7 +23486,7 @@
       <c r="I268" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K268" s="21" t="s">
+      <c r="K268" s="29" t="s">
         <v>77</v>
       </c>
       <c r="L268" s="14">
@@ -23078,7 +23552,7 @@
       <c r="AJ268" s="8"/>
     </row>
     <row r="269" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B269" s="21"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="14">
         <v>2</v>
       </c>
@@ -23100,7 +23574,7 @@
       <c r="I269" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K269" s="21"/>
+      <c r="K269" s="29"/>
       <c r="L269" s="14">
         <v>2</v>
       </c>
@@ -23120,7 +23594,7 @@
         <v>107</v>
       </c>
       <c r="R269" s="14"/>
-      <c r="T269" s="21" t="s">
+      <c r="T269" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U269" s="17">
@@ -23142,7 +23616,7 @@
         <v>25</v>
       </c>
       <c r="AA269" s="17"/>
-      <c r="AC269" s="21" t="s">
+      <c r="AC269" s="29" t="s">
         <v>77</v>
       </c>
       <c r="AD269" s="19">
@@ -23168,7 +23642,7 @@
       </c>
     </row>
     <row r="270" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B270" s="21"/>
+      <c r="B270" s="29"/>
       <c r="C270" s="14">
         <v>3</v>
       </c>
@@ -23190,7 +23664,7 @@
       <c r="I270" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K270" s="21"/>
+      <c r="K270" s="29"/>
       <c r="L270" s="14">
         <v>3</v>
       </c>
@@ -23212,7 +23686,7 @@
       <c r="R270" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T270" s="21"/>
+      <c r="T270" s="29"/>
       <c r="U270" s="17">
         <v>2</v>
       </c>
@@ -23232,7 +23706,7 @@
         <v>124</v>
       </c>
       <c r="AA270" s="17"/>
-      <c r="AC270" s="21"/>
+      <c r="AC270" s="29"/>
       <c r="AD270" s="19">
         <v>2</v>
       </c>
@@ -23296,7 +23770,7 @@
       </c>
       <c r="Q271" s="9"/>
       <c r="R271" s="8"/>
-      <c r="T271" s="21"/>
+      <c r="T271" s="29"/>
       <c r="U271" s="17">
         <v>3</v>
       </c>
@@ -23316,7 +23790,7 @@
         <v>25</v>
       </c>
       <c r="AA271" s="17"/>
-      <c r="AC271" s="21"/>
+      <c r="AC271" s="29"/>
       <c r="AD271" s="19">
         <v>3</v>
       </c>
@@ -23340,7 +23814,7 @@
       </c>
     </row>
     <row r="272" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B272" s="21" t="s">
+      <c r="B272" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C272" s="14">
@@ -23364,7 +23838,7 @@
       <c r="I272" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K272" s="21" t="s">
+      <c r="K272" s="29" t="s">
         <v>78</v>
       </c>
       <c r="L272" s="14">
@@ -23428,7 +23902,7 @@
       <c r="AJ272" s="8"/>
     </row>
     <row r="273" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B273" s="21"/>
+      <c r="B273" s="29"/>
       <c r="C273" s="14">
         <v>2</v>
       </c>
@@ -23450,7 +23924,7 @@
       <c r="I273" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K273" s="21"/>
+      <c r="K273" s="29"/>
       <c r="L273" s="14">
         <v>2</v>
       </c>
@@ -23470,7 +23944,7 @@
         <v>116</v>
       </c>
       <c r="R273" s="14"/>
-      <c r="T273" s="21" t="s">
+      <c r="T273" s="29" t="s">
         <v>78</v>
       </c>
       <c r="U273" s="17">
@@ -23492,7 +23966,7 @@
         <v>108</v>
       </c>
       <c r="AA273" s="17"/>
-      <c r="AC273" s="21" t="s">
+      <c r="AC273" s="29" t="s">
         <v>78</v>
       </c>
       <c r="AD273" s="19">
@@ -23518,7 +23992,7 @@
       </c>
     </row>
     <row r="274" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B274" s="21"/>
+      <c r="B274" s="29"/>
       <c r="C274" s="14">
         <v>3</v>
       </c>
@@ -23540,7 +24014,7 @@
       <c r="I274" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K274" s="21"/>
+      <c r="K274" s="29"/>
       <c r="L274" s="14">
         <v>3</v>
       </c>
@@ -23562,7 +24036,7 @@
       <c r="R274" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T274" s="21"/>
+      <c r="T274" s="29"/>
       <c r="U274" s="17">
         <v>2</v>
       </c>
@@ -23582,7 +24056,7 @@
         <v>122</v>
       </c>
       <c r="AA274" s="17"/>
-      <c r="AC274" s="21"/>
+      <c r="AC274" s="29"/>
       <c r="AD274" s="19">
         <v>2</v>
       </c>
@@ -23644,7 +24118,7 @@
       </c>
       <c r="Q275" s="9"/>
       <c r="R275" s="8"/>
-      <c r="T275" s="21"/>
+      <c r="T275" s="29"/>
       <c r="U275" s="17">
         <v>3</v>
       </c>
@@ -23664,7 +24138,7 @@
         <v>131</v>
       </c>
       <c r="AA275" s="17"/>
-      <c r="AC275" s="21"/>
+      <c r="AC275" s="29"/>
       <c r="AD275" s="19">
         <v>3</v>
       </c>
@@ -23686,7 +24160,7 @@
       <c r="AJ275" s="19"/>
     </row>
     <row r="276" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C276" s="14">
@@ -23710,7 +24184,7 @@
       <c r="I276" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K276" s="21" t="s">
+      <c r="K276" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L276" s="14">
@@ -23776,7 +24250,7 @@
       <c r="AJ276" s="8"/>
     </row>
     <row r="277" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B277" s="21"/>
+      <c r="B277" s="29"/>
       <c r="C277" s="14">
         <v>2</v>
       </c>
@@ -23798,7 +24272,7 @@
       <c r="I277" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K277" s="21"/>
+      <c r="K277" s="29"/>
       <c r="L277" s="14">
         <v>2</v>
       </c>
@@ -23818,7 +24292,7 @@
         <v>117</v>
       </c>
       <c r="R277" s="14"/>
-      <c r="T277" s="21" t="s">
+      <c r="T277" s="29" t="s">
         <v>79</v>
       </c>
       <c r="U277" s="17">
@@ -23840,7 +24314,7 @@
         <v>121</v>
       </c>
       <c r="AA277" s="17"/>
-      <c r="AC277" s="21" t="s">
+      <c r="AC277" s="29" t="s">
         <v>79</v>
       </c>
       <c r="AD277" s="19">
@@ -23866,7 +24340,7 @@
       </c>
     </row>
     <row r="278" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B278" s="21"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="14">
         <v>3</v>
       </c>
@@ -23888,7 +24362,7 @@
       <c r="I278" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K278" s="21"/>
+      <c r="K278" s="29"/>
       <c r="L278" s="14">
         <v>3</v>
       </c>
@@ -23910,7 +24384,7 @@
       <c r="R278" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T278" s="21"/>
+      <c r="T278" s="29"/>
       <c r="U278" s="17">
         <v>2</v>
       </c>
@@ -23930,7 +24404,7 @@
         <v>121</v>
       </c>
       <c r="AA278" s="17"/>
-      <c r="AC278" s="21"/>
+      <c r="AC278" s="29"/>
       <c r="AD278" s="19">
         <v>2</v>
       </c>
@@ -23994,7 +24468,7 @@
       </c>
       <c r="Q279" s="9"/>
       <c r="R279" s="8"/>
-      <c r="T279" s="21"/>
+      <c r="T279" s="29"/>
       <c r="U279" s="17">
         <v>3</v>
       </c>
@@ -24012,7 +24486,7 @@
       </c>
       <c r="Z279" s="18"/>
       <c r="AA279" s="17"/>
-      <c r="AC279" s="21"/>
+      <c r="AC279" s="29"/>
       <c r="AD279" s="19">
         <v>3</v>
       </c>
@@ -24036,7 +24510,7 @@
       </c>
     </row>
     <row r="280" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B280" s="21" t="s">
+      <c r="B280" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C280" s="14">
@@ -24060,7 +24534,7 @@
       <c r="I280" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K280" s="21" t="s">
+      <c r="K280" s="29" t="s">
         <v>81</v>
       </c>
       <c r="L280" s="14">
@@ -24126,7 +24600,7 @@
       <c r="AJ280" s="8"/>
     </row>
     <row r="281" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B281" s="21"/>
+      <c r="B281" s="29"/>
       <c r="C281" s="14">
         <v>2</v>
       </c>
@@ -24148,7 +24622,7 @@
       <c r="I281" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K281" s="21"/>
+      <c r="K281" s="29"/>
       <c r="L281" s="14">
         <v>2</v>
       </c>
@@ -24168,7 +24642,7 @@
         <v>118</v>
       </c>
       <c r="R281" s="14"/>
-      <c r="T281" s="21" t="s">
+      <c r="T281" s="29" t="s">
         <v>81</v>
       </c>
       <c r="U281" s="17">
@@ -24190,7 +24664,7 @@
         <v>108</v>
       </c>
       <c r="AA281" s="17"/>
-      <c r="AC281" s="21" t="s">
+      <c r="AC281" s="29" t="s">
         <v>81</v>
       </c>
       <c r="AD281" s="19">
@@ -24211,10 +24685,10 @@
       <c r="AI281" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AJ281" s="27"/>
+      <c r="AJ281" s="26"/>
     </row>
     <row r="282" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B282" s="21"/>
+      <c r="B282" s="29"/>
       <c r="C282" s="14">
         <v>3</v>
       </c>
@@ -24236,7 +24710,7 @@
       <c r="I282" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K282" s="21"/>
+      <c r="K282" s="29"/>
       <c r="L282" s="14">
         <v>3</v>
       </c>
@@ -24258,7 +24732,7 @@
       <c r="R282" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T282" s="21"/>
+      <c r="T282" s="29"/>
       <c r="U282" s="17">
         <v>2</v>
       </c>
@@ -24278,7 +24752,7 @@
         <v>132</v>
       </c>
       <c r="AA282" s="17"/>
-      <c r="AC282" s="21"/>
+      <c r="AC282" s="29"/>
       <c r="AD282" s="19">
         <v>2</v>
       </c>
@@ -24342,7 +24816,7 @@
       </c>
       <c r="Q283" s="9"/>
       <c r="R283" s="8"/>
-      <c r="T283" s="21"/>
+      <c r="T283" s="29"/>
       <c r="U283" s="17">
         <v>3</v>
       </c>
@@ -24362,7 +24836,7 @@
         <v>108</v>
       </c>
       <c r="AA283" s="17"/>
-      <c r="AC283" s="21"/>
+      <c r="AC283" s="29"/>
       <c r="AD283" s="19">
         <v>3</v>
       </c>
@@ -24552,206 +25026,29 @@
       <c r="AJ286" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="243">
-    <mergeCell ref="AC277:AC279"/>
-    <mergeCell ref="AC281:AC283"/>
-    <mergeCell ref="AC241:AC243"/>
-    <mergeCell ref="AC245:AC247"/>
-    <mergeCell ref="AC249:AC251"/>
-    <mergeCell ref="AC253:AC255"/>
-    <mergeCell ref="AC257:AC259"/>
-    <mergeCell ref="AC261:AC263"/>
-    <mergeCell ref="AC265:AC267"/>
-    <mergeCell ref="AC269:AC271"/>
-    <mergeCell ref="AC273:AC275"/>
-    <mergeCell ref="AC205:AC207"/>
-    <mergeCell ref="AC209:AC211"/>
-    <mergeCell ref="AC213:AC215"/>
-    <mergeCell ref="AC217:AC219"/>
-    <mergeCell ref="AC221:AC223"/>
-    <mergeCell ref="AC225:AC227"/>
-    <mergeCell ref="AC229:AC231"/>
-    <mergeCell ref="AC233:AC235"/>
-    <mergeCell ref="AC237:AC239"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="T89:T91"/>
-    <mergeCell ref="AC89:AC91"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="T93:T95"/>
-    <mergeCell ref="AC93:AC95"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="T105:T107"/>
-    <mergeCell ref="AC105:AC107"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="T97:T99"/>
-    <mergeCell ref="AC97:AC99"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="T101:T103"/>
-    <mergeCell ref="AC101:AC103"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="T77:T79"/>
-    <mergeCell ref="AC77:AC79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="AC81:AC83"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="AC65:AC67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="T69:T71"/>
-    <mergeCell ref="AC69:AC71"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="T73:T75"/>
-    <mergeCell ref="AC73:AC75"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="AC53:AC55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="T57:T59"/>
-    <mergeCell ref="AC57:AC59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="AC61:AC63"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="AC45:AC47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="AC29:AC31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="AC33:AC35"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="K140:K142"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="K148:K150"/>
-    <mergeCell ref="K152:K154"/>
-    <mergeCell ref="K116:K118"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K124:K126"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K132:K134"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K180:K182"/>
-    <mergeCell ref="K184:K186"/>
-    <mergeCell ref="K188:K190"/>
-    <mergeCell ref="K192:K194"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="K160:K162"/>
-    <mergeCell ref="K164:K166"/>
-    <mergeCell ref="K168:K170"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="T136:T138"/>
-    <mergeCell ref="T140:T142"/>
-    <mergeCell ref="T144:T146"/>
-    <mergeCell ref="T148:T150"/>
-    <mergeCell ref="T152:T154"/>
-    <mergeCell ref="T116:T118"/>
-    <mergeCell ref="T120:T122"/>
-    <mergeCell ref="T124:T126"/>
-    <mergeCell ref="T128:T130"/>
-    <mergeCell ref="T132:T134"/>
-    <mergeCell ref="T176:T178"/>
-    <mergeCell ref="T180:T182"/>
-    <mergeCell ref="T184:T186"/>
-    <mergeCell ref="T188:T190"/>
-    <mergeCell ref="T192:T194"/>
-    <mergeCell ref="T156:T158"/>
-    <mergeCell ref="T160:T162"/>
-    <mergeCell ref="T164:T166"/>
-    <mergeCell ref="T168:T170"/>
-    <mergeCell ref="T172:T174"/>
-    <mergeCell ref="AC136:AC138"/>
-    <mergeCell ref="AC140:AC142"/>
-    <mergeCell ref="AC144:AC146"/>
-    <mergeCell ref="AC148:AC150"/>
-    <mergeCell ref="AC152:AC154"/>
-    <mergeCell ref="AC116:AC118"/>
-    <mergeCell ref="AC120:AC122"/>
-    <mergeCell ref="AC124:AC126"/>
-    <mergeCell ref="AC128:AC130"/>
-    <mergeCell ref="AC132:AC134"/>
-    <mergeCell ref="AC176:AC178"/>
-    <mergeCell ref="AC180:AC182"/>
-    <mergeCell ref="AC184:AC186"/>
-    <mergeCell ref="AC188:AC190"/>
-    <mergeCell ref="AC192:AC194"/>
-    <mergeCell ref="AC156:AC158"/>
-    <mergeCell ref="AC160:AC162"/>
-    <mergeCell ref="AC164:AC166"/>
-    <mergeCell ref="AC168:AC170"/>
-    <mergeCell ref="AC172:AC174"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B236:B238"/>
+  <mergeCells count="248">
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="T277:T279"/>
+    <mergeCell ref="T281:T283"/>
+    <mergeCell ref="T241:T243"/>
+    <mergeCell ref="T245:T247"/>
+    <mergeCell ref="T249:T251"/>
+    <mergeCell ref="T253:T255"/>
+    <mergeCell ref="T257:T259"/>
+    <mergeCell ref="T261:T263"/>
+    <mergeCell ref="T265:T267"/>
+    <mergeCell ref="T269:T271"/>
+    <mergeCell ref="T273:T275"/>
+    <mergeCell ref="T205:T207"/>
+    <mergeCell ref="T209:T211"/>
+    <mergeCell ref="T213:T215"/>
+    <mergeCell ref="T217:T219"/>
+    <mergeCell ref="T221:T223"/>
+    <mergeCell ref="T225:T227"/>
+    <mergeCell ref="T229:T231"/>
+    <mergeCell ref="T233:T235"/>
+    <mergeCell ref="T237:T239"/>
     <mergeCell ref="B276:B278"/>
     <mergeCell ref="B280:B282"/>
     <mergeCell ref="K204:K206"/>
@@ -24776,31 +25073,213 @@
     <mergeCell ref="K280:K282"/>
     <mergeCell ref="B240:B242"/>
     <mergeCell ref="B244:B246"/>
-    <mergeCell ref="T205:T207"/>
-    <mergeCell ref="T209:T211"/>
-    <mergeCell ref="T213:T215"/>
-    <mergeCell ref="T217:T219"/>
-    <mergeCell ref="T221:T223"/>
-    <mergeCell ref="T225:T227"/>
-    <mergeCell ref="T229:T231"/>
-    <mergeCell ref="T233:T235"/>
-    <mergeCell ref="T237:T239"/>
-    <mergeCell ref="T277:T279"/>
-    <mergeCell ref="T281:T283"/>
-    <mergeCell ref="T241:T243"/>
-    <mergeCell ref="T245:T247"/>
-    <mergeCell ref="T249:T251"/>
-    <mergeCell ref="T253:T255"/>
-    <mergeCell ref="T257:T259"/>
-    <mergeCell ref="T261:T263"/>
-    <mergeCell ref="T265:T267"/>
-    <mergeCell ref="T269:T271"/>
-    <mergeCell ref="T273:T275"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="AC176:AC178"/>
+    <mergeCell ref="AC180:AC182"/>
+    <mergeCell ref="AC184:AC186"/>
+    <mergeCell ref="AC188:AC190"/>
+    <mergeCell ref="AC192:AC194"/>
+    <mergeCell ref="AC156:AC158"/>
+    <mergeCell ref="AC160:AC162"/>
+    <mergeCell ref="AC164:AC166"/>
+    <mergeCell ref="AC168:AC170"/>
+    <mergeCell ref="AC172:AC174"/>
+    <mergeCell ref="AC136:AC138"/>
+    <mergeCell ref="AC140:AC142"/>
+    <mergeCell ref="AC144:AC146"/>
+    <mergeCell ref="AC148:AC150"/>
+    <mergeCell ref="AC152:AC154"/>
+    <mergeCell ref="AC116:AC118"/>
+    <mergeCell ref="AC120:AC122"/>
+    <mergeCell ref="AC124:AC126"/>
+    <mergeCell ref="AC128:AC130"/>
+    <mergeCell ref="AC132:AC134"/>
+    <mergeCell ref="T176:T178"/>
+    <mergeCell ref="T180:T182"/>
+    <mergeCell ref="T184:T186"/>
+    <mergeCell ref="T188:T190"/>
+    <mergeCell ref="T192:T194"/>
+    <mergeCell ref="T156:T158"/>
+    <mergeCell ref="T160:T162"/>
+    <mergeCell ref="T164:T166"/>
+    <mergeCell ref="T168:T170"/>
+    <mergeCell ref="T172:T174"/>
+    <mergeCell ref="T136:T138"/>
+    <mergeCell ref="T140:T142"/>
+    <mergeCell ref="T144:T146"/>
+    <mergeCell ref="T148:T150"/>
+    <mergeCell ref="T152:T154"/>
+    <mergeCell ref="T116:T118"/>
+    <mergeCell ref="T120:T122"/>
+    <mergeCell ref="T124:T126"/>
+    <mergeCell ref="T128:T130"/>
+    <mergeCell ref="T132:T134"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="K184:K186"/>
+    <mergeCell ref="K188:K190"/>
+    <mergeCell ref="K192:K194"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="K160:K162"/>
+    <mergeCell ref="K164:K166"/>
+    <mergeCell ref="K168:K170"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="K148:K150"/>
+    <mergeCell ref="K152:K154"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K124:K126"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K132:K134"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="AC29:AC31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="AC33:AC35"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="AC45:AC47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="T57:T59"/>
+    <mergeCell ref="AC57:AC59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="AC61:AC63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="T69:T71"/>
+    <mergeCell ref="AC69:AC71"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="T73:T75"/>
+    <mergeCell ref="AC73:AC75"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="T77:T79"/>
+    <mergeCell ref="AC77:AC79"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="AC81:AC83"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="T89:T91"/>
+    <mergeCell ref="AC89:AC91"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="T93:T95"/>
+    <mergeCell ref="AC93:AC95"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="T105:T107"/>
+    <mergeCell ref="AC105:AC107"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="T97:T99"/>
+    <mergeCell ref="AC97:AC99"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="T101:T103"/>
+    <mergeCell ref="AC101:AC103"/>
+    <mergeCell ref="AC205:AC207"/>
+    <mergeCell ref="AC209:AC211"/>
+    <mergeCell ref="AC213:AC215"/>
+    <mergeCell ref="AC217:AC219"/>
+    <mergeCell ref="AC221:AC223"/>
+    <mergeCell ref="AC225:AC227"/>
+    <mergeCell ref="AC229:AC231"/>
+    <mergeCell ref="AC233:AC235"/>
+    <mergeCell ref="AC237:AC239"/>
+    <mergeCell ref="AC277:AC279"/>
+    <mergeCell ref="AC281:AC283"/>
+    <mergeCell ref="AC241:AC243"/>
+    <mergeCell ref="AC245:AC247"/>
+    <mergeCell ref="AC249:AC251"/>
+    <mergeCell ref="AC253:AC255"/>
+    <mergeCell ref="AC257:AC259"/>
+    <mergeCell ref="AC261:AC263"/>
+    <mergeCell ref="AC265:AC267"/>
+    <mergeCell ref="AC269:AC271"/>
+    <mergeCell ref="AC273:AC275"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -24814,6 +25293,7 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/HumanEv.xlsx
+++ b/HumanEv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER Bamberg\Summer Semester 2023\Project 15 ECTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER Bamberg\Summer Semester 2023\Project 15 ECTS\compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1306,13 +1306,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,13 +1326,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2271,7 +2271,7 @@
   <dimension ref="B1:AK286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2297,25 +2297,25 @@
   <sheetData>
     <row r="1" spans="2:18" ht="40.9" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="J7" s="36" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="J7" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
@@ -2379,7 +2379,7 @@
       <c r="R10" s="21"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="35" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="23" t="s">
@@ -2431,7 +2431,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>3.6166666666666663</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="J12" s="32"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="23" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2479,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4.0333333333333332</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="J13" s="32"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="23" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>4.9166666666666661</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="J14" s="32"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="23" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="57" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2600,7 +2600,7 @@
       <c r="H15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="36" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="24" t="s">
@@ -2621,15 +2621,15 @@
       <c r="P15" s="7">
         <v>235.316</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="29">
         <v>0.70184899999999995</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="29">
         <v>6.2494000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>4.1333333333333329</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="J16" s="33"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="24" t="s">
         <v>8</v>
       </c>
@@ -2669,15 +2669,15 @@
       <c r="P16" s="7">
         <v>234.2944</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="29">
         <v>0.70456099999999999</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="29">
         <v>6.3019000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>3.5333333333333337</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="J17" s="33"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="24" t="s">
         <v>9</v>
       </c>
@@ -2717,15 +2717,15 @@
       <c r="P17" s="7">
         <v>232.9307</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="29">
         <v>0.70390399999999997</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="29">
         <v>6.3739000000000004E-2</v>
       </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="J18" s="33"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="24" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="P18" s="7">
         <v>232.96100000000001</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="29">
         <v>0.70543999999999996</v>
       </c>
       <c r="R18" s="24">
@@ -2773,7 +2773,7 @@
       </c>
     </row>
     <row r="19" spans="2:36" ht="57" x14ac:dyDescent="0.45">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2798,7 +2798,7 @@
       <c r="H19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="35" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="23" t="s">
@@ -2819,15 +2819,15 @@
       <c r="P19" s="5">
         <v>591.38959999999997</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q19" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="30">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="H20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="23" t="s">
         <v>8</v>
       </c>
@@ -2869,15 +2869,15 @@
       <c r="P20" s="5">
         <v>592.80089999999996</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="30">
         <v>0.88949599999999995</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="30">
         <v>9.7015000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>3.0333333333333337</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="23" t="s">
         <v>9</v>
       </c>
@@ -2917,15 +2917,15 @@
       <c r="P21" s="5">
         <v>589.61040000000003</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="30">
         <v>0.88947200000000004</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="30">
         <v>9.9116999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4.3000000000000016</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="J22" s="32"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="23" t="s">
         <v>10</v>
       </c>
@@ -2965,10 +2965,10 @@
       <c r="P22" s="5">
         <v>590.7835</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="30">
         <v>0.90194399999999997</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="30">
         <v>0.101038</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       <c r="AJ28" s="2"/>
     </row>
     <row r="29" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3156,7 +3156,7 @@
       <c r="I29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -3180,7 +3180,7 @@
       <c r="R29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="30" t="s">
+      <c r="T29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="U29" s="2" t="s">
@@ -3204,7 +3204,7 @@
       <c r="AA29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC29" s="30" t="s">
+      <c r="AC29" s="34" t="s">
         <v>19</v>
       </c>
       <c r="AD29" s="2" t="s">
@@ -3230,7 +3230,7 @@
       </c>
     </row>
     <row r="30" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="29"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="I30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="R30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T30" s="30"/>
+      <c r="T30" s="34"/>
       <c r="U30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="AA30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC30" s="30"/>
+      <c r="AC30" s="34"/>
       <c r="AD30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3320,7 +3320,7 @@
       </c>
     </row>
     <row r="31" spans="2:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="29"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="I31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="R31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="30"/>
+      <c r="T31" s="34"/>
       <c r="U31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="AA31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC31" s="30"/>
+      <c r="AC31" s="34"/>
       <c r="AD31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="AJ32" s="9"/>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="1">
@@ -3524,7 +3524,7 @@
       <c r="I33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="34" t="s">
         <v>33</v>
       </c>
       <c r="L33" s="2">
@@ -3548,7 +3548,7 @@
       <c r="R33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T33" s="30" t="s">
+      <c r="T33" s="34" t="s">
         <v>33</v>
       </c>
       <c r="U33" s="2">
@@ -3572,7 +3572,7 @@
       <c r="AA33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC33" s="30" t="s">
+      <c r="AC33" s="34" t="s">
         <v>33</v>
       </c>
       <c r="AD33" s="2">
@@ -3598,7 +3598,7 @@
       </c>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B34" s="29"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="1">
         <v>2</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="I34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="30"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="2">
         <v>2</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="R34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T34" s="30"/>
+      <c r="T34" s="34"/>
       <c r="U34" s="2">
         <v>2</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="AA34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC34" s="30"/>
+      <c r="AC34" s="34"/>
       <c r="AD34" s="2">
         <v>2</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="35" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="29"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="1">
         <v>3</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="I35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="30"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="2">
         <v>3</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="R35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T35" s="30"/>
+      <c r="T35" s="34"/>
       <c r="U35" s="2">
         <v>3</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="AA35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC35" s="30"/>
+      <c r="AC35" s="34"/>
       <c r="AD35" s="2">
         <v>3</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="AJ36" s="9"/>
     </row>
     <row r="37" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
@@ -3882,7 +3882,7 @@
       <c r="I37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="34" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="2">
@@ -3906,7 +3906,7 @@
       <c r="R37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T37" s="30" t="s">
+      <c r="T37" s="34" t="s">
         <v>36</v>
       </c>
       <c r="U37" s="2">
@@ -3930,7 +3930,7 @@
       <c r="AA37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC37" s="30" t="s">
+      <c r="AC37" s="34" t="s">
         <v>36</v>
       </c>
       <c r="AD37" s="2">
@@ -3956,7 +3956,7 @@
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B38" s="29"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="1">
         <v>2</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="I38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="30"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="2">
         <v>2</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="R38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T38" s="30"/>
+      <c r="T38" s="34"/>
       <c r="U38" s="2">
         <v>2</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="AA38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC38" s="30"/>
+      <c r="AC38" s="34"/>
       <c r="AD38" s="2">
         <v>2</v>
       </c>
@@ -4046,7 +4046,7 @@
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B39" s="29"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="1">
         <v>3</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="I39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="30"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="2">
         <v>3</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="R39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="30"/>
+      <c r="T39" s="34"/>
       <c r="U39" s="2">
         <v>3</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="AA39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC39" s="30"/>
+      <c r="AC39" s="34"/>
       <c r="AD39" s="2">
         <v>3</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="AJ40" s="9"/>
     </row>
     <row r="41" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1">
@@ -4240,7 +4240,7 @@
       <c r="I41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L41" s="2">
@@ -4264,7 +4264,7 @@
       <c r="R41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T41" s="30" t="s">
+      <c r="T41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="U41" s="2">
@@ -4288,7 +4288,7 @@
       <c r="AA41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC41" s="30" t="s">
+      <c r="AC41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AD41" s="2">
@@ -4314,7 +4314,7 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B42" s="29"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="1">
         <v>2</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="I42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="30"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="2">
         <v>2</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="R42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T42" s="30"/>
+      <c r="T42" s="34"/>
       <c r="U42" s="2">
         <v>2</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="AA42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC42" s="30"/>
+      <c r="AC42" s="34"/>
       <c r="AD42" s="2">
         <v>2</v>
       </c>
@@ -4404,7 +4404,7 @@
       </c>
     </row>
     <row r="43" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B43" s="29"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="1">
         <v>3</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="I43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="30"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="2">
         <v>3</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="R43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T43" s="30"/>
+      <c r="T43" s="34"/>
       <c r="U43" s="2">
         <v>3</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="AA43" s="2"/>
-      <c r="AC43" s="30"/>
+      <c r="AC43" s="34"/>
       <c r="AD43" s="2">
         <v>3</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="AJ44" s="9"/>
     </row>
     <row r="45" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1">
@@ -4598,7 +4598,7 @@
       <c r="I45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="34" t="s">
         <v>43</v>
       </c>
       <c r="L45" s="2">
@@ -4622,7 +4622,7 @@
       <c r="R45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="30" t="s">
+      <c r="T45" s="34" t="s">
         <v>43</v>
       </c>
       <c r="U45" s="2">
@@ -4646,7 +4646,7 @@
       <c r="AA45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC45" s="30" t="s">
+      <c r="AC45" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AD45" s="2">
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B46" s="29"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="1">
         <v>2</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="I46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="30"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="2">
         <v>2</v>
       </c>
@@ -4716,7 +4716,7 @@
       <c r="R46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T46" s="30"/>
+      <c r="T46" s="34"/>
       <c r="U46" s="2">
         <v>2</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="AA46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC46" s="30"/>
+      <c r="AC46" s="34"/>
       <c r="AD46" s="2">
         <v>2</v>
       </c>
@@ -4762,7 +4762,7 @@
       </c>
     </row>
     <row r="47" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B47" s="29"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="1">
         <v>3</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="I47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="30"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="2">
         <v>3</v>
       </c>
@@ -4806,7 +4806,7 @@
       <c r="R47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T47" s="30"/>
+      <c r="T47" s="34"/>
       <c r="U47" s="2">
         <v>3</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>25</v>
       </c>
       <c r="AA47" s="2"/>
-      <c r="AC47" s="30"/>
+      <c r="AC47" s="34"/>
       <c r="AD47" s="2">
         <v>3</v>
       </c>
@@ -4932,7 +4932,7 @@
       <c r="AJ48" s="9"/>
     </row>
     <row r="49" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="1">
@@ -4956,7 +4956,7 @@
       <c r="I49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="34" t="s">
         <v>47</v>
       </c>
       <c r="L49" s="2">
@@ -4980,7 +4980,7 @@
       <c r="R49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T49" s="30" t="s">
+      <c r="T49" s="34" t="s">
         <v>47</v>
       </c>
       <c r="U49" s="2">
@@ -5004,7 +5004,7 @@
       <c r="AA49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC49" s="30" t="s">
+      <c r="AC49" s="34" t="s">
         <v>47</v>
       </c>
       <c r="AD49" s="2">
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="50" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B50" s="29"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="1">
         <v>2</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="I50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="30"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="2">
         <v>2</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="R50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T50" s="30"/>
+      <c r="T50" s="34"/>
       <c r="U50" s="2">
         <v>2</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="AA50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC50" s="30"/>
+      <c r="AC50" s="34"/>
       <c r="AD50" s="2">
         <v>2</v>
       </c>
@@ -5120,7 +5120,7 @@
       </c>
     </row>
     <row r="51" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B51" s="29"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="1">
         <v>3</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="I51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="30"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="2">
         <v>3</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="R51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T51" s="30"/>
+      <c r="T51" s="34"/>
       <c r="U51" s="2">
         <v>3</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="AA51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC51" s="30"/>
+      <c r="AC51" s="34"/>
       <c r="AD51" s="2">
         <v>3</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="AJ52" s="9"/>
     </row>
     <row r="53" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="1">
@@ -5316,7 +5316,7 @@
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="30" t="s">
+      <c r="K53" s="34" t="s">
         <v>52</v>
       </c>
       <c r="L53" s="2">
@@ -5340,7 +5340,7 @@
       <c r="R53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T53" s="30" t="s">
+      <c r="T53" s="34" t="s">
         <v>52</v>
       </c>
       <c r="U53" s="2">
@@ -5362,7 +5362,7 @@
       <c r="AA53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC53" s="30" t="s">
+      <c r="AC53" s="34" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="2">
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="54" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B54" s="29"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="1">
         <v>2</v>
       </c>
@@ -5410,7 +5410,7 @@
       <c r="I54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="30"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="2">
         <v>2</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="R54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T54" s="30"/>
+      <c r="T54" s="34"/>
       <c r="U54" s="2">
         <v>2</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="AA54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC54" s="30"/>
+      <c r="AC54" s="34"/>
       <c r="AD54" s="2">
         <v>2</v>
       </c>
@@ -5478,7 +5478,7 @@
       </c>
     </row>
     <row r="55" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B55" s="29"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="1">
         <v>3</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="I55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="30"/>
+      <c r="K55" s="34"/>
       <c r="L55" s="2">
         <v>3</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="R55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T55" s="30"/>
+      <c r="T55" s="34"/>
       <c r="U55" s="2">
         <v>3</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="AA55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC55" s="30"/>
+      <c r="AC55" s="34"/>
       <c r="AD55" s="2">
         <v>3</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="AJ56" s="9"/>
     </row>
     <row r="57" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="1">
@@ -5672,7 +5672,7 @@
       <c r="I57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="30" t="s">
+      <c r="K57" s="34" t="s">
         <v>53</v>
       </c>
       <c r="L57" s="2">
@@ -5696,7 +5696,7 @@
       <c r="R57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T57" s="30" t="s">
+      <c r="T57" s="34" t="s">
         <v>53</v>
       </c>
       <c r="U57" s="2">
@@ -5718,7 +5718,7 @@
       <c r="AA57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC57" s="30" t="s">
+      <c r="AC57" s="34" t="s">
         <v>53</v>
       </c>
       <c r="AD57" s="2">
@@ -5744,7 +5744,7 @@
       </c>
     </row>
     <row r="58" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B58" s="29"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="1">
         <v>2</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="I58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="30"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="2">
         <v>2</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="R58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T58" s="30"/>
+      <c r="T58" s="34"/>
       <c r="U58" s="2">
         <v>2</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="AA58" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC58" s="30"/>
+      <c r="AC58" s="34"/>
       <c r="AD58" s="2">
         <v>2</v>
       </c>
@@ -5832,7 +5832,7 @@
       </c>
     </row>
     <row r="59" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B59" s="29"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="1">
         <v>3</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="I59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="30"/>
+      <c r="K59" s="34"/>
       <c r="L59" s="2">
         <v>3</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="R59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T59" s="30"/>
+      <c r="T59" s="34"/>
       <c r="U59" s="2">
         <v>3</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="AA59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC59" s="30"/>
+      <c r="AC59" s="34"/>
       <c r="AD59" s="2">
         <v>3</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="AJ60" s="9"/>
     </row>
     <row r="61" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="1">
@@ -6028,7 +6028,7 @@
       <c r="I61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K61" s="34" t="s">
         <v>57</v>
       </c>
       <c r="L61" s="2">
@@ -6052,7 +6052,7 @@
       <c r="R61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T61" s="30" t="s">
+      <c r="T61" s="34" t="s">
         <v>57</v>
       </c>
       <c r="U61" s="2">
@@ -6076,7 +6076,7 @@
       <c r="AA61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC61" s="30" t="s">
+      <c r="AC61" s="34" t="s">
         <v>57</v>
       </c>
       <c r="AD61" s="2">
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="62" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B62" s="29"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="1">
         <v>2</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="I62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="30"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="2">
         <v>2</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="R62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T62" s="30"/>
+      <c r="T62" s="34"/>
       <c r="U62" s="2">
         <v>2</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="AA62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC62" s="30"/>
+      <c r="AC62" s="34"/>
       <c r="AD62" s="2">
         <v>2</v>
       </c>
@@ -6192,7 +6192,7 @@
       </c>
     </row>
     <row r="63" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B63" s="29"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="1">
         <v>3</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="I63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="30"/>
+      <c r="K63" s="34"/>
       <c r="L63" s="2">
         <v>3</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="R63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T63" s="30"/>
+      <c r="T63" s="34"/>
       <c r="U63" s="2">
         <v>3</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="AA63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC63" s="30"/>
+      <c r="AC63" s="34"/>
       <c r="AD63" s="2">
         <v>3</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="AJ64" s="9"/>
     </row>
     <row r="65" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C65" s="1">
@@ -6388,7 +6388,7 @@
       <c r="I65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="37" t="s">
         <v>59</v>
       </c>
       <c r="L65" s="2">
@@ -6412,7 +6412,7 @@
       <c r="R65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T65" s="30" t="s">
+      <c r="T65" s="34" t="s">
         <v>58</v>
       </c>
       <c r="U65" s="2">
@@ -6436,7 +6436,7 @@
       <c r="AA65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC65" s="30" t="s">
+      <c r="AC65" s="34" t="s">
         <v>58</v>
       </c>
       <c r="AD65" s="2">
@@ -6462,7 +6462,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B66" s="29"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="1">
         <v>2</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="I66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="31"/>
+      <c r="K66" s="37"/>
       <c r="L66" s="2">
         <v>2</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="R66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T66" s="30"/>
+      <c r="T66" s="34"/>
       <c r="U66" s="2">
         <v>2</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="AA66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC66" s="30"/>
+      <c r="AC66" s="34"/>
       <c r="AD66" s="2">
         <v>2</v>
       </c>
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="67" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B67" s="29"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="1">
         <v>3</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="I67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="31"/>
+      <c r="K67" s="37"/>
       <c r="L67" s="2">
         <v>3</v>
       </c>
@@ -6596,7 +6596,7 @@
       <c r="R67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T67" s="30"/>
+      <c r="T67" s="34"/>
       <c r="U67" s="2">
         <v>3</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AA67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC67" s="30"/>
+      <c r="AC67" s="34"/>
       <c r="AD67" s="2">
         <v>3</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="AJ68" s="9"/>
     </row>
     <row r="69" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="1">
@@ -6748,7 +6748,7 @@
       <c r="I69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="30" t="s">
+      <c r="K69" s="34" t="s">
         <v>62</v>
       </c>
       <c r="L69" s="2">
@@ -6772,7 +6772,7 @@
       <c r="R69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T69" s="30" t="s">
+      <c r="T69" s="34" t="s">
         <v>62</v>
       </c>
       <c r="U69" s="2">
@@ -6796,7 +6796,7 @@
       <c r="AA69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC69" s="30" t="s">
+      <c r="AC69" s="34" t="s">
         <v>62</v>
       </c>
       <c r="AD69" s="2">
@@ -6822,7 +6822,7 @@
       </c>
     </row>
     <row r="70" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B70" s="29"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="1">
         <v>2</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="I70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K70" s="30"/>
+      <c r="K70" s="34"/>
       <c r="L70" s="2">
         <v>2</v>
       </c>
@@ -6866,7 +6866,7 @@
       <c r="R70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T70" s="30"/>
+      <c r="T70" s="34"/>
       <c r="U70" s="2">
         <v>2</v>
       </c>
@@ -6888,7 +6888,7 @@
       <c r="AA70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC70" s="30"/>
+      <c r="AC70" s="34"/>
       <c r="AD70" s="2">
         <v>2</v>
       </c>
@@ -6912,7 +6912,7 @@
       </c>
     </row>
     <row r="71" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B71" s="29"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="1">
         <v>3</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="I71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="30"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="2">
         <v>3</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="R71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T71" s="30"/>
+      <c r="T71" s="34"/>
       <c r="U71" s="2">
         <v>3</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="AA71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC71" s="30"/>
+      <c r="AC71" s="34"/>
       <c r="AD71" s="2">
         <v>3</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="AJ72" s="9"/>
     </row>
     <row r="73" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="1">
@@ -7108,7 +7108,7 @@
       <c r="I73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="30" t="s">
+      <c r="K73" s="34" t="s">
         <v>65</v>
       </c>
       <c r="L73" s="2">
@@ -7132,7 +7132,7 @@
       <c r="R73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T73" s="30" t="s">
+      <c r="T73" s="34" t="s">
         <v>65</v>
       </c>
       <c r="U73" s="2">
@@ -7156,7 +7156,7 @@
       <c r="AA73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC73" s="30" t="s">
+      <c r="AC73" s="34" t="s">
         <v>65</v>
       </c>
       <c r="AD73" s="2">
@@ -7182,7 +7182,7 @@
       </c>
     </row>
     <row r="74" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B74" s="29"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="1">
         <v>2</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="I74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="30"/>
+      <c r="K74" s="34"/>
       <c r="L74" s="2">
         <v>2</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="R74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T74" s="30"/>
+      <c r="T74" s="34"/>
       <c r="U74" s="2">
         <v>2</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="AA74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC74" s="30"/>
+      <c r="AC74" s="34"/>
       <c r="AD74" s="2">
         <v>2</v>
       </c>
@@ -7272,7 +7272,7 @@
       </c>
     </row>
     <row r="75" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B75" s="29"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="1">
         <v>3</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="I75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="30"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="2">
         <v>3</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="R75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T75" s="30"/>
+      <c r="T75" s="34"/>
       <c r="U75" s="2">
         <v>3</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="AA75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC75" s="30"/>
+      <c r="AC75" s="34"/>
       <c r="AD75" s="2">
         <v>3</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="AJ76" s="9"/>
     </row>
     <row r="77" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C77" s="1">
@@ -7466,7 +7466,7 @@
       <c r="I77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="30" t="s">
+      <c r="K77" s="34" t="s">
         <v>67</v>
       </c>
       <c r="L77" s="2">
@@ -7490,7 +7490,7 @@
       <c r="R77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T77" s="30" t="s">
+      <c r="T77" s="34" t="s">
         <v>67</v>
       </c>
       <c r="U77" s="2">
@@ -7512,7 +7512,7 @@
       <c r="AA77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC77" s="30" t="s">
+      <c r="AC77" s="34" t="s">
         <v>67</v>
       </c>
       <c r="AD77" s="2">
@@ -7538,7 +7538,7 @@
       </c>
     </row>
     <row r="78" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B78" s="29"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="1">
         <v>2</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="I78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K78" s="30"/>
+      <c r="K78" s="34"/>
       <c r="L78" s="2">
         <v>2</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="R78" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T78" s="30"/>
+      <c r="T78" s="34"/>
       <c r="U78" s="2">
         <v>2</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="AA78" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC78" s="30"/>
+      <c r="AC78" s="34"/>
       <c r="AD78" s="2">
         <v>2</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="79" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B79" s="29"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="1">
         <v>3</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="I79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="30"/>
+      <c r="K79" s="34"/>
       <c r="L79" s="2">
         <v>3</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="R79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T79" s="30"/>
+      <c r="T79" s="34"/>
       <c r="U79" s="2">
         <v>3</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="AA79" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC79" s="30"/>
+      <c r="AC79" s="34"/>
       <c r="AD79" s="2">
         <v>3</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="AJ80" s="9"/>
     </row>
     <row r="81" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="1">
@@ -7820,7 +7820,7 @@
       <c r="I81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K81" s="30" t="s">
+      <c r="K81" s="34" t="s">
         <v>71</v>
       </c>
       <c r="L81" s="2">
@@ -7844,7 +7844,7 @@
       <c r="R81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="30" t="s">
+      <c r="T81" s="34" t="s">
         <v>71</v>
       </c>
       <c r="U81" s="2">
@@ -7868,7 +7868,7 @@
       <c r="AA81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC81" s="30" t="s">
+      <c r="AC81" s="34" t="s">
         <v>71</v>
       </c>
       <c r="AD81" s="2">
@@ -7894,7 +7894,7 @@
       </c>
     </row>
     <row r="82" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B82" s="29"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="1">
         <v>2</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="I82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="30"/>
+      <c r="K82" s="34"/>
       <c r="L82" s="2">
         <v>2</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="R82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T82" s="30"/>
+      <c r="T82" s="34"/>
       <c r="U82" s="2">
         <v>2</v>
       </c>
@@ -7960,7 +7960,7 @@
       <c r="AA82" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC82" s="30"/>
+      <c r="AC82" s="34"/>
       <c r="AD82" s="2">
         <v>2</v>
       </c>
@@ -7984,7 +7984,7 @@
       </c>
     </row>
     <row r="83" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B83" s="29"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="1">
         <v>3</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="I83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="30"/>
+      <c r="K83" s="34"/>
       <c r="L83" s="2">
         <v>3</v>
       </c>
@@ -8028,7 +8028,7 @@
       <c r="R83" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T83" s="30"/>
+      <c r="T83" s="34"/>
       <c r="U83" s="2">
         <v>3</v>
       </c>
@@ -8048,7 +8048,7 @@
       <c r="AA83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC83" s="30"/>
+      <c r="AC83" s="34"/>
       <c r="AD83" s="2">
         <v>3</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="AJ84" s="9"/>
     </row>
     <row r="85" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="1">
@@ -8176,7 +8176,7 @@
       <c r="I85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="30" t="s">
+      <c r="K85" s="34" t="s">
         <v>73</v>
       </c>
       <c r="L85" s="2">
@@ -8200,7 +8200,7 @@
       <c r="R85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T85" s="30" t="s">
+      <c r="T85" s="34" t="s">
         <v>73</v>
       </c>
       <c r="U85" s="2">
@@ -8224,7 +8224,7 @@
       <c r="AA85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC85" s="30" t="s">
+      <c r="AC85" s="34" t="s">
         <v>73</v>
       </c>
       <c r="AD85" s="2">
@@ -8250,7 +8250,7 @@
       </c>
     </row>
     <row r="86" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B86" s="29"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="1">
         <v>2</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="I86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="30"/>
+      <c r="K86" s="34"/>
       <c r="L86" s="2">
         <v>2</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="R86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T86" s="30"/>
+      <c r="T86" s="34"/>
       <c r="U86" s="2">
         <v>2</v>
       </c>
@@ -8316,7 +8316,7 @@
       <c r="AA86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC86" s="30"/>
+      <c r="AC86" s="34"/>
       <c r="AD86" s="2">
         <v>2</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
     </row>
     <row r="87" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B87" s="29"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="1">
         <v>3</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="I87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="30"/>
+      <c r="K87" s="34"/>
       <c r="L87" s="2">
         <v>3</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="R87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T87" s="30"/>
+      <c r="T87" s="34"/>
       <c r="U87" s="2">
         <v>3</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>70</v>
       </c>
       <c r="AA87" s="2"/>
-      <c r="AC87" s="30"/>
+      <c r="AC87" s="34"/>
       <c r="AD87" s="2">
         <v>3</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="AJ88" s="9"/>
     </row>
     <row r="89" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="1">
@@ -8534,7 +8534,7 @@
       <c r="I89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K89" s="30" t="s">
+      <c r="K89" s="34" t="s">
         <v>76</v>
       </c>
       <c r="L89" s="2">
@@ -8558,7 +8558,7 @@
       <c r="R89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T89" s="30" t="s">
+      <c r="T89" s="34" t="s">
         <v>76</v>
       </c>
       <c r="U89" s="2">
@@ -8582,7 +8582,7 @@
       <c r="AA89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC89" s="30" t="s">
+      <c r="AC89" s="34" t="s">
         <v>76</v>
       </c>
       <c r="AD89" s="2">
@@ -8608,7 +8608,7 @@
       </c>
     </row>
     <row r="90" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B90" s="29"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="1">
         <v>2</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="I90" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K90" s="30"/>
+      <c r="K90" s="34"/>
       <c r="L90" s="2">
         <v>2</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="R90" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T90" s="30"/>
+      <c r="T90" s="34"/>
       <c r="U90" s="2">
         <v>2</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="AA90" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC90" s="30"/>
+      <c r="AC90" s="34"/>
       <c r="AD90" s="2">
         <v>2</v>
       </c>
@@ -8698,7 +8698,7 @@
       </c>
     </row>
     <row r="91" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B91" s="29"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="1">
         <v>3</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="I91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="30"/>
+      <c r="K91" s="34"/>
       <c r="L91" s="2">
         <v>3</v>
       </c>
@@ -8742,7 +8742,7 @@
       <c r="R91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T91" s="30"/>
+      <c r="T91" s="34"/>
       <c r="U91" s="2">
         <v>3</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="AA91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC91" s="30"/>
+      <c r="AC91" s="34"/>
       <c r="AD91" s="2">
         <v>3</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="AJ92" s="9"/>
     </row>
     <row r="93" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C93" s="1">
@@ -8892,7 +8892,7 @@
       <c r="I93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K93" s="30" t="s">
+      <c r="K93" s="34" t="s">
         <v>77</v>
       </c>
       <c r="L93" s="2">
@@ -8916,7 +8916,7 @@
       <c r="R93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T93" s="30" t="s">
+      <c r="T93" s="34" t="s">
         <v>77</v>
       </c>
       <c r="U93" s="2">
@@ -8940,7 +8940,7 @@
       <c r="AA93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC93" s="30" t="s">
+      <c r="AC93" s="34" t="s">
         <v>77</v>
       </c>
       <c r="AD93" s="2">
@@ -8966,7 +8966,7 @@
       </c>
     </row>
     <row r="94" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B94" s="29"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="1">
         <v>2</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="I94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="30"/>
+      <c r="K94" s="34"/>
       <c r="L94" s="2">
         <v>2</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="R94" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T94" s="30"/>
+      <c r="T94" s="34"/>
       <c r="U94" s="2">
         <v>2</v>
       </c>
@@ -9030,7 +9030,7 @@
       <c r="AA94" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC94" s="30"/>
+      <c r="AC94" s="34"/>
       <c r="AD94" s="2">
         <v>2</v>
       </c>
@@ -9054,7 +9054,7 @@
       </c>
     </row>
     <row r="95" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B95" s="29"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="1">
         <v>3</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="I95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="30"/>
+      <c r="K95" s="34"/>
       <c r="L95" s="2">
         <v>3</v>
       </c>
@@ -9098,7 +9098,7 @@
       <c r="R95" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T95" s="30"/>
+      <c r="T95" s="34"/>
       <c r="U95" s="2">
         <v>3</v>
       </c>
@@ -9120,7 +9120,7 @@
       <c r="AA95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC95" s="30"/>
+      <c r="AC95" s="34"/>
       <c r="AD95" s="2">
         <v>3</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="AJ96" s="9"/>
     </row>
     <row r="97" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C97" s="1">
@@ -9246,7 +9246,7 @@
       <c r="I97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="30" t="s">
+      <c r="K97" s="34" t="s">
         <v>78</v>
       </c>
       <c r="L97" s="2">
@@ -9270,7 +9270,7 @@
       <c r="R97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T97" s="30" t="s">
+      <c r="T97" s="34" t="s">
         <v>78</v>
       </c>
       <c r="U97" s="2">
@@ -9294,7 +9294,7 @@
       <c r="AA97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC97" s="30" t="s">
+      <c r="AC97" s="34" t="s">
         <v>78</v>
       </c>
       <c r="AD97" s="2">
@@ -9320,7 +9320,7 @@
       </c>
     </row>
     <row r="98" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B98" s="29"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="1">
         <v>2</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="I98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="30"/>
+      <c r="K98" s="34"/>
       <c r="L98" s="2">
         <v>2</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>75</v>
       </c>
       <c r="R98" s="2"/>
-      <c r="T98" s="30"/>
+      <c r="T98" s="34"/>
       <c r="U98" s="2">
         <v>2</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="AA98" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC98" s="30"/>
+      <c r="AC98" s="34"/>
       <c r="AD98" s="2">
         <v>2</v>
       </c>
@@ -9406,7 +9406,7 @@
       </c>
     </row>
     <row r="99" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B99" s="29"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="1">
         <v>3</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="I99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="30"/>
+      <c r="K99" s="34"/>
       <c r="L99" s="2">
         <v>3</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>75</v>
       </c>
       <c r="R99" s="2"/>
-      <c r="T99" s="30"/>
+      <c r="T99" s="34"/>
       <c r="U99" s="2">
         <v>3</v>
       </c>
@@ -9470,7 +9470,7 @@
       <c r="AA99" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC99" s="30"/>
+      <c r="AC99" s="34"/>
       <c r="AD99" s="2">
         <v>3</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="AJ100" s="9"/>
     </row>
     <row r="101" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="1">
@@ -9600,7 +9600,7 @@
       <c r="I101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K101" s="30" t="s">
+      <c r="K101" s="34" t="s">
         <v>79</v>
       </c>
       <c r="L101" s="2">
@@ -9624,7 +9624,7 @@
       <c r="R101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T101" s="30" t="s">
+      <c r="T101" s="34" t="s">
         <v>79</v>
       </c>
       <c r="U101" s="2">
@@ -9648,7 +9648,7 @@
       <c r="AA101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC101" s="30" t="s">
+      <c r="AC101" s="34" t="s">
         <v>79</v>
       </c>
       <c r="AD101" s="2">
@@ -9674,7 +9674,7 @@
       </c>
     </row>
     <row r="102" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B102" s="29"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="1">
         <v>2</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="I102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K102" s="30"/>
+      <c r="K102" s="34"/>
       <c r="L102" s="2">
         <v>2</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>21</v>
       </c>
       <c r="R102" s="2"/>
-      <c r="T102" s="30"/>
+      <c r="T102" s="34"/>
       <c r="U102" s="2">
         <v>2</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="AA102" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC102" s="30"/>
+      <c r="AC102" s="34"/>
       <c r="AD102" s="2">
         <v>2</v>
       </c>
@@ -9762,7 +9762,7 @@
       </c>
     </row>
     <row r="103" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B103" s="29"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="1">
         <v>3</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="I103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K103" s="30"/>
+      <c r="K103" s="34"/>
       <c r="L103" s="2">
         <v>3</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>21</v>
       </c>
       <c r="R103" s="2"/>
-      <c r="T103" s="30"/>
+      <c r="T103" s="34"/>
       <c r="U103" s="2">
         <v>3</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="AA103" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC103" s="30"/>
+      <c r="AC103" s="34"/>
       <c r="AD103" s="2">
         <v>3</v>
       </c>
@@ -9932,7 +9932,7 @@
       <c r="AJ104" s="9"/>
     </row>
     <row r="105" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C105" s="1">
@@ -9956,7 +9956,7 @@
       <c r="I105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K105" s="30" t="s">
+      <c r="K105" s="34" t="s">
         <v>81</v>
       </c>
       <c r="L105" s="2">
@@ -9980,7 +9980,7 @@
       <c r="R105" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T105" s="30" t="s">
+      <c r="T105" s="34" t="s">
         <v>81</v>
       </c>
       <c r="U105" s="2">
@@ -10004,7 +10004,7 @@
       <c r="AA105" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC105" s="30" t="s">
+      <c r="AC105" s="34" t="s">
         <v>81</v>
       </c>
       <c r="AD105" s="2">
@@ -10030,7 +10030,7 @@
       </c>
     </row>
     <row r="106" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B106" s="29"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="1">
         <v>2</v>
       </c>
@@ -10052,7 +10052,7 @@
       <c r="I106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="30"/>
+      <c r="K106" s="34"/>
       <c r="L106" s="2">
         <v>2</v>
       </c>
@@ -10074,7 +10074,7 @@
       <c r="R106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T106" s="30"/>
+      <c r="T106" s="34"/>
       <c r="U106" s="2">
         <v>2</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="AA106" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC106" s="30"/>
+      <c r="AC106" s="34"/>
       <c r="AD106" s="2">
         <v>2</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
     </row>
     <row r="107" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B107" s="29"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="1">
         <v>3</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="I107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K107" s="30"/>
+      <c r="K107" s="34"/>
       <c r="L107" s="2">
         <v>3</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="R107" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T107" s="30"/>
+      <c r="T107" s="34"/>
       <c r="U107" s="2">
         <v>3</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="AA107" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AC107" s="30"/>
+      <c r="AC107" s="34"/>
       <c r="AD107" s="2">
         <v>3</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="AJ115" s="10"/>
     </row>
     <row r="116" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -10604,7 +10604,7 @@
       <c r="I116" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K116" s="29" t="s">
+      <c r="K116" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L116" s="10" t="s">
@@ -10626,7 +10626,7 @@
         <v>41</v>
       </c>
       <c r="R116" s="10"/>
-      <c r="T116" s="29" t="s">
+      <c r="T116" s="33" t="s">
         <v>19</v>
       </c>
       <c r="U116" s="10" t="s">
@@ -10648,7 +10648,7 @@
         <v>41</v>
       </c>
       <c r="AA116" s="10"/>
-      <c r="AC116" s="29" t="s">
+      <c r="AC116" s="33" t="s">
         <v>19</v>
       </c>
       <c r="AD116" s="10" t="s">
@@ -10674,7 +10674,7 @@
       </c>
     </row>
     <row r="117" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B117" s="29"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="H117" s="11"/>
       <c r="I117" s="10"/>
-      <c r="K117" s="29"/>
+      <c r="K117" s="33"/>
       <c r="L117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>41</v>
       </c>
       <c r="R117" s="10"/>
-      <c r="T117" s="29"/>
+      <c r="T117" s="33"/>
       <c r="U117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10734,7 +10734,7 @@
       <c r="AA117" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC117" s="29"/>
+      <c r="AC117" s="33"/>
       <c r="AD117" s="10" t="s">
         <v>26</v>
       </c>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
     <row r="118" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B118" s="29"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10780,7 +10780,7 @@
       <c r="I118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K118" s="29"/>
+      <c r="K118" s="33"/>
       <c r="L118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10802,7 +10802,7 @@
       <c r="R118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T118" s="29"/>
+      <c r="T118" s="33"/>
       <c r="U118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10824,7 +10824,7 @@
       <c r="AA118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC118" s="29"/>
+      <c r="AC118" s="33"/>
       <c r="AD118" s="10" t="s">
         <v>30</v>
       </c>
@@ -10938,7 +10938,7 @@
       <c r="AJ119" s="8"/>
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C120" s="10">
@@ -10962,7 +10962,7 @@
       <c r="I120" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K120" s="29" t="s">
+      <c r="K120" s="33" t="s">
         <v>33</v>
       </c>
       <c r="L120" s="10">
@@ -10984,7 +10984,7 @@
         <v>41</v>
       </c>
       <c r="R120" s="10"/>
-      <c r="T120" s="29" t="s">
+      <c r="T120" s="33" t="s">
         <v>33</v>
       </c>
       <c r="U120" s="10">
@@ -11008,7 +11008,7 @@
       <c r="AA120" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC120" s="29" t="s">
+      <c r="AC120" s="33" t="s">
         <v>33</v>
       </c>
       <c r="AD120" s="10">
@@ -11034,7 +11034,7 @@
       </c>
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B121" s="29"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="10">
         <v>2</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="I121" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K121" s="29"/>
+      <c r="K121" s="33"/>
       <c r="L121" s="10">
         <v>2</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>41</v>
       </c>
       <c r="R121" s="10"/>
-      <c r="T121" s="29"/>
+      <c r="T121" s="33"/>
       <c r="U121" s="10">
         <v>2</v>
       </c>
@@ -11098,7 +11098,7 @@
       <c r="AA121" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC121" s="29"/>
+      <c r="AC121" s="33"/>
       <c r="AD121" s="10">
         <v>2</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
     </row>
     <row r="122" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B122" s="29"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="10">
         <v>3</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="I122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K122" s="29"/>
+      <c r="K122" s="33"/>
       <c r="L122" s="10">
         <v>3</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="R122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T122" s="29"/>
+      <c r="T122" s="33"/>
       <c r="U122" s="10">
         <v>3</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="AA122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC122" s="29"/>
+      <c r="AC122" s="33"/>
       <c r="AD122" s="10">
         <v>3</v>
       </c>
@@ -11294,7 +11294,7 @@
       <c r="AJ123" s="8"/>
     </row>
     <row r="124" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="10">
@@ -11318,7 +11318,7 @@
       <c r="I124" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K124" s="29" t="s">
+      <c r="K124" s="33" t="s">
         <v>36</v>
       </c>
       <c r="L124" s="10">
@@ -11342,7 +11342,7 @@
       <c r="R124" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T124" s="29" t="s">
+      <c r="T124" s="33" t="s">
         <v>36</v>
       </c>
       <c r="U124" s="10">
@@ -11364,7 +11364,7 @@
         <v>84</v>
       </c>
       <c r="AA124" s="10"/>
-      <c r="AC124" s="29" t="s">
+      <c r="AC124" s="33" t="s">
         <v>36</v>
       </c>
       <c r="AD124" s="10">
@@ -11388,7 +11388,7 @@
       </c>
     </row>
     <row r="125" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B125" s="29"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="10">
         <v>2</v>
       </c>
@@ -11410,7 +11410,7 @@
       <c r="I125" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K125" s="29"/>
+      <c r="K125" s="33"/>
       <c r="L125" s="10">
         <v>2</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>41</v>
       </c>
       <c r="R125" s="10"/>
-      <c r="T125" s="29"/>
+      <c r="T125" s="33"/>
       <c r="U125" s="10">
         <v>2</v>
       </c>
@@ -11452,7 +11452,7 @@
       <c r="AA125" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC125" s="29"/>
+      <c r="AC125" s="33"/>
       <c r="AD125" s="10">
         <v>2</v>
       </c>
@@ -11476,7 +11476,7 @@
       </c>
     </row>
     <row r="126" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B126" s="29"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="10">
         <v>3</v>
       </c>
@@ -11498,7 +11498,7 @@
       <c r="I126" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K126" s="29"/>
+      <c r="K126" s="33"/>
       <c r="L126" s="10">
         <v>3</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="R126" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T126" s="29"/>
+      <c r="T126" s="33"/>
       <c r="U126" s="10">
         <v>3</v>
       </c>
@@ -11542,7 +11542,7 @@
       <c r="AA126" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC126" s="29"/>
+      <c r="AC126" s="33"/>
       <c r="AD126" s="10">
         <v>3</v>
       </c>
@@ -11648,7 +11648,7 @@
       <c r="AJ127" s="8"/>
     </row>
     <row r="128" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C128" s="10">
@@ -11672,7 +11672,7 @@
       <c r="I128" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K128" s="29" t="s">
+      <c r="K128" s="33" t="s">
         <v>39</v>
       </c>
       <c r="L128" s="10">
@@ -11694,7 +11694,7 @@
         <v>41</v>
       </c>
       <c r="R128" s="10"/>
-      <c r="T128" s="29" t="s">
+      <c r="T128" s="33" t="s">
         <v>39</v>
       </c>
       <c r="U128" s="10">
@@ -11716,7 +11716,7 @@
         <v>84</v>
       </c>
       <c r="AA128" s="10"/>
-      <c r="AC128" s="29" t="s">
+      <c r="AC128" s="33" t="s">
         <v>39</v>
       </c>
       <c r="AD128" s="10">
@@ -11740,7 +11740,7 @@
       <c r="AJ128" s="10"/>
     </row>
     <row r="129" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B129" s="29"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="10">
         <v>2</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="I129" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K129" s="29"/>
+      <c r="K129" s="33"/>
       <c r="L129" s="10">
         <v>2</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>95</v>
       </c>
       <c r="R129" s="10"/>
-      <c r="T129" s="29"/>
+      <c r="T129" s="33"/>
       <c r="U129" s="10">
         <v>2</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>84</v>
       </c>
       <c r="AA129" s="10"/>
-      <c r="AC129" s="29"/>
+      <c r="AC129" s="33"/>
       <c r="AD129" s="10">
         <v>2</v>
       </c>
@@ -11826,7 +11826,7 @@
       </c>
     </row>
     <row r="130" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B130" s="29"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="10">
         <v>3</v>
       </c>
@@ -11848,7 +11848,7 @@
       <c r="I130" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K130" s="29"/>
+      <c r="K130" s="33"/>
       <c r="L130" s="10">
         <v>3</v>
       </c>
@@ -11870,7 +11870,7 @@
       <c r="R130" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T130" s="29"/>
+      <c r="T130" s="33"/>
       <c r="U130" s="10">
         <v>3</v>
       </c>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="Z130" s="11"/>
       <c r="AA130" s="10"/>
-      <c r="AC130" s="29"/>
+      <c r="AC130" s="33"/>
       <c r="AD130" s="10">
         <v>3</v>
       </c>
@@ -11994,7 +11994,7 @@
       <c r="AJ131" s="8"/>
     </row>
     <row r="132" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C132" s="10">
@@ -12018,7 +12018,7 @@
       <c r="I132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="29" t="s">
+      <c r="K132" s="33" t="s">
         <v>43</v>
       </c>
       <c r="L132" s="10">
@@ -12042,7 +12042,7 @@
       <c r="R132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T132" s="29" t="s">
+      <c r="T132" s="33" t="s">
         <v>43</v>
       </c>
       <c r="U132" s="10">
@@ -12066,7 +12066,7 @@
       <c r="AA132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC132" s="29" t="s">
+      <c r="AC132" s="33" t="s">
         <v>43</v>
       </c>
       <c r="AD132" s="10">
@@ -12092,7 +12092,7 @@
       </c>
     </row>
     <row r="133" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B133" s="29"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="10">
         <v>2</v>
       </c>
@@ -12114,7 +12114,7 @@
       <c r="I133" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K133" s="29"/>
+      <c r="K133" s="33"/>
       <c r="L133" s="10">
         <v>2</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>41</v>
       </c>
       <c r="R133" s="10"/>
-      <c r="T133" s="29"/>
+      <c r="T133" s="33"/>
       <c r="U133" s="10">
         <v>2</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="AA133" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC133" s="29"/>
+      <c r="AC133" s="33"/>
       <c r="AD133" s="10">
         <v>2</v>
       </c>
@@ -12180,7 +12180,7 @@
       </c>
     </row>
     <row r="134" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B134" s="29"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="10">
         <v>3</v>
       </c>
@@ -12202,7 +12202,7 @@
       <c r="I134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K134" s="29"/>
+      <c r="K134" s="33"/>
       <c r="L134" s="10">
         <v>3</v>
       </c>
@@ -12224,7 +12224,7 @@
       <c r="R134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T134" s="29"/>
+      <c r="T134" s="33"/>
       <c r="U134" s="10">
         <v>3</v>
       </c>
@@ -12246,7 +12246,7 @@
       <c r="AA134" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC134" s="29"/>
+      <c r="AC134" s="33"/>
       <c r="AD134" s="10">
         <v>3</v>
       </c>
@@ -12348,7 +12348,7 @@
       <c r="AJ135" s="8"/>
     </row>
     <row r="136" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C136" s="10">
@@ -12372,7 +12372,7 @@
       <c r="I136" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K136" s="29" t="s">
+      <c r="K136" s="33" t="s">
         <v>47</v>
       </c>
       <c r="L136" s="10">
@@ -12396,7 +12396,7 @@
       <c r="R136" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T136" s="29" t="s">
+      <c r="T136" s="33" t="s">
         <v>47</v>
       </c>
       <c r="U136" s="10">
@@ -12420,7 +12420,7 @@
       <c r="AA136" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC136" s="29" t="s">
+      <c r="AC136" s="33" t="s">
         <v>47</v>
       </c>
       <c r="AD136" s="10">
@@ -12444,7 +12444,7 @@
       </c>
     </row>
     <row r="137" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B137" s="29"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="10">
         <v>2</v>
       </c>
@@ -12466,7 +12466,7 @@
       <c r="I137" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K137" s="29"/>
+      <c r="K137" s="33"/>
       <c r="L137" s="10">
         <v>2</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>41</v>
       </c>
       <c r="R137" s="10"/>
-      <c r="T137" s="29"/>
+      <c r="T137" s="33"/>
       <c r="U137" s="10">
         <v>2</v>
       </c>
@@ -12506,7 +12506,7 @@
       <c r="AA137" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC137" s="29"/>
+      <c r="AC137" s="33"/>
       <c r="AD137" s="10">
         <v>2</v>
       </c>
@@ -12530,7 +12530,7 @@
       </c>
     </row>
     <row r="138" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B138" s="29"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="10">
         <v>3</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="I138" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K138" s="29"/>
+      <c r="K138" s="33"/>
       <c r="L138" s="10">
         <v>3</v>
       </c>
@@ -12572,7 +12572,7 @@
       <c r="R138" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T138" s="29"/>
+      <c r="T138" s="33"/>
       <c r="U138" s="10">
         <v>3</v>
       </c>
@@ -12594,7 +12594,7 @@
       <c r="AA138" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC138" s="29"/>
+      <c r="AC138" s="33"/>
       <c r="AD138" s="10">
         <v>3</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="AJ139" s="8"/>
     </row>
     <row r="140" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C140" s="10">
@@ -12722,7 +12722,7 @@
       <c r="I140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K140" s="29" t="s">
+      <c r="K140" s="33" t="s">
         <v>52</v>
       </c>
       <c r="L140" s="10">
@@ -12746,7 +12746,7 @@
       <c r="R140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T140" s="29" t="s">
+      <c r="T140" s="33" t="s">
         <v>52</v>
       </c>
       <c r="U140" s="10">
@@ -12770,7 +12770,7 @@
       <c r="AA140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC140" s="29" t="s">
+      <c r="AC140" s="33" t="s">
         <v>52</v>
       </c>
       <c r="AD140" s="10">
@@ -12794,7 +12794,7 @@
       </c>
     </row>
     <row r="141" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B141" s="29"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="10">
         <v>2</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="I141" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K141" s="29"/>
+      <c r="K141" s="33"/>
       <c r="L141" s="10">
         <v>2</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>41</v>
       </c>
       <c r="R141" s="10"/>
-      <c r="T141" s="29"/>
+      <c r="T141" s="33"/>
       <c r="U141" s="10">
         <v>2</v>
       </c>
@@ -12858,7 +12858,7 @@
       <c r="AA141" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC141" s="29"/>
+      <c r="AC141" s="33"/>
       <c r="AD141" s="10">
         <v>2</v>
       </c>
@@ -12882,7 +12882,7 @@
       </c>
     </row>
     <row r="142" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B142" s="29"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="10">
         <v>3</v>
       </c>
@@ -12904,7 +12904,7 @@
       <c r="I142" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K142" s="29"/>
+      <c r="K142" s="33"/>
       <c r="L142" s="10">
         <v>3</v>
       </c>
@@ -12926,7 +12926,7 @@
       <c r="R142" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T142" s="29"/>
+      <c r="T142" s="33"/>
       <c r="U142" s="10">
         <v>3</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="AA142" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC142" s="29"/>
+      <c r="AC142" s="33"/>
       <c r="AD142" s="10">
         <v>3</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="AJ143" s="8"/>
     </row>
     <row r="144" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C144" s="10">
@@ -13076,7 +13076,7 @@
       <c r="I144" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K144" s="29" t="s">
+      <c r="K144" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L144" s="10">
@@ -13098,7 +13098,7 @@
         <v>41</v>
       </c>
       <c r="R144" s="10"/>
-      <c r="T144" s="29" t="s">
+      <c r="T144" s="33" t="s">
         <v>53</v>
       </c>
       <c r="U144" s="10">
@@ -13122,7 +13122,7 @@
       <c r="AA144" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC144" s="29" t="s">
+      <c r="AC144" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AD144" s="10">
@@ -13146,7 +13146,7 @@
       <c r="AJ144" s="10"/>
     </row>
     <row r="145" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B145" s="29"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="10">
         <v>2</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="I145" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K145" s="29"/>
+      <c r="K145" s="33"/>
       <c r="L145" s="10">
         <v>2</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>41</v>
       </c>
       <c r="R145" s="10"/>
-      <c r="T145" s="29"/>
+      <c r="T145" s="33"/>
       <c r="U145" s="10">
         <v>2</v>
       </c>
@@ -13210,7 +13210,7 @@
       <c r="AA145" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC145" s="29"/>
+      <c r="AC145" s="33"/>
       <c r="AD145" s="10">
         <v>2</v>
       </c>
@@ -13234,7 +13234,7 @@
       </c>
     </row>
     <row r="146" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B146" s="29"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="10">
         <v>3</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="I146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K146" s="29"/>
+      <c r="K146" s="33"/>
       <c r="L146" s="10">
         <v>3</v>
       </c>
@@ -13278,7 +13278,7 @@
       <c r="R146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T146" s="29"/>
+      <c r="T146" s="33"/>
       <c r="U146" s="10">
         <v>3</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="AA146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC146" s="29"/>
+      <c r="AC146" s="33"/>
       <c r="AD146" s="10">
         <v>3</v>
       </c>
@@ -13406,7 +13406,7 @@
       <c r="AJ147" s="8"/>
     </row>
     <row r="148" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B148" s="29" t="s">
+      <c r="B148" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C148" s="10">
@@ -13430,7 +13430,7 @@
       <c r="I148" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K148" s="29" t="s">
+      <c r="K148" s="33" t="s">
         <v>57</v>
       </c>
       <c r="L148" s="10">
@@ -13452,7 +13452,7 @@
         <v>95</v>
       </c>
       <c r="R148" s="10"/>
-      <c r="T148" s="29" t="s">
+      <c r="T148" s="33" t="s">
         <v>57</v>
       </c>
       <c r="U148" s="10">
@@ -13476,7 +13476,7 @@
       <c r="AA148" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC148" s="29" t="s">
+      <c r="AC148" s="33" t="s">
         <v>57</v>
       </c>
       <c r="AD148" s="10">
@@ -13498,7 +13498,7 @@
       <c r="AJ148" s="10"/>
     </row>
     <row r="149" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B149" s="29"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="10">
         <v>2</v>
       </c>
@@ -13520,7 +13520,7 @@
       <c r="I149" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K149" s="29"/>
+      <c r="K149" s="33"/>
       <c r="L149" s="10">
         <v>2</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>41</v>
       </c>
       <c r="R149" s="10"/>
-      <c r="T149" s="29"/>
+      <c r="T149" s="33"/>
       <c r="U149" s="10">
         <v>2</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="AA149" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC149" s="29"/>
+      <c r="AC149" s="33"/>
       <c r="AD149" s="10">
         <v>2</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
     </row>
     <row r="150" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B150" s="29"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="10">
         <v>3</v>
       </c>
@@ -13608,7 +13608,7 @@
       <c r="I150" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K150" s="29"/>
+      <c r="K150" s="33"/>
       <c r="L150" s="10">
         <v>3</v>
       </c>
@@ -13630,7 +13630,7 @@
       <c r="R150" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T150" s="29"/>
+      <c r="T150" s="33"/>
       <c r="U150" s="10">
         <v>3</v>
       </c>
@@ -13652,7 +13652,7 @@
       <c r="AA150" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC150" s="29"/>
+      <c r="AC150" s="33"/>
       <c r="AD150" s="10">
         <v>3</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="AJ151" s="8"/>
     </row>
     <row r="152" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C152" s="10">
@@ -13782,7 +13782,7 @@
       <c r="I152" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K152" s="29" t="s">
+      <c r="K152" s="33" t="s">
         <v>58</v>
       </c>
       <c r="L152" s="10">
@@ -13804,7 +13804,7 @@
         <v>41</v>
       </c>
       <c r="R152" s="10"/>
-      <c r="T152" s="29" t="s">
+      <c r="T152" s="33" t="s">
         <v>58</v>
       </c>
       <c r="U152" s="10">
@@ -13828,7 +13828,7 @@
       <c r="AA152" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC152" s="29" t="s">
+      <c r="AC152" s="33" t="s">
         <v>58</v>
       </c>
       <c r="AD152" s="10">
@@ -13854,7 +13854,7 @@
       </c>
     </row>
     <row r="153" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B153" s="29"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="10">
         <v>2</v>
       </c>
@@ -13876,7 +13876,7 @@
       <c r="I153" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K153" s="29"/>
+      <c r="K153" s="33"/>
       <c r="L153" s="10">
         <v>2</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>41</v>
       </c>
       <c r="R153" s="10"/>
-      <c r="T153" s="29"/>
+      <c r="T153" s="33"/>
       <c r="U153" s="10">
         <v>2</v>
       </c>
@@ -13918,7 +13918,7 @@
       <c r="AA153" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC153" s="29"/>
+      <c r="AC153" s="33"/>
       <c r="AD153" s="10">
         <v>2</v>
       </c>
@@ -13942,7 +13942,7 @@
       </c>
     </row>
     <row r="154" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B154" s="29"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="10">
         <v>3</v>
       </c>
@@ -13964,7 +13964,7 @@
       <c r="I154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K154" s="29"/>
+      <c r="K154" s="33"/>
       <c r="L154" s="10">
         <v>3</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="R154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T154" s="29"/>
+      <c r="T154" s="33"/>
       <c r="U154" s="10">
         <v>3</v>
       </c>
@@ -14008,7 +14008,7 @@
       <c r="AA154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC154" s="29"/>
+      <c r="AC154" s="33"/>
       <c r="AD154" s="10">
         <v>3</v>
       </c>
@@ -14114,7 +14114,7 @@
       <c r="AJ155" s="8"/>
     </row>
     <row r="156" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C156" s="10">
@@ -14138,7 +14138,7 @@
       <c r="I156" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K156" s="29" t="s">
+      <c r="K156" s="33" t="s">
         <v>62</v>
       </c>
       <c r="L156" s="10">
@@ -14160,7 +14160,7 @@
         <v>41</v>
       </c>
       <c r="R156" s="10"/>
-      <c r="T156" s="29" t="s">
+      <c r="T156" s="33" t="s">
         <v>62</v>
       </c>
       <c r="U156" s="10">
@@ -14184,7 +14184,7 @@
       <c r="AA156" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC156" s="29" t="s">
+      <c r="AC156" s="33" t="s">
         <v>62</v>
       </c>
       <c r="AD156" s="10">
@@ -14210,7 +14210,7 @@
       </c>
     </row>
     <row r="157" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B157" s="29"/>
+      <c r="B157" s="33"/>
       <c r="C157" s="10">
         <v>2</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="I157" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K157" s="29"/>
+      <c r="K157" s="33"/>
       <c r="L157" s="10">
         <v>2</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>41</v>
       </c>
       <c r="R157" s="10"/>
-      <c r="T157" s="29"/>
+      <c r="T157" s="33"/>
       <c r="U157" s="10">
         <v>2</v>
       </c>
@@ -14274,7 +14274,7 @@
       <c r="AA157" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC157" s="29"/>
+      <c r="AC157" s="33"/>
       <c r="AD157" s="10">
         <v>2</v>
       </c>
@@ -14298,7 +14298,7 @@
       </c>
     </row>
     <row r="158" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B158" s="29"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="10">
         <v>3</v>
       </c>
@@ -14320,7 +14320,7 @@
       <c r="I158" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K158" s="29"/>
+      <c r="K158" s="33"/>
       <c r="L158" s="10">
         <v>3</v>
       </c>
@@ -14342,7 +14342,7 @@
       <c r="R158" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T158" s="29"/>
+      <c r="T158" s="33"/>
       <c r="U158" s="10">
         <v>3</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="AA158" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC158" s="29"/>
+      <c r="AC158" s="33"/>
       <c r="AD158" s="10">
         <v>3</v>
       </c>
@@ -14466,7 +14466,7 @@
       <c r="AJ159" s="8"/>
     </row>
     <row r="160" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B160" s="29" t="s">
+      <c r="B160" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C160" s="10">
@@ -14490,7 +14490,7 @@
       <c r="I160" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K160" s="29" t="s">
+      <c r="K160" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L160" s="10">
@@ -14512,7 +14512,7 @@
         <v>41</v>
       </c>
       <c r="R160" s="10"/>
-      <c r="T160" s="29" t="s">
+      <c r="T160" s="33" t="s">
         <v>65</v>
       </c>
       <c r="U160" s="10">
@@ -14536,7 +14536,7 @@
       <c r="AA160" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC160" s="29" t="s">
+      <c r="AC160" s="33" t="s">
         <v>65</v>
       </c>
       <c r="AD160" s="10">
@@ -14560,7 +14560,7 @@
       <c r="AJ160" s="10"/>
     </row>
     <row r="161" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B161" s="29"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="10">
         <v>2</v>
       </c>
@@ -14582,7 +14582,7 @@
       <c r="I161" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K161" s="29"/>
+      <c r="K161" s="33"/>
       <c r="L161" s="10">
         <v>2</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>41</v>
       </c>
       <c r="R161" s="10"/>
-      <c r="T161" s="29"/>
+      <c r="T161" s="33"/>
       <c r="U161" s="10">
         <v>2</v>
       </c>
@@ -14624,7 +14624,7 @@
       <c r="AA161" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC161" s="29"/>
+      <c r="AC161" s="33"/>
       <c r="AD161" s="10">
         <v>2</v>
       </c>
@@ -14648,7 +14648,7 @@
       </c>
     </row>
     <row r="162" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B162" s="29"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="10">
         <v>3</v>
       </c>
@@ -14670,7 +14670,7 @@
       <c r="I162" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K162" s="29"/>
+      <c r="K162" s="33"/>
       <c r="L162" s="10">
         <v>3</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="R162" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T162" s="29"/>
+      <c r="T162" s="33"/>
       <c r="U162" s="10">
         <v>3</v>
       </c>
@@ -14714,7 +14714,7 @@
       <c r="AA162" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC162" s="29"/>
+      <c r="AC162" s="33"/>
       <c r="AD162" s="10">
         <v>3</v>
       </c>
@@ -14820,7 +14820,7 @@
       <c r="AJ163" s="8"/>
     </row>
     <row r="164" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B164" s="29" t="s">
+      <c r="B164" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C164" s="10">
@@ -14844,7 +14844,7 @@
       <c r="I164" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K164" s="29" t="s">
+      <c r="K164" s="33" t="s">
         <v>67</v>
       </c>
       <c r="L164" s="10">
@@ -14866,7 +14866,7 @@
         <v>84</v>
       </c>
       <c r="R164" s="10"/>
-      <c r="T164" s="29" t="s">
+      <c r="T164" s="33" t="s">
         <v>67</v>
       </c>
       <c r="U164" s="10">
@@ -14890,7 +14890,7 @@
       <c r="AA164" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC164" s="29" t="s">
+      <c r="AC164" s="33" t="s">
         <v>67</v>
       </c>
       <c r="AD164" s="10">
@@ -14916,7 +14916,7 @@
       </c>
     </row>
     <row r="165" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B165" s="29"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="10">
         <v>2</v>
       </c>
@@ -14938,7 +14938,7 @@
       <c r="I165" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K165" s="29"/>
+      <c r="K165" s="33"/>
       <c r="L165" s="10">
         <v>2</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>41</v>
       </c>
       <c r="R165" s="10"/>
-      <c r="T165" s="29"/>
+      <c r="T165" s="33"/>
       <c r="U165" s="10">
         <v>2</v>
       </c>
@@ -14980,7 +14980,7 @@
       <c r="AA165" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC165" s="29"/>
+      <c r="AC165" s="33"/>
       <c r="AD165" s="10">
         <v>2</v>
       </c>
@@ -15002,7 +15002,7 @@
       <c r="AJ165" s="10"/>
     </row>
     <row r="166" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B166" s="29"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="10">
         <v>3</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="I166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K166" s="29"/>
+      <c r="K166" s="33"/>
       <c r="L166" s="10">
         <v>3</v>
       </c>
@@ -15046,7 +15046,7 @@
       <c r="R166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T166" s="29"/>
+      <c r="T166" s="33"/>
       <c r="U166" s="10">
         <v>3</v>
       </c>
@@ -15068,7 +15068,7 @@
       <c r="AA166" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC166" s="29"/>
+      <c r="AC166" s="33"/>
       <c r="AD166" s="10">
         <v>3</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="AJ167" s="8"/>
     </row>
     <row r="168" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B168" s="29" t="s">
+      <c r="B168" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C168" s="10">
@@ -15196,7 +15196,7 @@
       <c r="I168" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K168" s="29" t="s">
+      <c r="K168" s="33" t="s">
         <v>71</v>
       </c>
       <c r="L168" s="10">
@@ -15218,7 +15218,7 @@
         <v>41</v>
       </c>
       <c r="R168" s="10"/>
-      <c r="T168" s="29" t="s">
+      <c r="T168" s="33" t="s">
         <v>71</v>
       </c>
       <c r="U168" s="10">
@@ -15242,7 +15242,7 @@
       <c r="AA168" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC168" s="29" t="s">
+      <c r="AC168" s="33" t="s">
         <v>71</v>
       </c>
       <c r="AD168" s="10">
@@ -15268,7 +15268,7 @@
       </c>
     </row>
     <row r="169" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B169" s="29"/>
+      <c r="B169" s="33"/>
       <c r="C169" s="10">
         <v>2</v>
       </c>
@@ -15290,7 +15290,7 @@
       <c r="I169" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K169" s="29"/>
+      <c r="K169" s="33"/>
       <c r="L169" s="10">
         <v>2</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>41</v>
       </c>
       <c r="R169" s="10"/>
-      <c r="T169" s="29"/>
+      <c r="T169" s="33"/>
       <c r="U169" s="10">
         <v>2</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="AA169" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC169" s="29"/>
+      <c r="AC169" s="33"/>
       <c r="AD169" s="10">
         <v>2</v>
       </c>
@@ -15356,7 +15356,7 @@
       </c>
     </row>
     <row r="170" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B170" s="29"/>
+      <c r="B170" s="33"/>
       <c r="C170" s="10">
         <v>3</v>
       </c>
@@ -15378,7 +15378,7 @@
       <c r="I170" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K170" s="29"/>
+      <c r="K170" s="33"/>
       <c r="L170" s="10">
         <v>3</v>
       </c>
@@ -15400,7 +15400,7 @@
       <c r="R170" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T170" s="29"/>
+      <c r="T170" s="33"/>
       <c r="U170" s="10">
         <v>3</v>
       </c>
@@ -15422,7 +15422,7 @@
       <c r="AA170" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC170" s="29"/>
+      <c r="AC170" s="33"/>
       <c r="AD170" s="10">
         <v>3</v>
       </c>
@@ -15528,7 +15528,7 @@
       <c r="AJ171" s="8"/>
     </row>
     <row r="172" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C172" s="10">
@@ -15552,7 +15552,7 @@
       <c r="I172" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K172" s="29" t="s">
+      <c r="K172" s="33" t="s">
         <v>73</v>
       </c>
       <c r="L172" s="10">
@@ -15574,7 +15574,7 @@
         <v>95</v>
       </c>
       <c r="R172" s="10"/>
-      <c r="T172" s="29" t="s">
+      <c r="T172" s="33" t="s">
         <v>73</v>
       </c>
       <c r="U172" s="10">
@@ -15598,7 +15598,7 @@
       <c r="AA172" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC172" s="29" t="s">
+      <c r="AC172" s="33" t="s">
         <v>73</v>
       </c>
       <c r="AD172" s="10">
@@ -15620,7 +15620,7 @@
       <c r="AJ172" s="10"/>
     </row>
     <row r="173" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B173" s="29"/>
+      <c r="B173" s="33"/>
       <c r="C173" s="10">
         <v>2</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="I173" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K173" s="29"/>
+      <c r="K173" s="33"/>
       <c r="L173" s="10">
         <v>2</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>41</v>
       </c>
       <c r="R173" s="10"/>
-      <c r="T173" s="29"/>
+      <c r="T173" s="33"/>
       <c r="U173" s="10">
         <v>2</v>
       </c>
@@ -15684,7 +15684,7 @@
       <c r="AA173" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC173" s="29"/>
+      <c r="AC173" s="33"/>
       <c r="AD173" s="10">
         <v>2</v>
       </c>
@@ -15708,7 +15708,7 @@
       </c>
     </row>
     <row r="174" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B174" s="29"/>
+      <c r="B174" s="33"/>
       <c r="C174" s="10">
         <v>3</v>
       </c>
@@ -15730,7 +15730,7 @@
       <c r="I174" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K174" s="29"/>
+      <c r="K174" s="33"/>
       <c r="L174" s="10">
         <v>3</v>
       </c>
@@ -15752,7 +15752,7 @@
       <c r="R174" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T174" s="29"/>
+      <c r="T174" s="33"/>
       <c r="U174" s="10">
         <v>3</v>
       </c>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="Z174" s="11"/>
       <c r="AA174" s="10"/>
-      <c r="AC174" s="29"/>
+      <c r="AC174" s="33"/>
       <c r="AD174" s="10">
         <v>3</v>
       </c>
@@ -15872,7 +15872,7 @@
       <c r="AJ175" s="8"/>
     </row>
     <row r="176" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B176" s="29" t="s">
+      <c r="B176" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C176" s="10">
@@ -15896,7 +15896,7 @@
       <c r="I176" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K176" s="29" t="s">
+      <c r="K176" s="33" t="s">
         <v>76</v>
       </c>
       <c r="L176" s="10">
@@ -15918,7 +15918,7 @@
         <v>41</v>
       </c>
       <c r="R176" s="10"/>
-      <c r="T176" s="29" t="s">
+      <c r="T176" s="33" t="s">
         <v>76</v>
       </c>
       <c r="U176" s="10">
@@ -15942,7 +15942,7 @@
       <c r="AA176" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC176" s="29" t="s">
+      <c r="AC176" s="33" t="s">
         <v>76</v>
       </c>
       <c r="AD176" s="10">
@@ -15968,7 +15968,7 @@
       </c>
     </row>
     <row r="177" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B177" s="29"/>
+      <c r="B177" s="33"/>
       <c r="C177" s="10">
         <v>2</v>
       </c>
@@ -15990,7 +15990,7 @@
       <c r="I177" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K177" s="29"/>
+      <c r="K177" s="33"/>
       <c r="L177" s="10">
         <v>2</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>41</v>
       </c>
       <c r="R177" s="10"/>
-      <c r="T177" s="29"/>
+      <c r="T177" s="33"/>
       <c r="U177" s="10">
         <v>2</v>
       </c>
@@ -16032,7 +16032,7 @@
       <c r="AA177" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC177" s="29"/>
+      <c r="AC177" s="33"/>
       <c r="AD177" s="10">
         <v>2</v>
       </c>
@@ -16056,7 +16056,7 @@
       </c>
     </row>
     <row r="178" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B178" s="29"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="10">
         <v>3</v>
       </c>
@@ -16078,7 +16078,7 @@
       <c r="I178" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K178" s="29"/>
+      <c r="K178" s="33"/>
       <c r="L178" s="10">
         <v>3</v>
       </c>
@@ -16100,7 +16100,7 @@
       <c r="R178" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T178" s="29"/>
+      <c r="T178" s="33"/>
       <c r="U178" s="10">
         <v>3</v>
       </c>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="Z178" s="11"/>
       <c r="AA178" s="10"/>
-      <c r="AC178" s="29"/>
+      <c r="AC178" s="33"/>
       <c r="AD178" s="10">
         <v>3</v>
       </c>
@@ -16222,7 +16222,7 @@
       <c r="AJ179" s="8"/>
     </row>
     <row r="180" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B180" s="29" t="s">
+      <c r="B180" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="10">
@@ -16246,7 +16246,7 @@
       <c r="I180" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K180" s="29" t="s">
+      <c r="K180" s="33" t="s">
         <v>77</v>
       </c>
       <c r="L180" s="10">
@@ -16268,7 +16268,7 @@
         <v>41</v>
       </c>
       <c r="R180" s="10"/>
-      <c r="T180" s="29" t="s">
+      <c r="T180" s="33" t="s">
         <v>77</v>
       </c>
       <c r="U180" s="10">
@@ -16292,7 +16292,7 @@
       <c r="AA180" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC180" s="29" t="s">
+      <c r="AC180" s="33" t="s">
         <v>77</v>
       </c>
       <c r="AD180" s="10">
@@ -16318,7 +16318,7 @@
       </c>
     </row>
     <row r="181" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B181" s="29"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="10">
         <v>2</v>
       </c>
@@ -16340,7 +16340,7 @@
       <c r="I181" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K181" s="29"/>
+      <c r="K181" s="33"/>
       <c r="L181" s="10">
         <v>2</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>41</v>
       </c>
       <c r="R181" s="10"/>
-      <c r="T181" s="29"/>
+      <c r="T181" s="33"/>
       <c r="U181" s="10">
         <v>2</v>
       </c>
@@ -16382,7 +16382,7 @@
       <c r="AA181" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC181" s="29"/>
+      <c r="AC181" s="33"/>
       <c r="AD181" s="10">
         <v>2</v>
       </c>
@@ -16406,7 +16406,7 @@
       </c>
     </row>
     <row r="182" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B182" s="29"/>
+      <c r="B182" s="33"/>
       <c r="C182" s="10">
         <v>3</v>
       </c>
@@ -16428,7 +16428,7 @@
       <c r="I182" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K182" s="29"/>
+      <c r="K182" s="33"/>
       <c r="L182" s="10">
         <v>3</v>
       </c>
@@ -16450,7 +16450,7 @@
       <c r="R182" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T182" s="29"/>
+      <c r="T182" s="33"/>
       <c r="U182" s="10">
         <v>3</v>
       </c>
@@ -16472,7 +16472,7 @@
       <c r="AA182" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC182" s="29"/>
+      <c r="AC182" s="33"/>
       <c r="AD182" s="10">
         <v>3</v>
       </c>
@@ -16578,7 +16578,7 @@
       <c r="AJ183" s="8"/>
     </row>
     <row r="184" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B184" s="29" t="s">
+      <c r="B184" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C184" s="10">
@@ -16602,7 +16602,7 @@
       <c r="I184" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K184" s="29" t="s">
+      <c r="K184" s="33" t="s">
         <v>78</v>
       </c>
       <c r="L184" s="10">
@@ -16622,7 +16622,7 @@
       </c>
       <c r="Q184" s="11"/>
       <c r="R184" s="10"/>
-      <c r="T184" s="29" t="s">
+      <c r="T184" s="33" t="s">
         <v>78</v>
       </c>
       <c r="U184" s="10">
@@ -16646,7 +16646,7 @@
       <c r="AA184" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC184" s="29" t="s">
+      <c r="AC184" s="33" t="s">
         <v>78</v>
       </c>
       <c r="AD184" s="10">
@@ -16672,7 +16672,7 @@
       </c>
     </row>
     <row r="185" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B185" s="29"/>
+      <c r="B185" s="33"/>
       <c r="C185" s="10">
         <v>2</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="I185" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K185" s="29"/>
+      <c r="K185" s="33"/>
       <c r="L185" s="10">
         <v>2</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>41</v>
       </c>
       <c r="R185" s="10"/>
-      <c r="T185" s="29"/>
+      <c r="T185" s="33"/>
       <c r="U185" s="10">
         <v>2</v>
       </c>
@@ -16736,7 +16736,7 @@
       <c r="AA185" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC185" s="29"/>
+      <c r="AC185" s="33"/>
       <c r="AD185" s="10">
         <v>2</v>
       </c>
@@ -16760,7 +16760,7 @@
       </c>
     </row>
     <row r="186" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B186" s="29"/>
+      <c r="B186" s="33"/>
       <c r="C186" s="10">
         <v>3</v>
       </c>
@@ -16782,7 +16782,7 @@
       <c r="I186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K186" s="29"/>
+      <c r="K186" s="33"/>
       <c r="L186" s="10">
         <v>3</v>
       </c>
@@ -16804,7 +16804,7 @@
       <c r="R186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T186" s="29"/>
+      <c r="T186" s="33"/>
       <c r="U186" s="10">
         <v>3</v>
       </c>
@@ -16826,7 +16826,7 @@
       <c r="AA186" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC186" s="29"/>
+      <c r="AC186" s="33"/>
       <c r="AD186" s="10">
         <v>3</v>
       </c>
@@ -16932,7 +16932,7 @@
       <c r="AJ187" s="8"/>
     </row>
     <row r="188" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B188" s="29" t="s">
+      <c r="B188" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="10">
@@ -16956,7 +16956,7 @@
       <c r="I188" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K188" s="29" t="s">
+      <c r="K188" s="33" t="s">
         <v>79</v>
       </c>
       <c r="L188" s="10">
@@ -16978,7 +16978,7 @@
         <v>41</v>
       </c>
       <c r="R188" s="10"/>
-      <c r="T188" s="29" t="s">
+      <c r="T188" s="33" t="s">
         <v>79</v>
       </c>
       <c r="U188" s="10">
@@ -17002,7 +17002,7 @@
       <c r="AA188" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC188" s="29" t="s">
+      <c r="AC188" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AD188" s="10">
@@ -17028,7 +17028,7 @@
       </c>
     </row>
     <row r="189" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B189" s="29"/>
+      <c r="B189" s="33"/>
       <c r="C189" s="10">
         <v>2</v>
       </c>
@@ -17050,7 +17050,7 @@
       <c r="I189" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K189" s="29"/>
+      <c r="K189" s="33"/>
       <c r="L189" s="10">
         <v>2</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>41</v>
       </c>
       <c r="R189" s="10"/>
-      <c r="T189" s="29"/>
+      <c r="T189" s="33"/>
       <c r="U189" s="10">
         <v>2</v>
       </c>
@@ -17092,7 +17092,7 @@
       <c r="AA189" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC189" s="29"/>
+      <c r="AC189" s="33"/>
       <c r="AD189" s="10">
         <v>2</v>
       </c>
@@ -17116,7 +17116,7 @@
       </c>
     </row>
     <row r="190" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B190" s="29"/>
+      <c r="B190" s="33"/>
       <c r="C190" s="10">
         <v>3</v>
       </c>
@@ -17138,7 +17138,7 @@
       <c r="I190" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K190" s="29"/>
+      <c r="K190" s="33"/>
       <c r="L190" s="10">
         <v>3</v>
       </c>
@@ -17160,7 +17160,7 @@
       <c r="R190" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T190" s="29"/>
+      <c r="T190" s="33"/>
       <c r="U190" s="10">
         <v>3</v>
       </c>
@@ -17182,7 +17182,7 @@
       <c r="AA190" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC190" s="29"/>
+      <c r="AC190" s="33"/>
       <c r="AD190" s="10">
         <v>3</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="AJ191" s="8"/>
     </row>
     <row r="192" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B192" s="29" t="s">
+      <c r="B192" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C192" s="10">
@@ -17308,7 +17308,7 @@
       <c r="I192" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K192" s="29" t="s">
+      <c r="K192" s="33" t="s">
         <v>81</v>
       </c>
       <c r="L192" s="10">
@@ -17330,7 +17330,7 @@
         <v>96</v>
       </c>
       <c r="R192" s="10"/>
-      <c r="T192" s="29" t="s">
+      <c r="T192" s="33" t="s">
         <v>81</v>
       </c>
       <c r="U192" s="10">
@@ -17354,7 +17354,7 @@
       <c r="AA192" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC192" s="29" t="s">
+      <c r="AC192" s="33" t="s">
         <v>81</v>
       </c>
       <c r="AD192" s="10">
@@ -17380,7 +17380,7 @@
       </c>
     </row>
     <row r="193" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B193" s="29"/>
+      <c r="B193" s="33"/>
       <c r="C193" s="10">
         <v>2</v>
       </c>
@@ -17402,7 +17402,7 @@
       <c r="I193" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K193" s="29"/>
+      <c r="K193" s="33"/>
       <c r="L193" s="10">
         <v>2</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>96</v>
       </c>
       <c r="R193" s="10"/>
-      <c r="T193" s="29"/>
+      <c r="T193" s="33"/>
       <c r="U193" s="10">
         <v>2</v>
       </c>
@@ -17444,7 +17444,7 @@
       <c r="AA193" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC193" s="29"/>
+      <c r="AC193" s="33"/>
       <c r="AD193" s="10">
         <v>2</v>
       </c>
@@ -17468,7 +17468,7 @@
       </c>
     </row>
     <row r="194" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B194" s="29"/>
+      <c r="B194" s="33"/>
       <c r="C194" s="10">
         <v>3</v>
       </c>
@@ -17490,7 +17490,7 @@
       <c r="I194" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K194" s="29"/>
+      <c r="K194" s="33"/>
       <c r="L194" s="10">
         <v>3</v>
       </c>
@@ -17512,7 +17512,7 @@
       <c r="R194" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T194" s="29"/>
+      <c r="T194" s="33"/>
       <c r="U194" s="10">
         <v>3</v>
       </c>
@@ -17534,7 +17534,7 @@
       <c r="AA194" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC194" s="29"/>
+      <c r="AC194" s="33"/>
       <c r="AD194" s="10">
         <v>3</v>
       </c>
@@ -17920,7 +17920,7 @@
       </c>
     </row>
     <row r="204" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B204" s="29" t="s">
+      <c r="B204" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C204" s="14" t="s">
@@ -17942,7 +17942,7 @@
         <v>25</v>
       </c>
       <c r="I204" s="14"/>
-      <c r="K204" s="29" t="s">
+      <c r="K204" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L204" s="14" t="s">
@@ -17984,7 +17984,7 @@
       <c r="AJ204" s="19"/>
     </row>
     <row r="205" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B205" s="29"/>
+      <c r="B205" s="33"/>
       <c r="C205" s="14" t="s">
         <v>26</v>
       </c>
@@ -18006,7 +18006,7 @@
       <c r="I205" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K205" s="29"/>
+      <c r="K205" s="33"/>
       <c r="L205" s="14" t="s">
         <v>26</v>
       </c>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="Q205" s="15"/>
       <c r="R205" s="14"/>
-      <c r="T205" s="29" t="s">
+      <c r="T205" s="33" t="s">
         <v>19</v>
       </c>
       <c r="U205" s="17" t="s">
@@ -18048,7 +18048,7 @@
       <c r="AA205" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC205" s="29" t="s">
+      <c r="AC205" s="33" t="s">
         <v>19</v>
       </c>
       <c r="AD205" s="19" t="s">
@@ -18074,7 +18074,7 @@
       </c>
     </row>
     <row r="206" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B206" s="29"/>
+      <c r="B206" s="33"/>
       <c r="C206" s="14" t="s">
         <v>30</v>
       </c>
@@ -18096,7 +18096,7 @@
       <c r="I206" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K206" s="29"/>
+      <c r="K206" s="33"/>
       <c r="L206" s="14" t="s">
         <v>30</v>
       </c>
@@ -18118,7 +18118,7 @@
       <c r="R206" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T206" s="29"/>
+      <c r="T206" s="33"/>
       <c r="U206" s="17" t="s">
         <v>26</v>
       </c>
@@ -18140,7 +18140,7 @@
       <c r="AA206" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC206" s="29"/>
+      <c r="AC206" s="33"/>
       <c r="AD206" s="19" t="s">
         <v>26</v>
       </c>
@@ -18208,7 +18208,7 @@
       </c>
       <c r="Q207" s="9"/>
       <c r="R207" s="8"/>
-      <c r="T207" s="29"/>
+      <c r="T207" s="33"/>
       <c r="U207" s="17" t="s">
         <v>30</v>
       </c>
@@ -18226,7 +18226,7 @@
       </c>
       <c r="Z207" s="18"/>
       <c r="AA207" s="17"/>
-      <c r="AC207" s="29"/>
+      <c r="AC207" s="33"/>
       <c r="AD207" s="19" t="s">
         <v>30</v>
       </c>
@@ -18246,7 +18246,7 @@
       <c r="AJ207" s="19"/>
     </row>
     <row r="208" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B208" s="29" t="s">
+      <c r="B208" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C208" s="14">
@@ -18268,7 +18268,7 @@
         <v>25</v>
       </c>
       <c r="I208" s="14"/>
-      <c r="K208" s="29" t="s">
+      <c r="K208" s="33" t="s">
         <v>33</v>
       </c>
       <c r="L208" s="14">
@@ -18338,7 +18338,7 @@
       <c r="AJ208" s="8"/>
     </row>
     <row r="209" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B209" s="29"/>
+      <c r="B209" s="33"/>
       <c r="C209" s="14">
         <v>2</v>
       </c>
@@ -18360,7 +18360,7 @@
       <c r="I209" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K209" s="29"/>
+      <c r="K209" s="33"/>
       <c r="L209" s="14">
         <v>2</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>107</v>
       </c>
       <c r="R209" s="14"/>
-      <c r="T209" s="29" t="s">
+      <c r="T209" s="33" t="s">
         <v>33</v>
       </c>
       <c r="U209" s="17">
@@ -18404,7 +18404,7 @@
       <c r="AA209" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC209" s="29" t="s">
+      <c r="AC209" s="33" t="s">
         <v>33</v>
       </c>
       <c r="AD209" s="19">
@@ -18430,7 +18430,7 @@
       </c>
     </row>
     <row r="210" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B210" s="29"/>
+      <c r="B210" s="33"/>
       <c r="C210" s="14">
         <v>3</v>
       </c>
@@ -18452,7 +18452,7 @@
       <c r="I210" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K210" s="29"/>
+      <c r="K210" s="33"/>
       <c r="L210" s="14">
         <v>3</v>
       </c>
@@ -18474,7 +18474,7 @@
       <c r="R210" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T210" s="29"/>
+      <c r="T210" s="33"/>
       <c r="U210" s="17">
         <v>2</v>
       </c>
@@ -18496,7 +18496,7 @@
       <c r="AA210" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC210" s="29"/>
+      <c r="AC210" s="33"/>
       <c r="AD210" s="19">
         <v>2</v>
       </c>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="Q211" s="9"/>
       <c r="R211" s="8"/>
-      <c r="T211" s="29"/>
+      <c r="T211" s="33"/>
       <c r="U211" s="17">
         <v>3</v>
       </c>
@@ -18578,7 +18578,7 @@
       <c r="AA211" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC211" s="29"/>
+      <c r="AC211" s="33"/>
       <c r="AD211" s="19">
         <v>3</v>
       </c>
@@ -18600,7 +18600,7 @@
       </c>
     </row>
     <row r="212" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C212" s="14">
@@ -18624,7 +18624,7 @@
       <c r="I212" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K212" s="29" t="s">
+      <c r="K212" s="33" t="s">
         <v>36</v>
       </c>
       <c r="L212" s="14">
@@ -18690,7 +18690,7 @@
       <c r="AJ212" s="8"/>
     </row>
     <row r="213" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B213" s="29"/>
+      <c r="B213" s="33"/>
       <c r="C213" s="14">
         <v>2</v>
       </c>
@@ -18712,7 +18712,7 @@
       <c r="I213" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K213" s="29"/>
+      <c r="K213" s="33"/>
       <c r="L213" s="14">
         <v>2</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>107</v>
       </c>
       <c r="R213" s="14"/>
-      <c r="T213" s="29" t="s">
+      <c r="T213" s="33" t="s">
         <v>36</v>
       </c>
       <c r="U213" s="17">
@@ -18756,7 +18756,7 @@
       <c r="AA213" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC213" s="29" t="s">
+      <c r="AC213" s="33" t="s">
         <v>36</v>
       </c>
       <c r="AD213" s="19">
@@ -18782,7 +18782,7 @@
       </c>
     </row>
     <row r="214" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B214" s="29"/>
+      <c r="B214" s="33"/>
       <c r="C214" s="14">
         <v>3</v>
       </c>
@@ -18804,7 +18804,7 @@
       <c r="I214" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K214" s="29"/>
+      <c r="K214" s="33"/>
       <c r="L214" s="14">
         <v>3</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="R214" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T214" s="29"/>
+      <c r="T214" s="33"/>
       <c r="U214" s="17">
         <v>2</v>
       </c>
@@ -18848,7 +18848,7 @@
       <c r="AA214" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC214" s="29"/>
+      <c r="AC214" s="33"/>
       <c r="AD214" s="19">
         <v>2</v>
       </c>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="Q215" s="9"/>
       <c r="R215" s="8"/>
-      <c r="T215" s="29"/>
+      <c r="T215" s="33"/>
       <c r="U215" s="17">
         <v>3</v>
       </c>
@@ -18930,7 +18930,7 @@
       <c r="AA215" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC215" s="29"/>
+      <c r="AC215" s="33"/>
       <c r="AD215" s="19">
         <v>3</v>
       </c>
@@ -18950,7 +18950,7 @@
       <c r="AJ215" s="25"/>
     </row>
     <row r="216" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B216" s="29" t="s">
+      <c r="B216" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C216" s="14">
@@ -18974,7 +18974,7 @@
       <c r="I216" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K216" s="29" t="s">
+      <c r="K216" s="33" t="s">
         <v>39</v>
       </c>
       <c r="L216" s="14">
@@ -19040,7 +19040,7 @@
       <c r="AJ216" s="8"/>
     </row>
     <row r="217" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B217" s="29"/>
+      <c r="B217" s="33"/>
       <c r="C217" s="14">
         <v>2</v>
       </c>
@@ -19062,7 +19062,7 @@
       <c r="I217" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K217" s="29"/>
+      <c r="K217" s="33"/>
       <c r="L217" s="14">
         <v>2</v>
       </c>
@@ -19080,7 +19080,7 @@
       </c>
       <c r="Q217" s="15"/>
       <c r="R217" s="14"/>
-      <c r="T217" s="29" t="s">
+      <c r="T217" s="33" t="s">
         <v>39</v>
       </c>
       <c r="U217" s="17">
@@ -19104,7 +19104,7 @@
       <c r="AA217" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC217" s="29" t="s">
+      <c r="AC217" s="33" t="s">
         <v>39</v>
       </c>
       <c r="AD217" s="19">
@@ -19128,7 +19128,7 @@
       <c r="AJ217" s="19"/>
     </row>
     <row r="218" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B218" s="29"/>
+      <c r="B218" s="33"/>
       <c r="C218" s="14">
         <v>3</v>
       </c>
@@ -19150,7 +19150,7 @@
       <c r="I218" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K218" s="29"/>
+      <c r="K218" s="33"/>
       <c r="L218" s="14">
         <v>3</v>
       </c>
@@ -19170,7 +19170,7 @@
       <c r="R218" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T218" s="29"/>
+      <c r="T218" s="33"/>
       <c r="U218" s="17">
         <v>2</v>
       </c>
@@ -19192,7 +19192,7 @@
       <c r="AA218" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC218" s="29"/>
+      <c r="AC218" s="33"/>
       <c r="AD218" s="19">
         <v>2</v>
       </c>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="Q219" s="9"/>
       <c r="R219" s="8"/>
-      <c r="T219" s="29"/>
+      <c r="T219" s="33"/>
       <c r="U219" s="17">
         <v>3</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="AA219" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC219" s="29"/>
+      <c r="AC219" s="33"/>
       <c r="AD219" s="19">
         <v>3</v>
       </c>
@@ -19298,7 +19298,7 @@
       <c r="AJ219" s="26"/>
     </row>
     <row r="220" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B220" s="29" t="s">
+      <c r="B220" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C220" s="14">
@@ -19322,7 +19322,7 @@
       <c r="I220" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K220" s="29" t="s">
+      <c r="K220" s="33" t="s">
         <v>43</v>
       </c>
       <c r="L220" s="14">
@@ -19388,7 +19388,7 @@
       <c r="AJ220" s="8"/>
     </row>
     <row r="221" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B221" s="29"/>
+      <c r="B221" s="33"/>
       <c r="C221" s="14">
         <v>2</v>
       </c>
@@ -19410,7 +19410,7 @@
       <c r="I221" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K221" s="29"/>
+      <c r="K221" s="33"/>
       <c r="L221" s="14">
         <v>2</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>111</v>
       </c>
       <c r="R221" s="14"/>
-      <c r="T221" s="29" t="s">
+      <c r="T221" s="33" t="s">
         <v>43</v>
       </c>
       <c r="U221" s="17">
@@ -19454,7 +19454,7 @@
       <c r="AA221" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC221" s="29" t="s">
+      <c r="AC221" s="33" t="s">
         <v>43</v>
       </c>
       <c r="AD221" s="19">
@@ -19476,7 +19476,7 @@
       <c r="AJ221" s="27"/>
     </row>
     <row r="222" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B222" s="29"/>
+      <c r="B222" s="33"/>
       <c r="C222" s="14">
         <v>3</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>25</v>
       </c>
       <c r="I222" s="14"/>
-      <c r="K222" s="29"/>
+      <c r="K222" s="33"/>
       <c r="L222" s="14">
         <v>3</v>
       </c>
@@ -19518,7 +19518,7 @@
       <c r="R222" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T222" s="29"/>
+      <c r="T222" s="33"/>
       <c r="U222" s="17">
         <v>2</v>
       </c>
@@ -19540,7 +19540,7 @@
       <c r="AA222" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC222" s="29"/>
+      <c r="AC222" s="33"/>
       <c r="AD222" s="19">
         <v>2</v>
       </c>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="Q223" s="9"/>
       <c r="R223" s="8"/>
-      <c r="T223" s="29"/>
+      <c r="T223" s="33"/>
       <c r="U223" s="17">
         <v>3</v>
       </c>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="Z223" s="18"/>
       <c r="AA223" s="17"/>
-      <c r="AC223" s="29"/>
+      <c r="AC223" s="33"/>
       <c r="AD223" s="19">
         <v>3</v>
       </c>
@@ -19638,7 +19638,7 @@
       <c r="AJ223" s="27"/>
     </row>
     <row r="224" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B224" s="29" t="s">
+      <c r="B224" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C224" s="14">
@@ -19662,7 +19662,7 @@
       <c r="I224" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K224" s="29" t="s">
+      <c r="K224" s="33" t="s">
         <v>47</v>
       </c>
       <c r="L224" s="14">
@@ -19728,7 +19728,7 @@
       <c r="AJ224" s="8"/>
     </row>
     <row r="225" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B225" s="29"/>
+      <c r="B225" s="33"/>
       <c r="C225" s="14">
         <v>2</v>
       </c>
@@ -19750,7 +19750,7 @@
       <c r="I225" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K225" s="29"/>
+      <c r="K225" s="33"/>
       <c r="L225" s="14">
         <v>2</v>
       </c>
@@ -19772,7 +19772,7 @@
       <c r="R225" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T225" s="29" t="s">
+      <c r="T225" s="33" t="s">
         <v>47</v>
       </c>
       <c r="U225" s="17">
@@ -19796,7 +19796,7 @@
       <c r="AA225" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC225" s="29" t="s">
+      <c r="AC225" s="33" t="s">
         <v>47</v>
       </c>
       <c r="AD225" s="19">
@@ -19820,7 +19820,7 @@
       </c>
     </row>
     <row r="226" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B226" s="29"/>
+      <c r="B226" s="33"/>
       <c r="C226" s="14">
         <v>3</v>
       </c>
@@ -19842,7 +19842,7 @@
       <c r="I226" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K226" s="29"/>
+      <c r="K226" s="33"/>
       <c r="L226" s="14">
         <v>3</v>
       </c>
@@ -19864,7 +19864,7 @@
       <c r="R226" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T226" s="29"/>
+      <c r="T226" s="33"/>
       <c r="U226" s="17">
         <v>2</v>
       </c>
@@ -19886,7 +19886,7 @@
       <c r="AA226" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC226" s="29"/>
+      <c r="AC226" s="33"/>
       <c r="AD226" s="19">
         <v>2</v>
       </c>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="Q227" s="9"/>
       <c r="R227" s="8"/>
-      <c r="T227" s="29"/>
+      <c r="T227" s="33"/>
       <c r="U227" s="17">
         <v>3</v>
       </c>
@@ -19968,7 +19968,7 @@
       <c r="AA227" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC227" s="29"/>
+      <c r="AC227" s="33"/>
       <c r="AD227" s="19">
         <v>3</v>
       </c>
@@ -19990,7 +19990,7 @@
       </c>
     </row>
     <row r="228" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B228" s="29" t="s">
+      <c r="B228" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C228" s="14">
@@ -20014,7 +20014,7 @@
       <c r="I228" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K228" s="29" t="s">
+      <c r="K228" s="33" t="s">
         <v>52</v>
       </c>
       <c r="L228" s="14">
@@ -20080,7 +20080,7 @@
       <c r="AJ228" s="8"/>
     </row>
     <row r="229" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B229" s="29"/>
+      <c r="B229" s="33"/>
       <c r="C229" s="14">
         <v>2</v>
       </c>
@@ -20102,7 +20102,7 @@
       <c r="I229" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K229" s="29"/>
+      <c r="K229" s="33"/>
       <c r="L229" s="14">
         <v>2</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>107</v>
       </c>
       <c r="R229" s="14"/>
-      <c r="T229" s="29" t="s">
+      <c r="T229" s="33" t="s">
         <v>52</v>
       </c>
       <c r="U229" s="17">
@@ -20146,7 +20146,7 @@
       <c r="AA229" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC229" s="29" t="s">
+      <c r="AC229" s="33" t="s">
         <v>52</v>
       </c>
       <c r="AD229" s="19">
@@ -20170,7 +20170,7 @@
       <c r="AJ229" s="26"/>
     </row>
     <row r="230" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B230" s="29"/>
+      <c r="B230" s="33"/>
       <c r="C230" s="14">
         <v>3</v>
       </c>
@@ -20192,7 +20192,7 @@
       <c r="I230" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K230" s="29"/>
+      <c r="K230" s="33"/>
       <c r="L230" s="14">
         <v>3</v>
       </c>
@@ -20214,7 +20214,7 @@
       <c r="R230" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T230" s="29"/>
+      <c r="T230" s="33"/>
       <c r="U230" s="17">
         <v>2</v>
       </c>
@@ -20236,7 +20236,7 @@
       <c r="AA230" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC230" s="29"/>
+      <c r="AC230" s="33"/>
       <c r="AD230" s="19">
         <v>2</v>
       </c>
@@ -20298,7 +20298,7 @@
       </c>
       <c r="Q231" s="9"/>
       <c r="R231" s="8"/>
-      <c r="T231" s="29"/>
+      <c r="T231" s="33"/>
       <c r="U231" s="17">
         <v>3</v>
       </c>
@@ -20320,7 +20320,7 @@
       <c r="AA231" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC231" s="29"/>
+      <c r="AC231" s="33"/>
       <c r="AD231" s="19">
         <v>3</v>
       </c>
@@ -20340,7 +20340,7 @@
       <c r="AJ231" s="26"/>
     </row>
     <row r="232" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B232" s="29" t="s">
+      <c r="B232" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C232" s="14">
@@ -20364,7 +20364,7 @@
       <c r="I232" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K232" s="29" t="s">
+      <c r="K232" s="33" t="s">
         <v>53</v>
       </c>
       <c r="L232" s="14">
@@ -20430,7 +20430,7 @@
       <c r="AJ232" s="8"/>
     </row>
     <row r="233" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B233" s="29"/>
+      <c r="B233" s="33"/>
       <c r="C233" s="14">
         <v>2</v>
       </c>
@@ -20452,7 +20452,7 @@
       <c r="I233" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K233" s="29"/>
+      <c r="K233" s="33"/>
       <c r="L233" s="14">
         <v>2</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>107</v>
       </c>
       <c r="R233" s="14"/>
-      <c r="T233" s="29" t="s">
+      <c r="T233" s="33" t="s">
         <v>53</v>
       </c>
       <c r="U233" s="17">
@@ -20494,7 +20494,7 @@
         <v>108</v>
       </c>
       <c r="AA233" s="17"/>
-      <c r="AC233" s="29" t="s">
+      <c r="AC233" s="33" t="s">
         <v>53</v>
       </c>
       <c r="AD233" s="19">
@@ -20516,7 +20516,7 @@
       <c r="AJ233" s="19"/>
     </row>
     <row r="234" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B234" s="29"/>
+      <c r="B234" s="33"/>
       <c r="C234" s="14">
         <v>3</v>
       </c>
@@ -20538,7 +20538,7 @@
       <c r="I234" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K234" s="29"/>
+      <c r="K234" s="33"/>
       <c r="L234" s="14">
         <v>3</v>
       </c>
@@ -20560,7 +20560,7 @@
       <c r="R234" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T234" s="29"/>
+      <c r="T234" s="33"/>
       <c r="U234" s="17">
         <v>2</v>
       </c>
@@ -20582,7 +20582,7 @@
       <c r="AA234" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC234" s="29"/>
+      <c r="AC234" s="33"/>
       <c r="AD234" s="19">
         <v>2</v>
       </c>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="Q235" s="9"/>
       <c r="R235" s="8"/>
-      <c r="T235" s="29"/>
+      <c r="T235" s="33"/>
       <c r="U235" s="17">
         <v>3</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>108</v>
       </c>
       <c r="AA235" s="17"/>
-      <c r="AC235" s="29"/>
+      <c r="AC235" s="33"/>
       <c r="AD235" s="19">
         <v>3</v>
       </c>
@@ -20684,7 +20684,7 @@
       <c r="AJ235" s="26"/>
     </row>
     <row r="236" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B236" s="29" t="s">
+      <c r="B236" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C236" s="14">
@@ -20708,7 +20708,7 @@
       <c r="I236" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K236" s="29" t="s">
+      <c r="K236" s="33" t="s">
         <v>57</v>
       </c>
       <c r="L236" s="14">
@@ -20774,7 +20774,7 @@
       <c r="AJ236" s="8"/>
     </row>
     <row r="237" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B237" s="29"/>
+      <c r="B237" s="33"/>
       <c r="C237" s="14">
         <v>2</v>
       </c>
@@ -20796,7 +20796,7 @@
       <c r="I237" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K237" s="29"/>
+      <c r="K237" s="33"/>
       <c r="L237" s="14">
         <v>2</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>107</v>
       </c>
       <c r="R237" s="14"/>
-      <c r="T237" s="29" t="s">
+      <c r="T237" s="33" t="s">
         <v>57</v>
       </c>
       <c r="U237" s="17">
@@ -20840,7 +20840,7 @@
       <c r="AA237" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC237" s="29" t="s">
+      <c r="AC237" s="33" t="s">
         <v>57</v>
       </c>
       <c r="AD237" s="19">
@@ -20864,7 +20864,7 @@
       <c r="AJ237" s="19"/>
     </row>
     <row r="238" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B238" s="29"/>
+      <c r="B238" s="33"/>
       <c r="C238" s="14">
         <v>3</v>
       </c>
@@ -20886,7 +20886,7 @@
       <c r="I238" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K238" s="29"/>
+      <c r="K238" s="33"/>
       <c r="L238" s="14">
         <v>3</v>
       </c>
@@ -20908,7 +20908,7 @@
       <c r="R238" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T238" s="29"/>
+      <c r="T238" s="33"/>
       <c r="U238" s="17">
         <v>2</v>
       </c>
@@ -20930,7 +20930,7 @@
       <c r="AA238" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC238" s="29"/>
+      <c r="AC238" s="33"/>
       <c r="AD238" s="19">
         <v>2</v>
       </c>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="Q239" s="9"/>
       <c r="R239" s="8"/>
-      <c r="T239" s="29"/>
+      <c r="T239" s="33"/>
       <c r="U239" s="17">
         <v>3</v>
       </c>
@@ -21014,7 +21014,7 @@
       <c r="AA239" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC239" s="29"/>
+      <c r="AC239" s="33"/>
       <c r="AD239" s="19">
         <v>3</v>
       </c>
@@ -21034,7 +21034,7 @@
       <c r="AJ239" s="19"/>
     </row>
     <row r="240" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B240" s="29" t="s">
+      <c r="B240" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C240" s="14">
@@ -21058,7 +21058,7 @@
       <c r="I240" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K240" s="29" t="s">
+      <c r="K240" s="33" t="s">
         <v>58</v>
       </c>
       <c r="L240" s="14">
@@ -21124,7 +21124,7 @@
       <c r="AJ240" s="8"/>
     </row>
     <row r="241" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B241" s="29"/>
+      <c r="B241" s="33"/>
       <c r="C241" s="14">
         <v>2</v>
       </c>
@@ -21146,7 +21146,7 @@
       <c r="I241" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K241" s="29"/>
+      <c r="K241" s="33"/>
       <c r="L241" s="14">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>107</v>
       </c>
       <c r="R241" s="14"/>
-      <c r="T241" s="29" t="s">
+      <c r="T241" s="33" t="s">
         <v>58</v>
       </c>
       <c r="U241" s="17">
@@ -21188,7 +21188,7 @@
       <c r="AA241" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC241" s="29" t="s">
+      <c r="AC241" s="33" t="s">
         <v>58</v>
       </c>
       <c r="AD241" s="19">
@@ -21212,7 +21212,7 @@
       <c r="AJ241" s="19"/>
     </row>
     <row r="242" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B242" s="29"/>
+      <c r="B242" s="33"/>
       <c r="C242" s="14">
         <v>3</v>
       </c>
@@ -21234,7 +21234,7 @@
       <c r="I242" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K242" s="29"/>
+      <c r="K242" s="33"/>
       <c r="L242" s="14">
         <v>3</v>
       </c>
@@ -21256,7 +21256,7 @@
       <c r="R242" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T242" s="29"/>
+      <c r="T242" s="33"/>
       <c r="U242" s="17">
         <v>2</v>
       </c>
@@ -21278,7 +21278,7 @@
       <c r="AA242" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC242" s="29"/>
+      <c r="AC242" s="33"/>
       <c r="AD242" s="19">
         <v>2</v>
       </c>
@@ -21340,7 +21340,7 @@
       </c>
       <c r="Q243" s="9"/>
       <c r="R243" s="8"/>
-      <c r="T243" s="29"/>
+      <c r="T243" s="33"/>
       <c r="U243" s="17">
         <v>3</v>
       </c>
@@ -21358,7 +21358,7 @@
       </c>
       <c r="Z243" s="18"/>
       <c r="AA243" s="17"/>
-      <c r="AC243" s="29"/>
+      <c r="AC243" s="33"/>
       <c r="AD243" s="19">
         <v>3</v>
       </c>
@@ -21380,7 +21380,7 @@
       <c r="AJ243" s="19"/>
     </row>
     <row r="244" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B244" s="29" t="s">
+      <c r="B244" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C244" s="14">
@@ -21404,7 +21404,7 @@
       <c r="I244" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K244" s="29" t="s">
+      <c r="K244" s="33" t="s">
         <v>62</v>
       </c>
       <c r="L244" s="14">
@@ -21470,7 +21470,7 @@
       <c r="AJ244" s="8"/>
     </row>
     <row r="245" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B245" s="29"/>
+      <c r="B245" s="33"/>
       <c r="C245" s="14">
         <v>2</v>
       </c>
@@ -21492,7 +21492,7 @@
       <c r="I245" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K245" s="29"/>
+      <c r="K245" s="33"/>
       <c r="L245" s="14">
         <v>2</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>114</v>
       </c>
       <c r="R245" s="14"/>
-      <c r="T245" s="29" t="s">
+      <c r="T245" s="33" t="s">
         <v>62</v>
       </c>
       <c r="U245" s="17">
@@ -21536,7 +21536,7 @@
       <c r="AA245" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC245" s="29" t="s">
+      <c r="AC245" s="33" t="s">
         <v>62</v>
       </c>
       <c r="AD245" s="19">
@@ -21562,7 +21562,7 @@
       </c>
     </row>
     <row r="246" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B246" s="29"/>
+      <c r="B246" s="33"/>
       <c r="C246" s="14">
         <v>3</v>
       </c>
@@ -21584,7 +21584,7 @@
       <c r="I246" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K246" s="29"/>
+      <c r="K246" s="33"/>
       <c r="L246" s="14">
         <v>3</v>
       </c>
@@ -21606,7 +21606,7 @@
       <c r="R246" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T246" s="29"/>
+      <c r="T246" s="33"/>
       <c r="U246" s="17">
         <v>2</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>125</v>
       </c>
       <c r="AA246" s="17"/>
-      <c r="AC246" s="29"/>
+      <c r="AC246" s="33"/>
       <c r="AD246" s="19">
         <v>2</v>
       </c>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="Q247" s="9"/>
       <c r="R247" s="8"/>
-      <c r="T247" s="29"/>
+      <c r="T247" s="33"/>
       <c r="U247" s="17">
         <v>3</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>25</v>
       </c>
       <c r="AA247" s="17"/>
-      <c r="AC247" s="29"/>
+      <c r="AC247" s="33"/>
       <c r="AD247" s="19">
         <v>3</v>
       </c>
@@ -21728,7 +21728,7 @@
       <c r="AJ247" s="19"/>
     </row>
     <row r="248" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B248" s="29" t="s">
+      <c r="B248" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C248" s="14">
@@ -21752,7 +21752,7 @@
       <c r="I248" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K248" s="29" t="s">
+      <c r="K248" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L248" s="14">
@@ -21818,7 +21818,7 @@
       <c r="AJ248" s="8"/>
     </row>
     <row r="249" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B249" s="29"/>
+      <c r="B249" s="33"/>
       <c r="C249" s="14">
         <v>2</v>
       </c>
@@ -21840,7 +21840,7 @@
       <c r="I249" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K249" s="29"/>
+      <c r="K249" s="33"/>
       <c r="L249" s="14">
         <v>2</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>107</v>
       </c>
       <c r="R249" s="14"/>
-      <c r="T249" s="29" t="s">
+      <c r="T249" s="33" t="s">
         <v>65</v>
       </c>
       <c r="U249" s="17">
@@ -21884,7 +21884,7 @@
       <c r="AA249" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC249" s="29" t="s">
+      <c r="AC249" s="33" t="s">
         <v>65</v>
       </c>
       <c r="AD249" s="19">
@@ -21908,7 +21908,7 @@
       <c r="AJ249" s="19"/>
     </row>
     <row r="250" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B250" s="29"/>
+      <c r="B250" s="33"/>
       <c r="C250" s="14">
         <v>3</v>
       </c>
@@ -21930,7 +21930,7 @@
       <c r="I250" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K250" s="29"/>
+      <c r="K250" s="33"/>
       <c r="L250" s="14">
         <v>3</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>106</v>
       </c>
       <c r="R250" s="14"/>
-      <c r="T250" s="29"/>
+      <c r="T250" s="33"/>
       <c r="U250" s="17">
         <v>2</v>
       </c>
@@ -21972,7 +21972,7 @@
       <c r="AA250" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC250" s="29"/>
+      <c r="AC250" s="33"/>
       <c r="AD250" s="19">
         <v>2</v>
       </c>
@@ -22034,7 +22034,7 @@
       </c>
       <c r="Q251" s="9"/>
       <c r="R251" s="8"/>
-      <c r="T251" s="29"/>
+      <c r="T251" s="33"/>
       <c r="U251" s="17">
         <v>3</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>126</v>
       </c>
       <c r="AA251" s="17"/>
-      <c r="AC251" s="29"/>
+      <c r="AC251" s="33"/>
       <c r="AD251" s="19">
         <v>3</v>
       </c>
@@ -22076,7 +22076,7 @@
       <c r="AJ251" s="19"/>
     </row>
     <row r="252" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B252" s="29" t="s">
+      <c r="B252" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C252" s="14">
@@ -22100,7 +22100,7 @@
       <c r="I252" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K252" s="29" t="s">
+      <c r="K252" s="33" t="s">
         <v>67</v>
       </c>
       <c r="L252" s="14">
@@ -22166,7 +22166,7 @@
       <c r="AJ252" s="8"/>
     </row>
     <row r="253" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B253" s="29"/>
+      <c r="B253" s="33"/>
       <c r="C253" s="14">
         <v>2</v>
       </c>
@@ -22188,7 +22188,7 @@
       <c r="I253" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K253" s="29"/>
+      <c r="K253" s="33"/>
       <c r="L253" s="14">
         <v>2</v>
       </c>
@@ -22206,7 +22206,7 @@
       </c>
       <c r="Q253" s="15"/>
       <c r="R253" s="14"/>
-      <c r="T253" s="29" t="s">
+      <c r="T253" s="33" t="s">
         <v>67</v>
       </c>
       <c r="U253" s="17">
@@ -22230,7 +22230,7 @@
       <c r="AA253" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC253" s="29" t="s">
+      <c r="AC253" s="33" t="s">
         <v>67</v>
       </c>
       <c r="AD253" s="19">
@@ -22254,7 +22254,7 @@
       <c r="AJ253" s="26"/>
     </row>
     <row r="254" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B254" s="29"/>
+      <c r="B254" s="33"/>
       <c r="C254" s="14">
         <v>3</v>
       </c>
@@ -22276,7 +22276,7 @@
       <c r="I254" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K254" s="29"/>
+      <c r="K254" s="33"/>
       <c r="L254" s="14">
         <v>3</v>
       </c>
@@ -22298,7 +22298,7 @@
       <c r="R254" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T254" s="29"/>
+      <c r="T254" s="33"/>
       <c r="U254" s="17">
         <v>2</v>
       </c>
@@ -22320,7 +22320,7 @@
       <c r="AA254" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC254" s="29"/>
+      <c r="AC254" s="33"/>
       <c r="AD254" s="19">
         <v>2</v>
       </c>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="Q255" s="9"/>
       <c r="R255" s="8"/>
-      <c r="T255" s="29"/>
+      <c r="T255" s="33"/>
       <c r="U255" s="17">
         <v>3</v>
       </c>
@@ -22406,7 +22406,7 @@
       <c r="AA255" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC255" s="29"/>
+      <c r="AC255" s="33"/>
       <c r="AD255" s="19">
         <v>3</v>
       </c>
@@ -22426,7 +22426,7 @@
       <c r="AJ255" s="19"/>
     </row>
     <row r="256" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B256" s="29" t="s">
+      <c r="B256" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C256" s="14">
@@ -22450,7 +22450,7 @@
       <c r="I256" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K256" s="29" t="s">
+      <c r="K256" s="33" t="s">
         <v>71</v>
       </c>
       <c r="L256" s="14">
@@ -22516,7 +22516,7 @@
       <c r="AJ256" s="8"/>
     </row>
     <row r="257" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B257" s="29"/>
+      <c r="B257" s="33"/>
       <c r="C257" s="14">
         <v>2</v>
       </c>
@@ -22538,7 +22538,7 @@
       <c r="I257" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K257" s="29"/>
+      <c r="K257" s="33"/>
       <c r="L257" s="14">
         <v>2</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>104</v>
       </c>
       <c r="R257" s="14"/>
-      <c r="T257" s="29" t="s">
+      <c r="T257" s="33" t="s">
         <v>71</v>
       </c>
       <c r="U257" s="17">
@@ -22582,7 +22582,7 @@
       <c r="AA257" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC257" s="29" t="s">
+      <c r="AC257" s="33" t="s">
         <v>71</v>
       </c>
       <c r="AD257" s="19">
@@ -22606,7 +22606,7 @@
       <c r="AJ257" s="19"/>
     </row>
     <row r="258" spans="2:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B258" s="29"/>
+      <c r="B258" s="33"/>
       <c r="C258" s="14">
         <v>3</v>
       </c>
@@ -22628,7 +22628,7 @@
       <c r="I258" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K258" s="29"/>
+      <c r="K258" s="33"/>
       <c r="L258" s="14">
         <v>3</v>
       </c>
@@ -22650,7 +22650,7 @@
       <c r="R258" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T258" s="29"/>
+      <c r="T258" s="33"/>
       <c r="U258" s="17">
         <v>2</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>108</v>
       </c>
       <c r="AA258" s="17"/>
-      <c r="AC258" s="29"/>
+      <c r="AC258" s="33"/>
       <c r="AD258" s="19">
         <v>2</v>
       </c>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="Q259" s="9"/>
       <c r="R259" s="8"/>
-      <c r="T259" s="29"/>
+      <c r="T259" s="33"/>
       <c r="U259" s="17">
         <v>3</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>119</v>
       </c>
       <c r="AA259" s="17"/>
-      <c r="AC259" s="29"/>
+      <c r="AC259" s="33"/>
       <c r="AD259" s="19">
         <v>3</v>
       </c>
@@ -22772,7 +22772,7 @@
       <c r="AJ259" s="19"/>
     </row>
     <row r="260" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B260" s="29" t="s">
+      <c r="B260" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C260" s="14">
@@ -22796,7 +22796,7 @@
       <c r="I260" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K260" s="29" t="s">
+      <c r="K260" s="33" t="s">
         <v>73</v>
       </c>
       <c r="L260" s="14">
@@ -22862,7 +22862,7 @@
       <c r="AJ260" s="8"/>
     </row>
     <row r="261" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B261" s="29"/>
+      <c r="B261" s="33"/>
       <c r="C261" s="14">
         <v>2</v>
       </c>
@@ -22884,7 +22884,7 @@
       <c r="I261" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K261" s="29"/>
+      <c r="K261" s="33"/>
       <c r="L261" s="14">
         <v>2</v>
       </c>
@@ -22902,7 +22902,7 @@
       </c>
       <c r="Q261" s="15"/>
       <c r="R261" s="14"/>
-      <c r="T261" s="29" t="s">
+      <c r="T261" s="33" t="s">
         <v>73</v>
       </c>
       <c r="U261" s="17">
@@ -22926,7 +22926,7 @@
       <c r="AA261" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AC261" s="29" t="s">
+      <c r="AC261" s="33" t="s">
         <v>73</v>
       </c>
       <c r="AD261" s="19">
@@ -22952,7 +22952,7 @@
       </c>
     </row>
     <row r="262" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B262" s="29"/>
+      <c r="B262" s="33"/>
       <c r="C262" s="14">
         <v>3</v>
       </c>
@@ -22974,7 +22974,7 @@
       <c r="I262" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K262" s="29"/>
+      <c r="K262" s="33"/>
       <c r="L262" s="14">
         <v>3</v>
       </c>
@@ -22996,7 +22996,7 @@
       <c r="R262" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T262" s="29"/>
+      <c r="T262" s="33"/>
       <c r="U262" s="17">
         <v>2</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>25</v>
       </c>
       <c r="AA262" s="17"/>
-      <c r="AC262" s="29"/>
+      <c r="AC262" s="33"/>
       <c r="AD262" s="19">
         <v>2</v>
       </c>
@@ -23078,7 +23078,7 @@
       </c>
       <c r="Q263" s="9"/>
       <c r="R263" s="8"/>
-      <c r="T263" s="29"/>
+      <c r="T263" s="33"/>
       <c r="U263" s="17">
         <v>3</v>
       </c>
@@ -23098,7 +23098,7 @@
         <v>128</v>
       </c>
       <c r="AA263" s="17"/>
-      <c r="AC263" s="29"/>
+      <c r="AC263" s="33"/>
       <c r="AD263" s="19">
         <v>3</v>
       </c>
@@ -23118,7 +23118,7 @@
       <c r="AJ263" s="19"/>
     </row>
     <row r="264" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B264" s="29" t="s">
+      <c r="B264" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C264" s="14">
@@ -23142,7 +23142,7 @@
       <c r="I264" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K264" s="29" t="s">
+      <c r="K264" s="33" t="s">
         <v>76</v>
       </c>
       <c r="L264" s="14">
@@ -23208,7 +23208,7 @@
       <c r="AJ264" s="8"/>
     </row>
     <row r="265" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B265" s="29"/>
+      <c r="B265" s="33"/>
       <c r="C265" s="14">
         <v>2</v>
       </c>
@@ -23230,7 +23230,7 @@
       <c r="I265" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K265" s="29"/>
+      <c r="K265" s="33"/>
       <c r="L265" s="14">
         <v>2</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>107</v>
       </c>
       <c r="R265" s="14"/>
-      <c r="T265" s="29" t="s">
+      <c r="T265" s="33" t="s">
         <v>76</v>
       </c>
       <c r="U265" s="17">
@@ -23272,7 +23272,7 @@
         <v>108</v>
       </c>
       <c r="AA265" s="17"/>
-      <c r="AC265" s="29" t="s">
+      <c r="AC265" s="33" t="s">
         <v>76</v>
       </c>
       <c r="AD265" s="19">
@@ -23298,7 +23298,7 @@
       </c>
     </row>
     <row r="266" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B266" s="29"/>
+      <c r="B266" s="33"/>
       <c r="C266" s="14">
         <v>3</v>
       </c>
@@ -23320,7 +23320,7 @@
       <c r="I266" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K266" s="29"/>
+      <c r="K266" s="33"/>
       <c r="L266" s="14">
         <v>3</v>
       </c>
@@ -23342,7 +23342,7 @@
       <c r="R266" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T266" s="29"/>
+      <c r="T266" s="33"/>
       <c r="U266" s="17">
         <v>2</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>129</v>
       </c>
       <c r="AA266" s="17"/>
-      <c r="AC266" s="29"/>
+      <c r="AC266" s="33"/>
       <c r="AD266" s="19">
         <v>2</v>
       </c>
@@ -23422,7 +23422,7 @@
       </c>
       <c r="Q267" s="9"/>
       <c r="R267" s="8"/>
-      <c r="T267" s="29"/>
+      <c r="T267" s="33"/>
       <c r="U267" s="17">
         <v>3</v>
       </c>
@@ -23442,7 +23442,7 @@
         <v>130</v>
       </c>
       <c r="AA267" s="17"/>
-      <c r="AC267" s="29"/>
+      <c r="AC267" s="33"/>
       <c r="AD267" s="19">
         <v>3</v>
       </c>
@@ -23462,7 +23462,7 @@
       <c r="AJ267" s="19"/>
     </row>
     <row r="268" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B268" s="29" t="s">
+      <c r="B268" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C268" s="14">
@@ -23486,7 +23486,7 @@
       <c r="I268" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K268" s="29" t="s">
+      <c r="K268" s="33" t="s">
         <v>77</v>
       </c>
       <c r="L268" s="14">
@@ -23552,7 +23552,7 @@
       <c r="AJ268" s="8"/>
     </row>
     <row r="269" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B269" s="29"/>
+      <c r="B269" s="33"/>
       <c r="C269" s="14">
         <v>2</v>
       </c>
@@ -23574,7 +23574,7 @@
       <c r="I269" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K269" s="29"/>
+      <c r="K269" s="33"/>
       <c r="L269" s="14">
         <v>2</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>107</v>
       </c>
       <c r="R269" s="14"/>
-      <c r="T269" s="29" t="s">
+      <c r="T269" s="33" t="s">
         <v>77</v>
       </c>
       <c r="U269" s="17">
@@ -23616,7 +23616,7 @@
         <v>25</v>
       </c>
       <c r="AA269" s="17"/>
-      <c r="AC269" s="29" t="s">
+      <c r="AC269" s="33" t="s">
         <v>77</v>
       </c>
       <c r="AD269" s="19">
@@ -23642,7 +23642,7 @@
       </c>
     </row>
     <row r="270" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B270" s="29"/>
+      <c r="B270" s="33"/>
       <c r="C270" s="14">
         <v>3</v>
       </c>
@@ -23664,7 +23664,7 @@
       <c r="I270" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K270" s="29"/>
+      <c r="K270" s="33"/>
       <c r="L270" s="14">
         <v>3</v>
       </c>
@@ -23686,7 +23686,7 @@
       <c r="R270" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T270" s="29"/>
+      <c r="T270" s="33"/>
       <c r="U270" s="17">
         <v>2</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>124</v>
       </c>
       <c r="AA270" s="17"/>
-      <c r="AC270" s="29"/>
+      <c r="AC270" s="33"/>
       <c r="AD270" s="19">
         <v>2</v>
       </c>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="Q271" s="9"/>
       <c r="R271" s="8"/>
-      <c r="T271" s="29"/>
+      <c r="T271" s="33"/>
       <c r="U271" s="17">
         <v>3</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>25</v>
       </c>
       <c r="AA271" s="17"/>
-      <c r="AC271" s="29"/>
+      <c r="AC271" s="33"/>
       <c r="AD271" s="19">
         <v>3</v>
       </c>
@@ -23814,7 +23814,7 @@
       </c>
     </row>
     <row r="272" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B272" s="29" t="s">
+      <c r="B272" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C272" s="14">
@@ -23838,7 +23838,7 @@
       <c r="I272" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K272" s="29" t="s">
+      <c r="K272" s="33" t="s">
         <v>78</v>
       </c>
       <c r="L272" s="14">
@@ -23902,7 +23902,7 @@
       <c r="AJ272" s="8"/>
     </row>
     <row r="273" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B273" s="29"/>
+      <c r="B273" s="33"/>
       <c r="C273" s="14">
         <v>2</v>
       </c>
@@ -23924,7 +23924,7 @@
       <c r="I273" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K273" s="29"/>
+      <c r="K273" s="33"/>
       <c r="L273" s="14">
         <v>2</v>
       </c>
@@ -23944,7 +23944,7 @@
         <v>116</v>
       </c>
       <c r="R273" s="14"/>
-      <c r="T273" s="29" t="s">
+      <c r="T273" s="33" t="s">
         <v>78</v>
       </c>
       <c r="U273" s="17">
@@ -23966,7 +23966,7 @@
         <v>108</v>
       </c>
       <c r="AA273" s="17"/>
-      <c r="AC273" s="29" t="s">
+      <c r="AC273" s="33" t="s">
         <v>78</v>
       </c>
       <c r="AD273" s="19">
@@ -23992,7 +23992,7 @@
       </c>
     </row>
     <row r="274" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B274" s="29"/>
+      <c r="B274" s="33"/>
       <c r="C274" s="14">
         <v>3</v>
       </c>
@@ -24014,7 +24014,7 @@
       <c r="I274" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K274" s="29"/>
+      <c r="K274" s="33"/>
       <c r="L274" s="14">
         <v>3</v>
       </c>
@@ -24036,7 +24036,7 @@
       <c r="R274" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T274" s="29"/>
+      <c r="T274" s="33"/>
       <c r="U274" s="17">
         <v>2</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>122</v>
       </c>
       <c r="AA274" s="17"/>
-      <c r="AC274" s="29"/>
+      <c r="AC274" s="33"/>
       <c r="AD274" s="19">
         <v>2</v>
       </c>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="Q275" s="9"/>
       <c r="R275" s="8"/>
-      <c r="T275" s="29"/>
+      <c r="T275" s="33"/>
       <c r="U275" s="17">
         <v>3</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>131</v>
       </c>
       <c r="AA275" s="17"/>
-      <c r="AC275" s="29"/>
+      <c r="AC275" s="33"/>
       <c r="AD275" s="19">
         <v>3</v>
       </c>
@@ -24160,7 +24160,7 @@
       <c r="AJ275" s="19"/>
     </row>
     <row r="276" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B276" s="29" t="s">
+      <c r="B276" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C276" s="14">
@@ -24184,7 +24184,7 @@
       <c r="I276" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K276" s="29" t="s">
+      <c r="K276" s="33" t="s">
         <v>79</v>
       </c>
       <c r="L276" s="14">
@@ -24250,7 +24250,7 @@
       <c r="AJ276" s="8"/>
     </row>
     <row r="277" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B277" s="29"/>
+      <c r="B277" s="33"/>
       <c r="C277" s="14">
         <v>2</v>
       </c>
@@ -24272,7 +24272,7 @@
       <c r="I277" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K277" s="29"/>
+      <c r="K277" s="33"/>
       <c r="L277" s="14">
         <v>2</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>117</v>
       </c>
       <c r="R277" s="14"/>
-      <c r="T277" s="29" t="s">
+      <c r="T277" s="33" t="s">
         <v>79</v>
       </c>
       <c r="U277" s="17">
@@ -24314,7 +24314,7 @@
         <v>121</v>
       </c>
       <c r="AA277" s="17"/>
-      <c r="AC277" s="29" t="s">
+      <c r="AC277" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AD277" s="19">
@@ -24340,7 +24340,7 @@
       </c>
     </row>
     <row r="278" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B278" s="29"/>
+      <c r="B278" s="33"/>
       <c r="C278" s="14">
         <v>3</v>
       </c>
@@ -24362,7 +24362,7 @@
       <c r="I278" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K278" s="29"/>
+      <c r="K278" s="33"/>
       <c r="L278" s="14">
         <v>3</v>
       </c>
@@ -24384,7 +24384,7 @@
       <c r="R278" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T278" s="29"/>
+      <c r="T278" s="33"/>
       <c r="U278" s="17">
         <v>2</v>
       </c>
@@ -24404,7 +24404,7 @@
         <v>121</v>
       </c>
       <c r="AA278" s="17"/>
-      <c r="AC278" s="29"/>
+      <c r="AC278" s="33"/>
       <c r="AD278" s="19">
         <v>2</v>
       </c>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="Q279" s="9"/>
       <c r="R279" s="8"/>
-      <c r="T279" s="29"/>
+      <c r="T279" s="33"/>
       <c r="U279" s="17">
         <v>3</v>
       </c>
@@ -24486,7 +24486,7 @@
       </c>
       <c r="Z279" s="18"/>
       <c r="AA279" s="17"/>
-      <c r="AC279" s="29"/>
+      <c r="AC279" s="33"/>
       <c r="AD279" s="19">
         <v>3</v>
       </c>
@@ -24510,7 +24510,7 @@
       </c>
     </row>
     <row r="280" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="B280" s="29" t="s">
+      <c r="B280" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C280" s="14">
@@ -24534,7 +24534,7 @@
       <c r="I280" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K280" s="29" t="s">
+      <c r="K280" s="33" t="s">
         <v>81</v>
       </c>
       <c r="L280" s="14">
@@ -24600,7 +24600,7 @@
       <c r="AJ280" s="8"/>
     </row>
     <row r="281" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B281" s="29"/>
+      <c r="B281" s="33"/>
       <c r="C281" s="14">
         <v>2</v>
       </c>
@@ -24622,7 +24622,7 @@
       <c r="I281" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K281" s="29"/>
+      <c r="K281" s="33"/>
       <c r="L281" s="14">
         <v>2</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>118</v>
       </c>
       <c r="R281" s="14"/>
-      <c r="T281" s="29" t="s">
+      <c r="T281" s="33" t="s">
         <v>81</v>
       </c>
       <c r="U281" s="17">
@@ -24664,7 +24664,7 @@
         <v>108</v>
       </c>
       <c r="AA281" s="17"/>
-      <c r="AC281" s="29" t="s">
+      <c r="AC281" s="33" t="s">
         <v>81</v>
       </c>
       <c r="AD281" s="19">
@@ -24688,7 +24688,7 @@
       <c r="AJ281" s="26"/>
     </row>
     <row r="282" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B282" s="29"/>
+      <c r="B282" s="33"/>
       <c r="C282" s="14">
         <v>3</v>
       </c>
@@ -24710,7 +24710,7 @@
       <c r="I282" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K282" s="29"/>
+      <c r="K282" s="33"/>
       <c r="L282" s="14">
         <v>3</v>
       </c>
@@ -24732,7 +24732,7 @@
       <c r="R282" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T282" s="29"/>
+      <c r="T282" s="33"/>
       <c r="U282" s="17">
         <v>2</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>132</v>
       </c>
       <c r="AA282" s="17"/>
-      <c r="AC282" s="29"/>
+      <c r="AC282" s="33"/>
       <c r="AD282" s="19">
         <v>2</v>
       </c>
@@ -24816,7 +24816,7 @@
       </c>
       <c r="Q283" s="9"/>
       <c r="R283" s="8"/>
-      <c r="T283" s="29"/>
+      <c r="T283" s="33"/>
       <c r="U283" s="17">
         <v>3</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>108</v>
       </c>
       <c r="AA283" s="17"/>
-      <c r="AC283" s="29"/>
+      <c r="AC283" s="33"/>
       <c r="AD283" s="19">
         <v>3</v>
       </c>
@@ -25027,6 +25027,230 @@
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="AC277:AC279"/>
+    <mergeCell ref="AC281:AC283"/>
+    <mergeCell ref="AC241:AC243"/>
+    <mergeCell ref="AC245:AC247"/>
+    <mergeCell ref="AC249:AC251"/>
+    <mergeCell ref="AC253:AC255"/>
+    <mergeCell ref="AC257:AC259"/>
+    <mergeCell ref="AC261:AC263"/>
+    <mergeCell ref="AC265:AC267"/>
+    <mergeCell ref="AC269:AC271"/>
+    <mergeCell ref="AC273:AC275"/>
+    <mergeCell ref="AC205:AC207"/>
+    <mergeCell ref="AC209:AC211"/>
+    <mergeCell ref="AC213:AC215"/>
+    <mergeCell ref="AC217:AC219"/>
+    <mergeCell ref="AC221:AC223"/>
+    <mergeCell ref="AC225:AC227"/>
+    <mergeCell ref="AC229:AC231"/>
+    <mergeCell ref="AC233:AC235"/>
+    <mergeCell ref="AC237:AC239"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="T89:T91"/>
+    <mergeCell ref="AC89:AC91"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="T93:T95"/>
+    <mergeCell ref="AC93:AC95"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="T105:T107"/>
+    <mergeCell ref="AC105:AC107"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="T97:T99"/>
+    <mergeCell ref="AC97:AC99"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="T101:T103"/>
+    <mergeCell ref="AC101:AC103"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="T77:T79"/>
+    <mergeCell ref="AC77:AC79"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="AC81:AC83"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="AC65:AC67"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="K69:K71"/>
+    <mergeCell ref="T69:T71"/>
+    <mergeCell ref="AC69:AC71"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="T73:T75"/>
+    <mergeCell ref="AC73:AC75"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="T57:T59"/>
+    <mergeCell ref="AC57:AC59"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="AC61:AC63"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="AC41:AC43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="T45:T47"/>
+    <mergeCell ref="AC45:AC47"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="AC29:AC31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="AC33:AC35"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="K136:K138"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="K148:K150"/>
+    <mergeCell ref="K152:K154"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K124:K126"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K132:K134"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="K184:K186"/>
+    <mergeCell ref="K188:K190"/>
+    <mergeCell ref="K192:K194"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="K160:K162"/>
+    <mergeCell ref="K164:K166"/>
+    <mergeCell ref="K168:K170"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="T136:T138"/>
+    <mergeCell ref="T140:T142"/>
+    <mergeCell ref="T144:T146"/>
+    <mergeCell ref="T148:T150"/>
+    <mergeCell ref="T152:T154"/>
+    <mergeCell ref="T116:T118"/>
+    <mergeCell ref="T120:T122"/>
+    <mergeCell ref="T124:T126"/>
+    <mergeCell ref="T128:T130"/>
+    <mergeCell ref="T132:T134"/>
+    <mergeCell ref="T176:T178"/>
+    <mergeCell ref="T180:T182"/>
+    <mergeCell ref="T184:T186"/>
+    <mergeCell ref="T188:T190"/>
+    <mergeCell ref="T192:T194"/>
+    <mergeCell ref="T156:T158"/>
+    <mergeCell ref="T160:T162"/>
+    <mergeCell ref="T164:T166"/>
+    <mergeCell ref="T168:T170"/>
+    <mergeCell ref="T172:T174"/>
+    <mergeCell ref="AC136:AC138"/>
+    <mergeCell ref="AC140:AC142"/>
+    <mergeCell ref="AC144:AC146"/>
+    <mergeCell ref="AC148:AC150"/>
+    <mergeCell ref="AC152:AC154"/>
+    <mergeCell ref="AC116:AC118"/>
+    <mergeCell ref="AC120:AC122"/>
+    <mergeCell ref="AC124:AC126"/>
+    <mergeCell ref="AC128:AC130"/>
+    <mergeCell ref="AC132:AC134"/>
+    <mergeCell ref="AC176:AC178"/>
+    <mergeCell ref="AC180:AC182"/>
+    <mergeCell ref="AC184:AC186"/>
+    <mergeCell ref="AC188:AC190"/>
+    <mergeCell ref="AC192:AC194"/>
+    <mergeCell ref="AC156:AC158"/>
+    <mergeCell ref="AC160:AC162"/>
+    <mergeCell ref="AC164:AC166"/>
+    <mergeCell ref="AC168:AC170"/>
+    <mergeCell ref="AC172:AC174"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="K276:K278"/>
+    <mergeCell ref="K280:K282"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="B244:B246"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="K240:K242"/>
+    <mergeCell ref="K244:K246"/>
+    <mergeCell ref="K248:K250"/>
+    <mergeCell ref="K252:K254"/>
+    <mergeCell ref="K256:K258"/>
+    <mergeCell ref="K260:K262"/>
+    <mergeCell ref="K264:K266"/>
+    <mergeCell ref="K268:K270"/>
+    <mergeCell ref="K272:K274"/>
+    <mergeCell ref="K204:K206"/>
+    <mergeCell ref="K208:K210"/>
+    <mergeCell ref="K212:K214"/>
+    <mergeCell ref="K216:K218"/>
+    <mergeCell ref="K220:K222"/>
+    <mergeCell ref="K224:K226"/>
+    <mergeCell ref="K228:K230"/>
+    <mergeCell ref="K232:K234"/>
+    <mergeCell ref="K236:K238"/>
     <mergeCell ref="J7:Q7"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="T277:T279"/>
@@ -25051,230 +25275,6 @@
     <mergeCell ref="T237:T239"/>
     <mergeCell ref="B276:B278"/>
     <mergeCell ref="B280:B282"/>
-    <mergeCell ref="K204:K206"/>
-    <mergeCell ref="K208:K210"/>
-    <mergeCell ref="K212:K214"/>
-    <mergeCell ref="K216:K218"/>
-    <mergeCell ref="K220:K222"/>
-    <mergeCell ref="K224:K226"/>
-    <mergeCell ref="K228:K230"/>
-    <mergeCell ref="K232:K234"/>
-    <mergeCell ref="K236:K238"/>
-    <mergeCell ref="K240:K242"/>
-    <mergeCell ref="K244:K246"/>
-    <mergeCell ref="K248:K250"/>
-    <mergeCell ref="K252:K254"/>
-    <mergeCell ref="K256:K258"/>
-    <mergeCell ref="K260:K262"/>
-    <mergeCell ref="K264:K266"/>
-    <mergeCell ref="K268:K270"/>
-    <mergeCell ref="K272:K274"/>
-    <mergeCell ref="K276:K278"/>
-    <mergeCell ref="K280:K282"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="B244:B246"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="AC176:AC178"/>
-    <mergeCell ref="AC180:AC182"/>
-    <mergeCell ref="AC184:AC186"/>
-    <mergeCell ref="AC188:AC190"/>
-    <mergeCell ref="AC192:AC194"/>
-    <mergeCell ref="AC156:AC158"/>
-    <mergeCell ref="AC160:AC162"/>
-    <mergeCell ref="AC164:AC166"/>
-    <mergeCell ref="AC168:AC170"/>
-    <mergeCell ref="AC172:AC174"/>
-    <mergeCell ref="AC136:AC138"/>
-    <mergeCell ref="AC140:AC142"/>
-    <mergeCell ref="AC144:AC146"/>
-    <mergeCell ref="AC148:AC150"/>
-    <mergeCell ref="AC152:AC154"/>
-    <mergeCell ref="AC116:AC118"/>
-    <mergeCell ref="AC120:AC122"/>
-    <mergeCell ref="AC124:AC126"/>
-    <mergeCell ref="AC128:AC130"/>
-    <mergeCell ref="AC132:AC134"/>
-    <mergeCell ref="T176:T178"/>
-    <mergeCell ref="T180:T182"/>
-    <mergeCell ref="T184:T186"/>
-    <mergeCell ref="T188:T190"/>
-    <mergeCell ref="T192:T194"/>
-    <mergeCell ref="T156:T158"/>
-    <mergeCell ref="T160:T162"/>
-    <mergeCell ref="T164:T166"/>
-    <mergeCell ref="T168:T170"/>
-    <mergeCell ref="T172:T174"/>
-    <mergeCell ref="T136:T138"/>
-    <mergeCell ref="T140:T142"/>
-    <mergeCell ref="T144:T146"/>
-    <mergeCell ref="T148:T150"/>
-    <mergeCell ref="T152:T154"/>
-    <mergeCell ref="T116:T118"/>
-    <mergeCell ref="T120:T122"/>
-    <mergeCell ref="T124:T126"/>
-    <mergeCell ref="T128:T130"/>
-    <mergeCell ref="T132:T134"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="K180:K182"/>
-    <mergeCell ref="K184:K186"/>
-    <mergeCell ref="K188:K190"/>
-    <mergeCell ref="K192:K194"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="K160:K162"/>
-    <mergeCell ref="K164:K166"/>
-    <mergeCell ref="K168:K170"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="K136:K138"/>
-    <mergeCell ref="K140:K142"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="K148:K150"/>
-    <mergeCell ref="K152:K154"/>
-    <mergeCell ref="K116:K118"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K124:K126"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K132:K134"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="AC29:AC31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="AC33:AC35"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="AC41:AC43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="T45:T47"/>
-    <mergeCell ref="AC45:AC47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="AC53:AC55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="T57:T59"/>
-    <mergeCell ref="AC57:AC59"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="AC61:AC63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="AC65:AC67"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="K69:K71"/>
-    <mergeCell ref="T69:T71"/>
-    <mergeCell ref="AC69:AC71"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="T73:T75"/>
-    <mergeCell ref="AC73:AC75"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="T77:T79"/>
-    <mergeCell ref="AC77:AC79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="AC81:AC83"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="T89:T91"/>
-    <mergeCell ref="AC89:AC91"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="K93:K95"/>
-    <mergeCell ref="T93:T95"/>
-    <mergeCell ref="AC93:AC95"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="T105:T107"/>
-    <mergeCell ref="AC105:AC107"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="T97:T99"/>
-    <mergeCell ref="AC97:AC99"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="T101:T103"/>
-    <mergeCell ref="AC101:AC103"/>
-    <mergeCell ref="AC205:AC207"/>
-    <mergeCell ref="AC209:AC211"/>
-    <mergeCell ref="AC213:AC215"/>
-    <mergeCell ref="AC217:AC219"/>
-    <mergeCell ref="AC221:AC223"/>
-    <mergeCell ref="AC225:AC227"/>
-    <mergeCell ref="AC229:AC231"/>
-    <mergeCell ref="AC233:AC235"/>
-    <mergeCell ref="AC237:AC239"/>
-    <mergeCell ref="AC277:AC279"/>
-    <mergeCell ref="AC281:AC283"/>
-    <mergeCell ref="AC241:AC243"/>
-    <mergeCell ref="AC245:AC247"/>
-    <mergeCell ref="AC249:AC251"/>
-    <mergeCell ref="AC253:AC255"/>
-    <mergeCell ref="AC257:AC259"/>
-    <mergeCell ref="AC261:AC263"/>
-    <mergeCell ref="AC265:AC267"/>
-    <mergeCell ref="AC269:AC271"/>
-    <mergeCell ref="AC273:AC275"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
